--- a/JobDataBase.xlsx
+++ b/JobDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Tru.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF36DD7-FECA-4DCF-A9C1-D3F76BFAF635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65410EFB-D478-4163-869C-DB933811E255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="584" activeTab="5" xr2:uid="{A08060C5-6DB5-47FF-9FD6-AEE60E0AAE86}"/>
+    <workbookView xWindow="-19310" yWindow="-90" windowWidth="19420" windowHeight="10300" tabRatio="584" activeTab="2" xr2:uid="{A08060C5-6DB5-47FF-9FD6-AEE60E0AAE86}"/>
   </bookViews>
   <sheets>
     <sheet name="黑暗卡資料" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="投資卡資料" sheetId="3" r:id="rId8"/>
     <sheet name="工作表1" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,9 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -45,7 +43,322 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{D595911B-D224-40A5-AE4E-C8BFE104E3B0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val=".Heiti GB18030PUA"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>停賽：下回合輪到玩家時不可擲骰子</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{B174FC19-CCC0-4028-AE87-D60B96B92F1B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val=".Heiti GB18030PUA"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">：不可分期
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val=".Heiti GB18030PUA"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>：可分期</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{CA9E51DC-0A63-4C59-BCCA-D50F6F16D34A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val=".Heiti GB18030PUA"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">：未有其他條件
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val=".Heiti GB18030PUA"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>：尚有其餘條件需額外判斷</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{EFDA1AAF-0DDD-4508-83D5-B2348DCC93BC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val=".Heiti GB18030PUA"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">：只有當下回合執行
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val=".Heiti GB18030PUA"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>：延續至遊戲結束</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{5C9833FE-8A35-4B47-9262-83F938504167}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val=".Heiti GB18030PUA"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">：未有其他條件
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val=".Heiti GB18030PUA"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">：尚有其餘條件需額外判斷
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{1CB75987-5F5F-4A03-9717-E8AD5803FBB4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val=".Heiti GB18030PUA"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">：未有其他條件
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val=".Heiti GB18030PUA"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">：尚有其餘條件需額外判斷
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>依諼</author>
+    <author>User</author>
   </authors>
   <commentList>
     <comment ref="D1" authorId="0" shapeId="0" xr:uid="{9964C363-B49E-44B8-8E7E-26DD2C19B986}">
@@ -79,7 +392,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
--1 </t>
+0 </t>
         </r>
         <r>
           <rPr>
@@ -95,11 +408,50 @@
         </r>
       </text>
     </comment>
+    <comment ref="G1" authorId="1" shapeId="0" xr:uid="{7CF72383-E941-44EE-84E7-728061CDB3DB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val=".Heiti GB18030PUA"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>給予倍數，在遊戲內不更改基本時薪</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="1" shapeId="0" xr:uid="{5F2F1EFF-0C30-49EB-B9E5-8B9CFB91D028}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val=".Heiti GB18030PUA"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>時薪*月時</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>依諼</author>
@@ -343,7 +695,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>依諼</author>
@@ -512,27 +864,33 @@
   <connection id="21" xr16:uid="{C3D06E72-B22C-4603-A7E4-7BD42083C81F}" name="LargeGreat5" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\工作\LargeGreat.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="22" xr16:uid="{663FE3B5-6CA8-4904-931A-38EFB41194BA}" name="LittleGreat" type="4" refreshedVersion="0" background="1">
+  <connection id="22" xr16:uid="{A596FE58-1742-4EA9-BE3C-30255194A2C7}" name="LargeGreat6" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\User\Desktop\Tru.4\DataBase\基底\LargeGreat.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="23" xr16:uid="{663FE3B5-6CA8-4904-931A-38EFB41194BA}" name="LittleGreat" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\工作\LittleGreat.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="23" xr16:uid="{C5AAB932-CAA4-487B-9682-6F2FD8749E22}" name="LittleGreat1" type="4" refreshedVersion="0" background="1">
+  <connection id="24" xr16:uid="{C5AAB932-CAA4-487B-9682-6F2FD8749E22}" name="LittleGreat1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\工作\LittleGreat.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="24" xr16:uid="{48A16D77-48D8-4115-80FA-CD884A67C0DD}" name="LittleLuck" type="4" refreshedVersion="0" background="1">
+  <connection id="25" xr16:uid="{4735DF61-537A-46D2-A76D-DDA4B37DB44A}" name="LittleGreat2" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\User\Desktop\Tru.4\DataBase\基底\LittleGreat.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="26" xr16:uid="{48A16D77-48D8-4115-80FA-CD884A67C0DD}" name="LittleLuck" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\工作\LittleLuck.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -547,7 +905,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="462">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1037,1041 +1395,1116 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>總金額</t>
+  </si>
+  <si>
+    <t>是否需分期</t>
+  </si>
+  <si>
+    <t>分期幾個月</t>
+  </si>
+  <si>
+    <t>金額/月</t>
+  </si>
+  <si>
+    <t>其他條件</t>
+  </si>
+  <si>
+    <t>TotalCash</t>
+  </si>
+  <si>
+    <t>Installment</t>
+  </si>
+  <si>
+    <t>MonthToPay</t>
+  </si>
+  <si>
+    <t>CashPerMonth</t>
+  </si>
+  <si>
+    <t>每個月繳交月費1,680元</t>
+  </si>
+  <si>
+    <t>花費金額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人脈點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花費時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每位玩家都可參加</t>
+  </si>
+  <si>
+    <t>需有交往對象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由樂捐</t>
+  </si>
+  <si>
+    <t>和大學同學夜唱，花了490元。同時增加人脈點數2點</t>
+  </si>
+  <si>
+    <t>和朋友相約參加免費運動（有氧／體適能／重訓等），花費8小時，增加人脈點數5點。</t>
+  </si>
+  <si>
+    <t>一個人在網咖泡了一整天，花費500元。</t>
+  </si>
+  <si>
+    <t>和同學團購，買了三桶爆米花和兩盒布丁，花了545元。同時增加人脈點數2點。</t>
+  </si>
+  <si>
+    <t>這週花了16小時追劇（請確認剩餘可支配時間是否超過16小時）。</t>
+  </si>
+  <si>
+    <t>和大學同學逛街，買了一個包包，花了590元。同時人脈點數增加3點。</t>
+  </si>
+  <si>
+    <t>購買大樂透，花了500元，中了200。</t>
+  </si>
+  <si>
+    <t>和高中好友夜衝，油錢加宵夜，花費570元。同時增加人脈點數3點。</t>
+  </si>
+  <si>
+    <t>和好友逛街，買了兩件上衣和一件褲子，花費1,150元。同時增加人脈點數3點。</t>
+  </si>
+  <si>
+    <t>前往文藝特區看展覽，花費300元。</t>
+  </si>
+  <si>
+    <t>購買線上遊戲點數，花費500元。</t>
+  </si>
+  <si>
+    <t>和大學同學逛夜市，買了一條圍巾，花了590元。同時增加人脈點數3點。</t>
+  </si>
+  <si>
+    <t>和大學同學到隔壁縣市外閃一日遊，來回交通費含玩樂花了1,200元。同時增加人脈點數5點。</t>
+  </si>
+  <si>
+    <t>參加家聚，花費350元。增加人脈點數3點。</t>
+  </si>
+  <si>
+    <t>和好友喝下午茶，花費350元。同時增加人脈點數2點。</t>
+  </si>
+  <si>
+    <t>和好朋友一起去參加淨灘活動，單次花費5小時。增加人脈點數3點。</t>
+  </si>
+  <si>
+    <t>和大學同學逛街，買了一雙超酷炫夾腳拖，花了499元。同時增加人脈點數3點。</t>
+  </si>
+  <si>
+    <t>玩太晚，只好叫車回家，花計程車錢300元。</t>
+  </si>
+  <si>
+    <t>和朋友相約一起打球，花費6小時，增加人脈點數5點。</t>
+  </si>
+  <si>
+    <t>交往三週年紀念日，去牛排館慶祝，花費1,800元。同時增加人脈點數2點。（如果你有交往對象的話）</t>
+  </si>
+  <si>
+    <t>和朋友玩狼人殺等桌遊，花掉4小時。獲得人脈點數2點。</t>
+  </si>
+  <si>
+    <t>和家人去旅行，兩天一夜共花40小時。同時增加人脈點數6點。</t>
+  </si>
+  <si>
+    <t>在網拍下標一件衣服，含郵資共花650元。</t>
+  </si>
+  <si>
+    <t>和好朋友夜唱，花費500元。獲得人脈點數3點。</t>
+  </si>
+  <si>
+    <t>和大學同學相約爬山，費時5小時。獲得人脈點數2點。</t>
+  </si>
+  <si>
+    <t>和高中同學敘舊，用餐花費300元。獲得人脈點數2點。</t>
+  </si>
+  <si>
+    <t>陪學長姐去夜市吃吃喝喝，花了350元。同時增加人脈點數4點。</t>
+  </si>
+  <si>
+    <t>買了考慮很久的新鞋，花費990元。</t>
+  </si>
+  <si>
+    <t>和大學同學露營，花費600元。獲得人脈點數5點。</t>
+  </si>
+  <si>
+    <t>和大學同學逛賣場，花費500元。獲得人脈點數3點。</t>
+  </si>
+  <si>
+    <t>國內偏鄉因天災許多居民經濟出現困難，你發揮愛心捐款X元（自由樂捐，請注意，大家正看著你）。獲得人脈點數3點。</t>
+  </si>
+  <si>
+    <t>和交往對象（如果你有的話）到電影院觀看3D電影，買了爆米花，共花費400元。增加人脈點數2點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和高中好友去打保齡球，花了350元，同時增加人脈點數2點。</t>
+  </si>
+  <si>
+    <t>比賽結束慶功宴吃熱炒喝到掛，一人350元，同時增加人脈點數4點。</t>
+  </si>
+  <si>
+    <t>購買電玩遊戲，花費1000元。</t>
+  </si>
+  <si>
+    <t>同學揪團購，花費400元。同時增加人脈點數3點。</t>
+  </si>
+  <si>
+    <t>和高中好友去棒球場觀看國際比賽，幫中華隊加油，門票500元。同時增加人脈點數3點。</t>
+  </si>
+  <si>
+    <t>手機包膜，花費400元。</t>
+  </si>
+  <si>
+    <t>和社團朋友去聽一場不插電演出，花費500元。同時增加人脈點數3點。</t>
+  </si>
+  <si>
+    <t>幫手機買一個新殼，花費600元。</t>
+  </si>
+  <si>
+    <t>和朋友去吃燒肉吃到飽，花了499元。同時增加人脈點數3點。</t>
+  </si>
+  <si>
+    <t>買了新的腳踏車，花費900元。</t>
+  </si>
+  <si>
+    <t>拔粉刺，花費300元。</t>
+  </si>
+  <si>
+    <t>和心儀的對象看一場電影，花了280元。</t>
+  </si>
+  <si>
+    <t>母親節送媽媽一條金墜子項鍊，花費1,500元。同時增加人脈點數3點。</t>
+  </si>
+  <si>
+    <t>和好友一起泡溫泉，花了400元。同時增加人脈點數3點。</t>
+  </si>
+  <si>
+    <t>和同學到茶店喝茶打屁，花了350元。同時增加人脈點數3點。</t>
+  </si>
+  <si>
+    <t>和學長姐去夜市吃吃喝喝花了350元。同時增加人脈點數3點。</t>
+  </si>
+  <si>
+    <t>邀請外國朋友參觀臺灣知名景點，兩人門票600元。同時增加人脈點數5點。</t>
+  </si>
+  <si>
+    <t>和社團好友吃麻辣鍋，花費399元。同時增加人脈點數3點。</t>
+  </si>
+  <si>
+    <t>和高中同學晨唱，花費350元。獲得人脈點數3點。</t>
+  </si>
+  <si>
+    <t>和家人去野餐，用掉5小時。同時增加人脈點數3點。</t>
+  </si>
+  <si>
+    <t>和好朋友相約進行戶外非球類運動（爬山／跑步／健走等），花費8小時，增加人脈點數3點。</t>
+  </si>
+  <si>
+    <t>和大學室友夜遊，花費5小時。獲得人脈點數3點。</t>
+  </si>
+  <si>
+    <t>在宿舍和室友打麻將，輸掉800元。獲得人脈點數3點。</t>
+  </si>
+  <si>
+    <t>和同學騎車到外縣市一日遊，花費8小時。獲得人脈點數5點。</t>
+  </si>
+  <si>
+    <t>和好友約烤肉，花費300元。獲得人脈點數3點。</t>
+  </si>
+  <si>
+    <t>和打工的朋友參加路跑，花費900元。獲得人脈點數3點。</t>
+  </si>
+  <si>
+    <t>和朋友來場民宿之旅，花費1200元。獲得人脈點數5點。</t>
+  </si>
+  <si>
+    <t>和朋友相約參加實境遊戲，花費500元。人脈點數增加2點。</t>
+  </si>
+  <si>
+    <t>金額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所需書籍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所需人脈點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BookNeeds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RelationshipPointNeeds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家均適用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>減少每月生活支出</t>
+  </si>
+  <si>
+    <t>目前參與競賽的玩家均適用</t>
+  </si>
+  <si>
+    <t>正在準備證照考試的學生可以領取獎助金2,000元；已經獲取證照的學生，可領取獎學金5,000元。（符合條件的玩家均適用）</t>
+  </si>
+  <si>
+    <t>具有輔系或雙主修身分，可以於接下來的二輪遊戲中一次擲兩顆骰子。</t>
+  </si>
+  <si>
+    <t>具有任一證照，可以於接下來的兩輪遊戲中一次擲兩顆骰子。</t>
+  </si>
+  <si>
+    <t>在準備語言考試者，補助報名費1500元；已經考取語言證書者，每人可領取報名費補貼暨獎學金3,000元。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">因學期成績超過80分，可以申請某基金會獎學金5,000元。（曾購買書籍或曾進行課外閱讀總五本以上的玩家均適用）              </t>
+  </si>
+  <si>
+    <t>最近強迫自己節儉度日，節約成功，因此減少每月生活支出1,000元。</t>
+  </si>
+  <si>
+    <t>週末很努力的把房間好好整理一番，因而意外撿到疑似之前遺失的裝有2,000元紅包袋。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">參加競賽，獲佳作，獎金2,500元。（目前參與競賽的玩家均適用） </t>
+  </si>
+  <si>
+    <t>學校校務基金期末有結餘款，因此獎勵正在準備證照考試的學生可以領取獎助金2,000元；已經獲取證照的學生，可領取獎學金5,000元。（符合條件的玩家均適用）</t>
+  </si>
+  <si>
+    <t>你把整理出來用不到的二手衣物、書籍和電子用品在網路拍賣，很快便賣出換得現金3,000元。</t>
+  </si>
+  <si>
+    <t>抽中此卡的玩家若具有輔系或雙主修身分，可以於接下來的二輪遊戲中一次擲兩顆骰子。</t>
+  </si>
+  <si>
+    <t>所有人脈點數超過50點的玩家，可向銀行領取人氣禮金3,000元。</t>
+  </si>
+  <si>
+    <t>參加競賽，獲優等，獎金5,000元。（目前參與競賽的玩家均適用）</t>
+  </si>
+  <si>
+    <t>在遊戲中購買或閱讀書籍超過20本的玩家，可以領取獎金3,000元。</t>
+  </si>
+  <si>
+    <t>抽中此卡的玩家因為打工態度積極良好，獲得老闆肯定，獲得獎金2,000元。</t>
+  </si>
+  <si>
+    <t>所有奇數月生日的玩家，若人脈點數超過50點，可領取生日禮金2,000元。</t>
+  </si>
+  <si>
+    <t>參加競賽，獲特優，獎金9,000元。（目前參與競賽的玩家均適用）</t>
+  </si>
+  <si>
+    <t>抽中此卡的玩家若具有任一證照，可以於接下來的兩輪遊戲中一次擲兩顆骰子。</t>
+  </si>
+  <si>
+    <t>學校校務基金期末有結餘款，因此獎勵正在準備語言考試者，補助報名費1500元；已經考取語言證書者，每人可領取報名費補貼暨獎學金3,000元。</t>
+  </si>
+  <si>
+    <t>所有偶數月生日的玩家，若人脈點數超過50點，可領取生日禮金2,000元。</t>
+  </si>
+  <si>
+    <t>星座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StarSign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可支配金額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07月19日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02月24日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03月08日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09月21日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04月15日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月03日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01月04日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05月18日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月17日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06月20日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07月31日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03月02日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩羯座</t>
+  </si>
+  <si>
+    <t>蔡奕聰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙魚座</t>
+  </si>
+  <si>
+    <t>牡羊座</t>
+  </si>
+  <si>
+    <t>金牛座</t>
+  </si>
+  <si>
+    <t>雙子座</t>
+  </si>
+  <si>
+    <t>巨蟹座</t>
+  </si>
+  <si>
+    <t>獅子座</t>
+  </si>
+  <si>
+    <t>處女座</t>
+  </si>
+  <si>
+    <t>射手座</t>
+  </si>
+  <si>
+    <t>玩家姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊戲人物名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男女朋友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每個月生活支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每個月生活收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零用錢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作(List)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩餘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學習</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已還金額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活動(List)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學習(List)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>種類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支出金額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>適用玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人脈點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Punish_ConnectionPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每周時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeeklyTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonthlyTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>項物名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOEIC</t>
+  </si>
+  <si>
+    <t>所需月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonthNeeds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服務性社團</t>
+  </si>
+  <si>
+    <t>輔系申請</t>
+  </si>
+  <si>
+    <t>Office應用軟體</t>
+  </si>
+  <si>
+    <t>社群</t>
+  </si>
+  <si>
+    <t>趙大宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停賽次數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>參加專業領域講座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系學會幹部團隊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OtherRequire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系級球隊</t>
+  </si>
+  <si>
+    <t>服務性營隊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全國大專院學生團體競賽</t>
+  </si>
+  <si>
+    <t>懲罰人脈點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原版教科書</t>
+  </si>
+  <si>
+    <t>雙主修申請</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>國際姊妹校短期交流活動</t>
+  </si>
+  <si>
+    <t>專業學術研習營</t>
+  </si>
+  <si>
+    <t>書籍數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BookNums</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOS（Microsoft Office）標準認證CORE</t>
+  </si>
+  <si>
+    <t>某慈善機構從事志工活動</t>
+  </si>
+  <si>
+    <t>校級球隊</t>
+  </si>
+  <si>
+    <t>加入學生會/學生議會</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>參加職涯發展與探索主題</t>
+  </si>
+  <si>
+    <t>可支配時間超過6小時方可報名</t>
+  </si>
+  <si>
+    <t>參加核心職能研習營</t>
+  </si>
+  <si>
+    <t>報考MOS（Microsoft Office）標準認證EXPERT</t>
+  </si>
+  <si>
+    <t>專業或技術證照檢定考試</t>
+  </si>
+  <si>
+    <t>證書類型自訂</t>
+  </si>
+  <si>
+    <t>報考第二外語檢定</t>
+  </si>
+  <si>
+    <t>參加全國大專院學生專業競賽</t>
+  </si>
+  <si>
+    <t>國際交流青年並從事相關培訓</t>
+  </si>
+  <si>
+    <t>參加專業性社團</t>
+  </si>
+  <si>
+    <t>自修繪圖與網頁設計相關軟體或程式語言</t>
+  </si>
+  <si>
+    <t>參加企業或專業機構舉辦的主題營隊</t>
+  </si>
+  <si>
+    <t>可支配時間超過12小時方可報名</t>
+  </si>
+  <si>
+    <t>校內或校外研究計畫案</t>
+  </si>
+  <si>
+    <t>校內或校外專案活動</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去目前時薪最高的工作</t>
+  </si>
+  <si>
+    <t>購買國外知名藝人團體來台演唱會門票，搖滾區票價4,800元。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人脈點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持續時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContinuedTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>參加服務性社團（例如：慈善社、社區服務等）或體育性社團，每週活動5小時，每月20時。增加人脈點數5點，中途退出須扣人脈點數8點。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">誠品當週推薦課外書籍，一本250元，購買本數不限。每位玩家都可以購買。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">報考TOEIC，花費報名費用1,600元。讀書時間每週15小時，每月60時，需費時四個月準備。      </t>
+  </si>
+  <si>
+    <t>學校開放輔系申請，假設申請者可無條件通過。每週需使用6小時在輔系課程，每月24小時。且須持續至遊戲結束。每位玩家皆可申請。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自修學習Office應用軟體，每週費時5小時，每月20時。每位玩家皆可參與。    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">加入校外實務界及專業人士組成之社群，並出席相關活動，每月投入8小時。可隨時退出。增加人脈點數5點。  </t>
+  </si>
+  <si>
+    <t>到專門機構學習第二外語（自訂），每週花費6小時，每月24小時，學費每月500元（需支付當期費用，並在未來每個月從可支配所得中扣除）。每位玩家皆可參與。</t>
+  </si>
+  <si>
+    <t>加入系學會幹部團隊，每週活動5小時，每月20小時。任期一年。增加人脈點數5點，中途退出須扣人脈點數8點。</t>
+  </si>
+  <si>
+    <t>報名參加專業領域講座或工作坊，花費6小時，此為單月活動。（可支配時間超過６小時方可報名）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">參加系級球隊，「每月」花費15小時練習。增加人脈點數3點，中途退出須扣人脈點數5點。 </t>
+  </si>
+  <si>
+    <t>參加服務性營隊，擔任梯隊輔導員或幹部。此活動需花費20小時，為單月活動。增加人脈點數2點。</t>
+  </si>
+  <si>
+    <t>報考專業或技術證照檢定考試（證書類型自訂），每月準備30小時，需費時四個月準備。</t>
+  </si>
+  <si>
+    <t>報考專業或技術證照檢定考試（證書類型自訂），每月準備30小時，需費時四個月準備。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和同學組隊參加全國大專院學生團體競賽。每週投入10小時，準備兩個月。每位玩家皆可參與。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">購買上課用原版教科書，花費600元。每位玩家都可以購買。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和外國人進行語言交換活動或參與外語交流社團（語言自訂），每月投入10小時。</t>
+  </si>
+  <si>
+    <t>學校開放雙主修申請，假設申請者可無條件通過。每週需使用10小時在輔系課程，每月40小時。且須持續至遊戲結束。每位玩家皆可申請。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">申請學校之國際姊妹校短期交流活動，準備及參與時間每月20小時，為期2個月，不得中途退出。增加人脈點數2點，中途退出須扣人脈點數4點。      </t>
+  </si>
+  <si>
+    <t>參加專業學術研習營（金融、創業、行銷、創意、科學、外語、文學創作、藝術設計...等），每週六需花6小時，為期一個月，共需24小時。增加人脈點數2點。</t>
+  </si>
+  <si>
+    <t>從圖書館借了五本課外書，閱讀期間一個月。每週閱讀時間花費3小時，共花12小時。</t>
+  </si>
+  <si>
+    <t>報考MOS（Microsoft Office）標準認證CORE，每週花費5小時，每月準備20小時，需費時四個月準備。</t>
+  </si>
+  <si>
+    <t>「每月」花10小時前往某慈善機構從事志工活動。增加人脈點數2點，中途退出須扣人脈點數4點。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">參加校級球隊，「每月」花費30小時練習。增加人脈點數3點，中途退出須扣人脈點數5點。  </t>
+  </si>
+  <si>
+    <t>加入校級學生自治組織（如學生會或學生議會）幹部團隊，每月活動花費25小時。任期一年。增加人脈點數5點，中途退出須扣人脈點數8點。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>參加職涯發展與探索主題之講座或工作坊，單次活動，需花費6小時。（可支配時間超過6小時方可報名）</t>
+  </si>
+  <si>
+    <t>參加核心職能研習營（領導力、團隊合作、人際溝通與心靈成長...），每週日需花3小時，為期一個月，共需12小時。增加人脈點數2點。</t>
+  </si>
+  <si>
+    <t>報考MOS（Microsoft Office）標準認證EXPERT，每週花費7小時，每月準備28小時，需費時四個月準備。</t>
+  </si>
+  <si>
+    <t>報考第二外語檢定，花費報名費用1,500元。準備時間每月40小時，需費時四個月方能通過。</t>
+  </si>
+  <si>
+    <t>報名參加全國大專院學生專業競賽。每週投入8小時，準備兩個月。</t>
+  </si>
+  <si>
+    <t>教育部甄選國際交流青年並從事相關培訓，每月花費15小時，為期半年，不得中途退出。增加人脈點數5點，中途退出須扣人脈點數8點。</t>
+  </si>
+  <si>
+    <t>參加專業性社團（例如：辯論社、英語研習社、領導社、金融研習社...等），每週活動5小時，每月花費20小時。增加人脈點數5點，中途退出須扣人脈點數8點。</t>
+  </si>
+  <si>
+    <t>自修繪圖與網頁設計相關軟體或程式語言，每週花費5小時，每月需20小時。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">參加企業或專業機構舉辦的主題營隊，單次活動，花費12小時。增加人脈點數2點。（可支配時間超過12小時方可報名） </t>
+  </si>
+  <si>
+    <t>申請或參與校內或校外研究計畫案，每月投入20小時，為期半年。</t>
+  </si>
+  <si>
+    <t>參加校內或校外專案活動，每週活動6小時，每個月需24小時。專案為期4個月。增加人脈點數5點，中途退出扣人脈點數8點。</t>
+  </si>
+  <si>
+    <t>課外書籍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現價</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NowPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>種類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存款金額</t>
+  </si>
+  <si>
+    <t>利率(%年)</t>
+  </si>
+  <si>
+    <t>起始月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存期(月)</t>
+  </si>
+  <si>
+    <t>本利和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打工時，因為態度不佳，\n多次遲到且曾對主管出言不遜，\n只好辭職。\n&lt;color=red&gt;請離開目前其中一份工作&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">每天只要沒課沒出門都掛在社交軟體上，\n 一天平均上網瀏覽\n無學習性網頁內容及無意義\n網路聊天&lt;color=red&gt;2小時&lt;/color&gt;。\n（翻到此牌，現實生活中過去三天內\n曾經登入者全部適用，&lt;color=red&gt;直到遊戲結束&lt;/color&gt;）                   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必修課缺課遲到次數過多，\n達扣考標準。&lt;color=red&gt;停賽一次&lt;/color&gt;。\n（停賽期間依然可以參與活動）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因為外務過多，\n這學期學校課業超過三分之一不及格。\n&lt;color=red&gt;停賽一次&lt;/color&gt;。\n（停賽期間依然可以參與活動）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打工遇到陷阱，老闆曾延遲給薪，\n且未幫你辦理勞健保，\n還經常找藉口扣工資，\n只好離職。&lt;color=red&gt;請離開目前其中一份工作&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家中，\n只要每月打工總時數超過100小時者，\n因體力不支住院，&lt;color=red&gt;停賽一次，\n繳納住院費用10,000元&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打工時與客人發生爭吵，\n不小心致對方受傷，\n被帶到警局進行筆錄，\n並通知校方。\n損害學校名譽，&lt;color=red&gt;停賽兩次&lt;/color&gt;。\n（停賽期間依然可以參與活動）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這學期學校課業竟達二一水準，\n好在學校是雙二一制，\n下學期必須加油了。\n&lt;color=red&gt;停賽兩次&lt;/color&gt;。\n（停賽期間依然可以參與活動）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天閒著沒事就會開啟手遊，\n一天平均浪費一小時。\n翻到此牌，\n現實生活中三天內有玩過手遊者全部適用，\n直到遊戲結束。\n以一週七天一個月四週計算，\n&lt;color=red&gt;共扣28小時&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不想花錢，\n到影印店盜印整本教科書被檢舉。\n&lt;color=red&gt;繳交罰金一萬元&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>實習階段，\n不小心在公開平台透露公司重要資訊。\n&lt;color=red&gt;繳交賠償金一萬元&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在打工地方遭遇主管言語上的霸凌，\n決定離職。\n&lt;color=red&gt;請離開目前其中一份工作&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重度沉迷追劇，\n過去一周頻繁熬夜導致健康狀況大亂，\n&lt;color=red&gt;停賽一次&lt;/color&gt;。\n（停賽期間依然可以參與活動）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往打工路上遇到車禍，\n但因為雇主未辦理勞健保，\n療傷時間除了無工資收入，\n還得&lt;color=red&gt;自負醫療費用一萬元。\n停賽一次&lt;/color&gt;。\n（停賽期間依然可以參與活動）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因個性不合\n與另一半大吵一架後分手，\n心情受到影響而\n&lt;color=red&gt;失去目前時薪最高的工作&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FundName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印度聚焦基金</t>
+  </si>
+  <si>
+    <t>所有奇數月生日的玩家(身分卡)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有偶數月生日的玩家(身分卡)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天秤座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>參加班遊，三天兩夜花費2,200元。同時增加人脈點數7點。（每位玩家都可參加）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>養一隻吉娃娃，每月固定費用增加400元。（繳交當期費用後，每個月需另扣可支配所得）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演唱會門票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>買了一台全新機車30,000元，可一次付清，或分期付款一年，每月3,000元。（請先付出第一期費用後，剩餘11期從可支配所得扣除）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全新機車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>買了最新的手機，一次付清22,000元。或分期付款九期，每期2,900元。（請先付出第一期費用後，剩餘8期從可支配所得扣除）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全新手機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>名牌包原價一個要26,000。可一次付清，或分期付款十二期，每月2,500元。（請先付出第一期費用後，剩餘11期從可支配所得扣除）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名牌包</t>
   </si>
   <si>
     <t>一年一度百貨週年慶採購，花費7,800元。</t>
-  </si>
-  <si>
-    <t>買了一台單位相機14,900，可一次付清，或分期付款半年，一個月2,800元。（請先付出第一期費用後，剩餘5期從可支配所得扣除）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百貨週年慶</t>
+  </si>
+  <si>
+    <t>買了一台單眼相機14,900，可一次付清，或分期付款半年，一個月2,800元。（請先付出第一期費用後，剩餘5期從可支配所得扣除）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單眼相機</t>
   </si>
   <si>
     <t>最近換髮型，指定設計師剪髮、燙髮加上護髮，花了4,500元。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>髮型</t>
   </si>
   <si>
     <t>和朋友打牌，輸了4,200元。同時增加人脈點數3點。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打牌</t>
   </si>
   <si>
     <t>參加醫美療程共19,800。可一次付清，或分期付款八期，每月2,970元。（請先付出第一期費用後，剩餘7期從可支配所得扣除）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>醫美療程</t>
   </si>
   <si>
     <t>享受兩小時的SPA療程，花費3,800元。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPA療程</t>
+  </si>
+  <si>
+    <t>花你一個月的可支配所得買了一份禮物送喜歡的對象。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伴侶禮物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>買了一台電動含三個遊戲共花15,000元，可以選擇一次付清，或分期付款五期，每期3,600元。（請先付出第一期費用後，剩餘4期從可支配所得扣除）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>換筆記型電腦，可以一次付清35,000元，或分期付款，十二期，每期3,300元。（請先付出第一期費用後，剩餘11期從可支配所得扣除）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筆記型電腦</t>
   </si>
   <si>
     <t>雙十一大採購，花費8,500元。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙十一大採購</t>
   </si>
   <si>
     <t>買了一台平板，可一次付清15,500元，或選擇分五期付款，每期3,300元。（請先付出第一期費用後，剩餘4期從可支配所得扣除）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全新平板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電動主機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>知名健身房入會，每個月繳交月費1,680元。（請先付出當月費用後，剩餘從可支配所得扣除）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健身房會員</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>買了一台電競主機30,000元，可一次付清或選擇分期付款一年，每期3,000元。（請先付出第一期費用後，剩餘11期從可支配所得扣除）</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>總金額</t>
-  </si>
-  <si>
-    <t>是否需分期</t>
-  </si>
-  <si>
-    <t>分期幾個月</t>
-  </si>
-  <si>
-    <t>金額/月</t>
-  </si>
-  <si>
-    <t>其他條件</t>
-  </si>
-  <si>
-    <t>TotalCash</t>
-  </si>
-  <si>
-    <t>Installment</t>
-  </si>
-  <si>
-    <t>MonthToPay</t>
-  </si>
-  <si>
-    <t>CashPerMonth</t>
-  </si>
-  <si>
-    <t>每個月繳交月費1,680元</t>
-  </si>
-  <si>
-    <t>花費金額</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人脈點</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花費時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TotalTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每位玩家都可參加</t>
-  </si>
-  <si>
-    <t>需有交往對象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自由樂捐</t>
-  </si>
-  <si>
-    <t>和大學同學夜唱，花了490元。同時增加人脈點數2點</t>
-  </si>
-  <si>
-    <t>和朋友相約參加免費運動（有氧／體適能／重訓等），花費8小時，增加人脈點數5點。</t>
-  </si>
-  <si>
-    <t>一個人在網咖泡了一整天，花費500元。</t>
-  </si>
-  <si>
-    <t>和同學團購，買了三桶爆米花和兩盒布丁，花了545元。同時增加人脈點數2點。</t>
-  </si>
-  <si>
-    <t>這週花了16小時追劇（請確認剩餘可支配時間是否超過16小時）。</t>
-  </si>
-  <si>
-    <t>和大學同學逛街，買了一個包包，花了590元。同時人脈點數增加3點。</t>
-  </si>
-  <si>
-    <t>購買大樂透，花了500元，中了200。</t>
-  </si>
-  <si>
-    <t>參加班遊，三天兩夜花費2,200元。同時增加人脈點數7點。（每位玩家都可參加）</t>
-  </si>
-  <si>
-    <t>和高中好友夜衝，油錢加宵夜，花費570元。同時增加人脈點數3點。</t>
-  </si>
-  <si>
-    <t>和好友逛街，買了兩件上衣和一件褲子，花費1,150元。同時增加人脈點數3點。</t>
-  </si>
-  <si>
-    <t>前往文藝特區看展覽，花費300元。</t>
-  </si>
-  <si>
-    <t>購買線上遊戲點數，花費500元。</t>
-  </si>
-  <si>
-    <t>和大學同學逛夜市，買了一條圍巾，花了590元。同時增加人脈點數3點。</t>
-  </si>
-  <si>
-    <t>和大學同學到隔壁縣市外閃一日遊，來回交通費含玩樂花了1,200元。同時增加人脈點數5點。</t>
-  </si>
-  <si>
-    <t>參加家聚，花費350元。增加人脈點數3點。</t>
-  </si>
-  <si>
-    <t>和好友喝下午茶，花費350元。同時增加人脈點數2點。</t>
-  </si>
-  <si>
-    <t>和好朋友一起去參加淨灘活動，單次花費5小時。增加人脈點數3點。</t>
-  </si>
-  <si>
-    <t>和大學同學逛街，買了一雙超酷炫夾腳拖，花了499元。同時增加人脈點數3點。</t>
-  </si>
-  <si>
-    <t>玩太晚，只好叫車回家，花計程車錢300元。</t>
-  </si>
-  <si>
-    <t>和朋友相約一起打球，花費6小時，增加人脈點數5點。</t>
-  </si>
-  <si>
-    <t>交往三週年紀念日，去牛排館慶祝，花費1,800元。同時增加人脈點數2點。（如果你有交往對象的話）</t>
-  </si>
-  <si>
-    <t>和朋友玩狼人殺等桌遊，花掉4小時。獲得人脈點數2點。</t>
-  </si>
-  <si>
-    <t>和家人去旅行，兩天一夜共花40小時。同時增加人脈點數6點。</t>
-  </si>
-  <si>
-    <t>養一隻吉娃娃，每月固定費用增加400元。（繳交當期費用後，每個月需另扣可支配所得）</t>
-  </si>
-  <si>
-    <t>在網拍下標一件衣服，含郵資共花650元。</t>
-  </si>
-  <si>
-    <t>和好朋友夜唱，花費500元。獲得人脈點數3點。</t>
-  </si>
-  <si>
-    <t>和大學同學相約爬山，費時5小時。獲得人脈點數2點。</t>
-  </si>
-  <si>
-    <t>和高中同學敘舊，用餐花費300元。獲得人脈點數2點。</t>
-  </si>
-  <si>
-    <t>陪學長姐去夜市吃吃喝喝，花了350元。同時增加人脈點數4點。</t>
-  </si>
-  <si>
-    <t>買了考慮很久的新鞋，花費990元。</t>
-  </si>
-  <si>
-    <t>和大學同學露營，花費600元。獲得人脈點數5點。</t>
-  </si>
-  <si>
-    <t>和大學同學逛賣場，花費500元。獲得人脈點數3點。</t>
-  </si>
-  <si>
-    <t>國內偏鄉因天災許多居民經濟出現困難，你發揮愛心捐款X元（自由樂捐，請注意，大家正看著你）。獲得人脈點數3點。</t>
-  </si>
-  <si>
-    <t>和交往對象（如果你有的話）到電影院觀看3D電影，買了爆米花，共花費400元。增加人脈點數2點</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和高中好友去打保齡球，花了350元，同時增加人脈點數2點。</t>
-  </si>
-  <si>
-    <t>比賽結束慶功宴吃熱炒喝到掛，一人350元，同時增加人脈點數4點。</t>
-  </si>
-  <si>
-    <t>購買電玩遊戲，花費1000元。</t>
-  </si>
-  <si>
-    <t>同學揪團購，花費400元。同時增加人脈點數3點。</t>
-  </si>
-  <si>
-    <t>和高中好友去棒球場觀看國際比賽，幫中華隊加油，門票500元。同時增加人脈點數3點。</t>
-  </si>
-  <si>
-    <t>手機包膜，花費400元。</t>
-  </si>
-  <si>
-    <t>和社團朋友去聽一場不插電演出，花費500元。同時增加人脈點數3點。</t>
-  </si>
-  <si>
-    <t>幫手機買一個新殼，花費600元。</t>
-  </si>
-  <si>
-    <t>和朋友去吃燒肉吃到飽，花了499元。同時增加人脈點數3點。</t>
-  </si>
-  <si>
-    <t>買了新的腳踏車，花費900元。</t>
-  </si>
-  <si>
-    <t>拔粉刺，花費300元。</t>
-  </si>
-  <si>
-    <t>和心儀的對象看一場電影，花了280元。</t>
-  </si>
-  <si>
-    <t>母親節送媽媽一條金墜子項鍊，花費1,500元。同時增加人脈點數3點。</t>
-  </si>
-  <si>
-    <t>和好友一起泡溫泉，花了400元。同時增加人脈點數3點。</t>
-  </si>
-  <si>
-    <t>和同學到茶店喝茶打屁，花了350元。同時增加人脈點數3點。</t>
-  </si>
-  <si>
-    <t>和學長姐去夜市吃吃喝喝花了350元。同時增加人脈點數3點。</t>
-  </si>
-  <si>
-    <t>邀請外國朋友參觀臺灣知名景點，兩人門票600元。同時增加人脈點數5點。</t>
-  </si>
-  <si>
-    <t>和社團好友吃麻辣鍋，花費399元。同時增加人脈點數3點。</t>
-  </si>
-  <si>
-    <t>和高中同學晨唱，花費350元。獲得人脈點數3點。</t>
-  </si>
-  <si>
-    <t>和家人去野餐，用掉5小時。同時增加人脈點數3點。</t>
-  </si>
-  <si>
-    <t>和好朋友相約進行戶外非球類運動（爬山／跑步／健走等），花費8小時，增加人脈點數3點。</t>
-  </si>
-  <si>
-    <t>和大學室友夜遊，花費5小時。獲得人脈點數3點。</t>
-  </si>
-  <si>
-    <t>在宿舍和室友打麻將，輸掉800元。獲得人脈點數3點。</t>
-  </si>
-  <si>
-    <t>和同學騎車到外縣市一日遊，花費8小時。獲得人脈點數5點。</t>
-  </si>
-  <si>
-    <t>和好友約烤肉，花費300元。獲得人脈點數3點。</t>
-  </si>
-  <si>
-    <t>和打工的朋友參加路跑，花費900元。獲得人脈點數3點。</t>
-  </si>
-  <si>
-    <t>和朋友來場民宿之旅，花費1200元。獲得人脈點數5點。</t>
-  </si>
-  <si>
-    <t>和朋友相約參加實境遊戲，花費500元。人脈點數增加2點。</t>
-  </si>
-  <si>
-    <t>金額</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所需書籍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所需人脈點</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BookNeeds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RelationshipPointNeeds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家均適用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>減少每月生活支出</t>
-  </si>
-  <si>
-    <t>目前參與競賽的玩家均適用</t>
-  </si>
-  <si>
-    <t>正在準備證照考試的學生可以領取獎助金2,000元；已經獲取證照的學生，可領取獎學金5,000元。（符合條件的玩家均適用）</t>
-  </si>
-  <si>
-    <t>具有輔系或雙主修身分，可以於接下來的二輪遊戲中一次擲兩顆骰子。</t>
-  </si>
-  <si>
-    <t>具有任一證照，可以於接下來的兩輪遊戲中一次擲兩顆骰子。</t>
-  </si>
-  <si>
-    <t>在準備語言考試者，補助報名費1500元；已經考取語言證書者，每人可領取報名費補貼暨獎學金3,000元。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">因學期成績超過80分，可以申請某基金會獎學金5,000元。（曾購買書籍或曾進行課外閱讀總五本以上的玩家均適用）              </t>
-  </si>
-  <si>
-    <t>最近強迫自己節儉度日，節約成功，因此減少每月生活支出1,000元。</t>
-  </si>
-  <si>
-    <t>週末很努力的把房間好好整理一番，因而意外撿到疑似之前遺失的裝有2,000元紅包袋。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">參加競賽，獲佳作，獎金2,500元。（目前參與競賽的玩家均適用） </t>
-  </si>
-  <si>
-    <t>學校校務基金期末有結餘款，因此獎勵正在準備證照考試的學生可以領取獎助金2,000元；已經獲取證照的學生，可領取獎學金5,000元。（符合條件的玩家均適用）</t>
-  </si>
-  <si>
-    <t>你把整理出來用不到的二手衣物、書籍和電子用品在網路拍賣，很快便賣出換得現金3,000元。</t>
-  </si>
-  <si>
-    <t>抽中此卡的玩家若具有輔系或雙主修身分，可以於接下來的二輪遊戲中一次擲兩顆骰子。</t>
-  </si>
-  <si>
-    <t>所有人脈點數超過50點的玩家，可向銀行領取人氣禮金3,000元。</t>
-  </si>
-  <si>
-    <t>參加競賽，獲優等，獎金5,000元。（目前參與競賽的玩家均適用）</t>
-  </si>
-  <si>
-    <t>在遊戲中購買或閱讀書籍超過20本的玩家，可以領取獎金3,000元。</t>
-  </si>
-  <si>
-    <t>抽中此卡的玩家因為打工態度積極良好，獲得老闆肯定，獲得獎金2,000元。</t>
-  </si>
-  <si>
-    <t>所有奇數月生日的玩家，若人脈點數超過50點，可領取生日禮金2,000元。</t>
-  </si>
-  <si>
-    <t>參加競賽，獲特優，獎金9,000元。（目前參與競賽的玩家均適用）</t>
-  </si>
-  <si>
-    <t>抽中此卡的玩家若具有任一證照，可以於接下來的兩輪遊戲中一次擲兩顆骰子。</t>
-  </si>
-  <si>
-    <t>學校校務基金期末有結餘款，因此獎勵正在準備語言考試者，補助報名費1500元；已經考取語言證書者，每人可領取報名費補貼暨獎學金3,000元。</t>
-  </si>
-  <si>
-    <t>所有偶數月生日的玩家，若人脈點數超過50點，可領取生日禮金2,000元。</t>
-  </si>
-  <si>
-    <t>星座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StarSign</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可支配金額</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>07月19日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02月24日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03月08日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09月21日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04月15日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12月03日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01月04日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05月18日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10月17日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06月20日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>07月31日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03月02日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摩羯座</t>
-  </si>
-  <si>
-    <t>蔡奕聰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雙魚座</t>
-  </si>
-  <si>
-    <t>牡羊座</t>
-  </si>
-  <si>
-    <t>金牛座</t>
-  </si>
-  <si>
-    <t>雙子座</t>
-  </si>
-  <si>
-    <t>巨蟹座</t>
-  </si>
-  <si>
-    <t>獅子座</t>
-  </si>
-  <si>
-    <t>處女座</t>
-  </si>
-  <si>
-    <t>射手座</t>
-  </si>
-  <si>
-    <t>玩家姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遊戲人物名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男女朋友</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每個月生活支出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每個月生活收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>零用錢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作(List)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定支出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>總時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩餘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>學習</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>借款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>借款月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已還金額</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活動(List)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>學習(List)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>種類</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支出金額</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>適用玩家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>次數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UseTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人脈點</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Punish_ConnectionPoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每周時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeeklyTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每月時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonthlyTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>項物名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOEIC</t>
-  </si>
-  <si>
-    <t>所需月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonthNeeds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服務性社團</t>
-  </si>
-  <si>
-    <t>輔系申請</t>
-  </si>
-  <si>
-    <t>Office應用軟體</t>
-  </si>
-  <si>
-    <t>社群</t>
-  </si>
-  <si>
-    <t>趙大宇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>停賽次數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>參加專業領域講座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系學會幹部團隊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OtherRequire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系級球隊</t>
-  </si>
-  <si>
-    <t>服務性營隊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全國大專院學生團體競賽</t>
-  </si>
-  <si>
-    <t>懲罰人脈點</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原版教科書</t>
-  </si>
-  <si>
-    <t>雙主修申請</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>國際姊妹校短期交流活動</t>
-  </si>
-  <si>
-    <t>專業學術研習營</t>
-  </si>
-  <si>
-    <t>書籍數量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BookNums</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOS（Microsoft Office）標準認證CORE</t>
-  </si>
-  <si>
-    <t>某慈善機構從事志工活動</t>
-  </si>
-  <si>
-    <t>校級球隊</t>
-  </si>
-  <si>
-    <t>加入學生會/學生議會</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>參加職涯發展與探索主題</t>
-  </si>
-  <si>
-    <t>可支配時間超過6小時方可報名</t>
-  </si>
-  <si>
-    <t>參加核心職能研習營</t>
-  </si>
-  <si>
-    <t>報考MOS（Microsoft Office）標準認證EXPERT</t>
-  </si>
-  <si>
-    <t>專業或技術證照檢定考試</t>
-  </si>
-  <si>
-    <t>證書類型自訂</t>
-  </si>
-  <si>
-    <t>報考第二外語檢定</t>
-  </si>
-  <si>
-    <t>參加全國大專院學生專業競賽</t>
-  </si>
-  <si>
-    <t>國際交流青年並從事相關培訓</t>
-  </si>
-  <si>
-    <t>參加專業性社團</t>
-  </si>
-  <si>
-    <t>自修繪圖與網頁設計相關軟體或程式語言</t>
-  </si>
-  <si>
-    <t>參加企業或專業機構舉辦的主題營隊</t>
-  </si>
-  <si>
-    <t>可支配時間超過12小時方可報名</t>
-  </si>
-  <si>
-    <t>校內或校外研究計畫案</t>
-  </si>
-  <si>
-    <t>校內或校外專案活動</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失去目前時薪最高的工作</t>
-  </si>
-  <si>
-    <t>購買國外知名藝人團體來台演唱會門票，搖滾區票價4,800元。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人脈點</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConnectionPoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持續時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ContinuedTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>參加服務性社團（例如：慈善社、社區服務等）或體育性社團，每週活動5小時，每月20時。增加人脈點數5點，中途退出須扣人脈點數8點。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">誠品當週推薦課外書籍，一本250元，購買本數不限。每位玩家都可以購買。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">報考TOEIC，花費報名費用1,600元。讀書時間每週15小時，每月60時，需費時四個月準備。      </t>
-  </si>
-  <si>
-    <t>學校開放輔系申請，假設申請者可無條件通過。每週需使用6小時在輔系課程，每月24小時。且須持續至遊戲結束。每位玩家皆可申請。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自修學習Office應用軟體，每週費時5小時，每月20時。每位玩家皆可參與。    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">加入校外實務界及專業人士組成之社群，並出席相關活動，每月投入8小時。可隨時退出。增加人脈點數5點。  </t>
-  </si>
-  <si>
-    <t>到專門機構學習第二外語（自訂），每週花費6小時，每月24小時，學費每月500元（需支付當期費用，並在未來每個月從可支配所得中扣除）。每位玩家皆可參與。</t>
-  </si>
-  <si>
-    <t>加入系學會幹部團隊，每週活動5小時，每月20小時。任期一年。增加人脈點數5點，中途退出須扣人脈點數8點。</t>
-  </si>
-  <si>
-    <t>報名參加專業領域講座或工作坊，花費6小時，此為單月活動。（可支配時間超過６小時方可報名）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">參加系級球隊，「每月」花費15小時練習。增加人脈點數3點，中途退出須扣人脈點數5點。 </t>
-  </si>
-  <si>
-    <t>參加服務性營隊，擔任梯隊輔導員或幹部。此活動需花費20小時，為單月活動。增加人脈點數2點。</t>
-  </si>
-  <si>
-    <t>報考專業或技術證照檢定考試（證書類型自訂），每月準備30小時，需費時四個月準備。</t>
-  </si>
-  <si>
-    <t>報考專業或技術證照檢定考試（證書類型自訂），每月準備30小時，需費時四個月準備。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和同學組隊參加全國大專院學生團體競賽。每週投入10小時，準備兩個月。每位玩家皆可參與。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">購買上課用原版教科書，花費600元。每位玩家都可以購買。 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和外國人進行語言交換活動或參與外語交流社團（語言自訂），每月投入10小時。</t>
-  </si>
-  <si>
-    <t>學校開放雙主修申請，假設申請者可無條件通過。每週需使用10小時在輔系課程，每月40小時。且須持續至遊戲結束。每位玩家皆可申請。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">申請學校之國際姊妹校短期交流活動，準備及參與時間每月20小時，為期2個月，不得中途退出。增加人脈點數2點，中途退出須扣人脈點數4點。      </t>
-  </si>
-  <si>
-    <t>參加專業學術研習營（金融、創業、行銷、創意、科學、外語、文學創作、藝術設計...等），每週六需花6小時，為期一個月，共需24小時。增加人脈點數2點。</t>
-  </si>
-  <si>
-    <t>從圖書館借了五本課外書，閱讀期間一個月。每週閱讀時間花費3小時，共花12小時。</t>
-  </si>
-  <si>
-    <t>報考MOS（Microsoft Office）標準認證CORE，每週花費5小時，每月準備20小時，需費時四個月準備。</t>
-  </si>
-  <si>
-    <t>「每月」花10小時前往某慈善機構從事志工活動。增加人脈點數2點，中途退出須扣人脈點數4點。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">參加校級球隊，「每月」花費30小時練習。增加人脈點數3點，中途退出須扣人脈點數5點。  </t>
-  </si>
-  <si>
-    <t>加入校級學生自治組織（如學生會或學生議會）幹部團隊，每月活動花費25小時。任期一年。增加人脈點數5點，中途退出須扣人脈點數8點。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>參加職涯發展與探索主題之講座或工作坊，單次活動，需花費6小時。（可支配時間超過6小時方可報名）</t>
-  </si>
-  <si>
-    <t>參加核心職能研習營（領導力、團隊合作、人際溝通與心靈成長...），每週日需花3小時，為期一個月，共需12小時。增加人脈點數2點。</t>
-  </si>
-  <si>
-    <t>報考MOS（Microsoft Office）標準認證EXPERT，每週花費7小時，每月準備28小時，需費時四個月準備。</t>
-  </si>
-  <si>
-    <t>報考第二外語檢定，花費報名費用1,500元。準備時間每月40小時，需費時四個月方能通過。</t>
-  </si>
-  <si>
-    <t>報名參加全國大專院學生專業競賽。每週投入8小時，準備兩個月。</t>
-  </si>
-  <si>
-    <t>教育部甄選國際交流青年並從事相關培訓，每月花費15小時，為期半年，不得中途退出。增加人脈點數5點，中途退出須扣人脈點數8點。</t>
-  </si>
-  <si>
-    <t>參加專業性社團（例如：辯論社、英語研習社、領導社、金融研習社...等），每週活動5小時，每月花費20小時。增加人脈點數5點，中途退出須扣人脈點數8點。</t>
-  </si>
-  <si>
-    <t>自修繪圖與網頁設計相關軟體或程式語言，每週花費5小時，每月需20小時。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">參加企業或專業機構舉辦的主題營隊，單次活動，花費12小時。增加人脈點數2點。（可支配時間超過12小時方可報名） </t>
-  </si>
-  <si>
-    <t>申請或參與校內或校外研究計畫案，每月投入20小時，為期半年。</t>
-  </si>
-  <si>
-    <t>參加校內或校外專案活動，每週活動6小時，每個月需24小時。專案為期4個月。增加人脈點數5點，中途退出扣人脈點數8點。</t>
-  </si>
-  <si>
-    <t>課外書籍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>現價</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NowPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>種類</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存款金額</t>
-  </si>
-  <si>
-    <t>利率(%年)</t>
-  </si>
-  <si>
-    <t>起始月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存期(月)</t>
-  </si>
-  <si>
-    <t>本利和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打工時，因為態度不佳，\n多次遲到且曾對主管出言不遜，\n只好辭職。\n&lt;color=red&gt;請離開目前其中一份工作&lt;/color&gt;。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">每天只要沒課沒出門都掛在社交軟體上，\n 一天平均上網瀏覽\n無學習性網頁內容及無意義\n網路聊天&lt;color=red&gt;2小時&lt;/color&gt;。\n（翻到此牌，現實生活中過去三天內\n曾經登入者全部適用，&lt;color=red&gt;直到遊戲結束&lt;/color&gt;）                   </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必修課缺課遲到次數過多，\n達扣考標準。&lt;color=red&gt;停賽一次&lt;/color&gt;。\n（停賽期間依然可以參與活動）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因為外務過多，\n這學期學校課業超過三分之一不及格。\n&lt;color=red&gt;停賽一次&lt;/color&gt;。\n（停賽期間依然可以參與活動）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打工遇到陷阱，老闆曾延遲給薪，\n且未幫你辦理勞健保，\n還經常找藉口扣工資，\n只好離職。&lt;color=red&gt;請離開目前其中一份工作&lt;/color&gt;。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家中，\n只要每月打工總時數超過100小時者，\n因體力不支住院，&lt;color=red&gt;停賽一次，\n繳納住院費用10,000元&lt;/color&gt;。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打工時與客人發生爭吵，\n不小心致對方受傷，\n被帶到警局進行筆錄，\n並通知校方。\n損害學校名譽，&lt;color=red&gt;停賽兩次&lt;/color&gt;。\n（停賽期間依然可以參與活動）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>這學期學校課業竟達二一水準，\n好在學校是雙二一制，\n下學期必須加油了。\n&lt;color=red&gt;停賽兩次&lt;/color&gt;。\n（停賽期間依然可以參與活動）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天閒著沒事就會開啟手遊，\n一天平均浪費一小時。\n翻到此牌，\n現實生活中三天內有玩過手遊者全部適用，\n直到遊戲結束。\n以一週七天一個月四週計算，\n&lt;color=red&gt;共扣28小時&lt;/color&gt;。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不想花錢，\n到影印店盜印整本教科書被檢舉。\n&lt;color=red&gt;繳交罰金一萬元&lt;/color&gt;。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>實習階段，\n不小心在公開平台透露公司重要資訊。\n&lt;color=red&gt;繳交賠償金一萬元&lt;/color&gt;。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在打工地方遭遇主管言語上的霸凌，\n決定離職。\n&lt;color=red&gt;請離開目前其中一份工作&lt;/color&gt;。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重度沉迷追劇，\n過去一周頻繁熬夜導致健康狀況大亂，\n&lt;color=red&gt;停賽一次&lt;/color&gt;。\n（停賽期間依然可以參與活動）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前往打工路上遇到車禍，\n但因為雇主未辦理勞健保，\n療傷時間除了無工資收入，\n還得&lt;color=red&gt;自負醫療費用一萬元。\n停賽一次&lt;/color&gt;。\n（停賽期間依然可以參與活動）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因個性不合\n與另一半大吵一架後分手，\n心情受到影響而\n&lt;color=red&gt;失去目前時薪最高的工作&lt;/color&gt;。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FundName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>印度聚焦基金</t>
-  </si>
-  <si>
-    <t>所有奇數月生日的玩家(身分卡)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有偶數月生日的玩家(身分卡)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天秤座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電競主機</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2129,6 +2562,21 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val=".Heiti GB18030PUA"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val=".Heiti GB18030PUA"/>
       <family val="3"/>
       <charset val="136"/>
     </font>
@@ -2280,7 +2728,17 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="63">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2901,27 +3359,6 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema10">
-    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
-      <xsd:element nillable="true" name="LittleGreatData">
-        <xsd:complexType>
-          <xsd:sequence minOccurs="0">
-            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="LittleGreat" form="unqualified">
-              <xsd:complexType>
-                <xsd:sequence minOccurs="0">
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ID" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="TotalCash" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ConnectionPoint" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="TotalTime" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Other" form="unqualified"/>
-                </xsd:sequence>
-              </xsd:complexType>
-            </xsd:element>
-          </xsd:sequence>
-        </xsd:complexType>
-      </xsd:element>
-    </xsd:schema>
-  </Schema>
   <Schema ID="Schema11">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="LittleLuckData">
@@ -3034,7 +3471,7 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Schema ID="Schema15">
+  <Schema ID="Schema8">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="LargeGreatData">
         <xsd:complexType>
@@ -3046,6 +3483,7 @@
                     <xsd:complexType>
                       <xsd:sequence minOccurs="0">
                         <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ID" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
                         <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="TotalCash" form="unqualified"/>
                         <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Installment" form="unqualified"/>
                         <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MonthToPay" form="unqualified"/>
@@ -3064,20 +3502,49 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
+  <Schema ID="Schema10">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="LittleGreatData">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" nillable="true" name="LittleGreats" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="LittleGreat" form="unqualified">
+                    <xsd:complexType>
+                      <xsd:sequence minOccurs="0">
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ID" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="TotalCash" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ConnectionPoint" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="TotalTime" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Description" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ContinuedTime" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="OtherRequire" form="unqualified"/>
+                      </xsd:sequence>
+                    </xsd:complexType>
+                  </xsd:element>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
   <Map ID="32" Name="CharactersData_Map" RootElement="CharactersData" SchemaID="Schema9" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
     <DataBinding FileBinding="true" ConnectionID="6" DataBindingLoadMode="1"/>
   </Map>
   <Map ID="33" Name="DarkCards_Map" RootElement="DarkCards" SchemaID="Schema12" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
     <DataBinding FileBinding="true" ConnectionID="12" DataBindingLoadMode="1"/>
   </Map>
-  <Map ID="36" Name="LargeGreatData_Map" RootElement="LargeGreatData" SchemaID="Schema15" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="21" DataBindingLoadMode="1"/>
+  <Map ID="40" Name="LargeGreatData_Map" RootElement="LargeGreatData" SchemaID="Schema8" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="22" DataBindingLoadMode="1"/>
   </Map>
-  <Map ID="13" Name="LittleGreatData_Map" RootElement="LittleGreatData" SchemaID="Schema10" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="23" DataBindingLoadMode="1"/>
+  <Map ID="41" Name="LittleGreatData_Map" RootElement="LittleGreatData" SchemaID="Schema10" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="25" DataBindingLoadMode="1"/>
   </Map>
   <Map ID="14" Name="LittleLuckData_Map" RootElement="LittleLuckData" SchemaID="Schema11" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="24" DataBindingLoadMode="1"/>
+    <DataBinding FileBinding="true" ConnectionID="26" DataBindingLoadMode="1"/>
   </Map>
   <Map ID="15" Name="WorkDataBase_Map" RootElement="WorkDataBase" SchemaID="Schema7" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
     <DataBinding FileBinding="true" ConnectionID="15" DataBindingLoadMode="1"/>
@@ -3086,25 +3553,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E17D290B-C8C8-4691-B884-4C0B5391019E}" name="表格1" displayName="表格1" ref="A2:F17" tableType="xml" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60" connectionId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E17D290B-C8C8-4691-B884-4C0B5391019E}" name="表格1" displayName="表格1" ref="A2:F17" tableType="xml" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61" connectionId="12">
   <autoFilter ref="A2:F17" xr:uid="{E17D290B-C8C8-4691-B884-4C0B5391019E}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{9965917F-0B98-4776-B32C-A553A1DA885C}" uniqueName="ID" name="ID" dataDxfId="59">
+    <tableColumn id="1" xr3:uid="{9965917F-0B98-4776-B32C-A553A1DA885C}" uniqueName="ID" name="ID" dataDxfId="60">
       <xmlColumnPr mapId="33" xpath="/DarkCards/Cards/Card/ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{0B31CDE8-3F31-4172-BC4B-4B24EACECB50}" uniqueName="PunishTime" name="PunishTime" dataDxfId="58">
+    <tableColumn id="2" xr3:uid="{0B31CDE8-3F31-4172-BC4B-4B24EACECB50}" uniqueName="PunishTime" name="PunishTime" dataDxfId="59">
       <xmlColumnPr mapId="33" xpath="/DarkCards/Cards/Card/PunishTime" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FD5EE616-D6B0-4C1B-BD31-D400D22315FE}" uniqueName="PunishCash" name="PunishCash" dataDxfId="57">
+    <tableColumn id="3" xr3:uid="{FD5EE616-D6B0-4C1B-BD31-D400D22315FE}" uniqueName="PunishCash" name="PunishCash" dataDxfId="58">
       <xmlColumnPr mapId="33" xpath="/DarkCards/Cards/Card/PunishCash" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{97513991-1529-45C1-BEDB-11292DBE4EEF}" uniqueName="Suspended" name="Suspended" dataDxfId="56">
+    <tableColumn id="4" xr3:uid="{97513991-1529-45C1-BEDB-11292DBE4EEF}" uniqueName="Suspended" name="Suspended" dataDxfId="57">
       <xmlColumnPr mapId="33" xpath="/DarkCards/Cards/Card/Suspended" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6BB8F66B-E658-4FA1-8A0E-0129154BD341}" uniqueName="Description" name="Description" dataDxfId="55">
+    <tableColumn id="6" xr3:uid="{6BB8F66B-E658-4FA1-8A0E-0129154BD341}" uniqueName="Description" name="Description" dataDxfId="56">
       <xmlColumnPr mapId="33" xpath="/DarkCards/Cards/Card/Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C20DEF06-C593-4BE7-86E1-F0C47B236DA8}" uniqueName="OtherRequire" name="OtherRequire" dataDxfId="54">
+    <tableColumn id="5" xr3:uid="{C20DEF06-C593-4BE7-86E1-F0C47B236DA8}" uniqueName="OtherRequire" name="OtherRequire" dataDxfId="55">
       <xmlColumnPr mapId="33" xpath="/DarkCards/Cards/Card/OtherRequire" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3113,32 +3580,41 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5EEE68EA-7BC7-4E3E-92EA-07A450CF5882}" name="表格6" displayName="表格6" ref="A2:H19" tableType="xml" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52" connectionId="21">
-  <autoFilter ref="A2:H19" xr:uid="{5EEE68EA-7BC7-4E3E-92EA-07A450CF5882}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4C9A12F3-C427-4573-96F6-97DA5F5E8FFE}" uniqueName="ID" name="ID" dataDxfId="51">
-      <xmlColumnPr mapId="36" xpath="/LargeGreatData/LargeGreats/LargeGreat/ID" xmlDataType="string"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5EEE68EA-7BC7-4E3E-92EA-07A450CF5882}" name="表格6" displayName="表格6" ref="A2:I19" tableType="xml" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53" connectionId="22">
+  <autoFilter ref="A2:I19" xr:uid="{5EEE68EA-7BC7-4E3E-92EA-07A450CF5882}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{4C9A12F3-C427-4573-96F6-97DA5F5E8FFE}" uniqueName="ID" name="ID" dataDxfId="52">
+      <xmlColumnPr mapId="40" xpath="/LargeGreatData/LargeGreats/LargeGreat/ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{E5369D02-285D-4532-81FA-FDDDB9A6EE93}" uniqueName="TotalCash" name="TotalCash" dataDxfId="50">
-      <xmlColumnPr mapId="36" xpath="/LargeGreatData/LargeGreats/LargeGreat/TotalCash" xmlDataType="string"/>
+    <tableColumn id="9" xr3:uid="{A8710691-5DB5-4C13-A284-D4D5BA9D3566}" uniqueName="Name" name="Name" dataDxfId="0">
+      <xmlColumnPr mapId="40" xpath="/LargeGreatData/LargeGreats/LargeGreat/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2D3F724A-867C-427B-8262-58438979C731}" uniqueName="Installment" name="Installment" dataDxfId="49">
-      <xmlColumnPr mapId="36" xpath="/LargeGreatData/LargeGreats/LargeGreat/Installment" xmlDataType="string"/>
+    <tableColumn id="2" xr3:uid="{E5369D02-285D-4532-81FA-FDDDB9A6EE93}" uniqueName="TotalCash" name="TotalCash" dataDxfId="51">
+      <xmlColumnPr mapId="40" xpath="/LargeGreatData/LargeGreats/LargeGreat/TotalCash" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8B02AAFF-3AFA-4565-9E6E-DA89E60141D7}" uniqueName="MonthToPay" name="MonthToPay" dataDxfId="48">
-      <xmlColumnPr mapId="36" xpath="/LargeGreatData/LargeGreats/LargeGreat/MonthToPay" xmlDataType="string"/>
+    <tableColumn id="3" xr3:uid="{2D3F724A-867C-427B-8262-58438979C731}" uniqueName="Installment" name="Installment" dataDxfId="50">
+      <xmlColumnPr mapId="40" xpath="/LargeGreatData/LargeGreats/LargeGreat/Installment" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D73DA5E0-9F7E-4FAD-8051-2F691FC17C5D}" uniqueName="CashPerMonth" name="CashPerMonth" dataDxfId="47">
-      <xmlColumnPr mapId="36" xpath="/LargeGreatData/LargeGreats/LargeGreat/CashPerMonth" xmlDataType="string"/>
+    <tableColumn id="4" xr3:uid="{8B02AAFF-3AFA-4565-9E6E-DA89E60141D7}" uniqueName="MonthToPay" name="MonthToPay" dataDxfId="49">
+      <xmlColumnPr mapId="40" xpath="/LargeGreatData/LargeGreats/LargeGreat/MonthToPay" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DD97F88A-E7E2-4CB6-8D46-4541D1852655}" uniqueName="Description" name="Description" dataDxfId="46">
-      <xmlColumnPr mapId="36" xpath="/LargeGreatData/LargeGreats/LargeGreat/Description" xmlDataType="string"/>
+    <tableColumn id="5" xr3:uid="{D73DA5E0-9F7E-4FAD-8051-2F691FC17C5D}" uniqueName="CashPerMonth" name="CashPerMonth" dataDxfId="48">
+      <xmlColumnPr mapId="40" xpath="/LargeGreatData/LargeGreats/LargeGreat/CashPerMonth" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{30F5E13A-6148-486B-B762-B57F3470FDAB}" uniqueName="ConnectionPoint" name="ConnectionPoint" dataDxfId="45">
-      <xmlColumnPr mapId="36" xpath="/LargeGreatData/LargeGreats/LargeGreat/ConnectionPoint" xmlDataType="string"/>
+    <tableColumn id="7" xr3:uid="{DD97F88A-E7E2-4CB6-8D46-4541D1852655}" uniqueName="Description" name="Description" dataDxfId="47">
+      <xmlColumnPr mapId="40" xpath="/LargeGreatData/LargeGreats/LargeGreat/Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6C268A9A-7930-40CC-8E7B-2AC463DACAD1}" uniqueName="OtherRequire" name="OtherRequire" dataDxfId="44">
-      <xmlColumnPr mapId="36" xpath="/LargeGreatData/LargeGreats/LargeGreat/OtherRequire" xmlDataType="string"/>
+    <tableColumn id="8" xr3:uid="{30F5E13A-6148-486B-B762-B57F3470FDAB}" uniqueName="ConnectionPoint" name="ConnectionPoint" dataDxfId="46">
+      <xmlColumnPr mapId="40" xpath="/LargeGreatData/LargeGreats/LargeGreat/ConnectionPoint" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{6C268A9A-7930-40CC-8E7B-2AC463DACAD1}" uniqueName="OtherRequire" name="OtherRequire" dataDxfId="45">
+      <xmlColumnPr mapId="40" xpath="/LargeGreatData/LargeGreats/LargeGreat/OtherRequire" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3146,25 +3622,29 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{01098721-9802-42F8-9529-C303B6430AE2}" name="表格8" displayName="表格8" ref="A2:G64" tableType="xml" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" connectionId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{01098721-9802-42F8-9529-C303B6430AE2}" name="表格8" displayName="表格8" ref="A2:G64" tableType="xml" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" connectionId="25">
   <autoFilter ref="A2:G64" xr:uid="{01098721-9802-42F8-9529-C303B6430AE2}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D6F0BC58-CF5B-4566-9B11-E6453A6E8FE6}" uniqueName="ID" name="ID" dataDxfId="41">
-      <xmlColumnPr mapId="13" xpath="/LittleGreatData/LittleGreat/ID" xmlDataType="string"/>
+    <tableColumn id="1" xr3:uid="{D6F0BC58-CF5B-4566-9B11-E6453A6E8FE6}" uniqueName="ID" name="ID" dataDxfId="42">
+      <xmlColumnPr mapId="41" xpath="/LittleGreatData/LittleGreats/LittleGreat/ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{52B47B62-CDC2-4B05-A698-BFE19E2B74FC}" uniqueName="TotalCash" name="TotalCash" dataDxfId="40">
-      <xmlColumnPr mapId="13" xpath="/LittleGreatData/LittleGreat/TotalCash" xmlDataType="string"/>
+    <tableColumn id="2" xr3:uid="{52B47B62-CDC2-4B05-A698-BFE19E2B74FC}" uniqueName="TotalCash" name="TotalCash" dataDxfId="41">
+      <xmlColumnPr mapId="41" xpath="/LittleGreatData/LittleGreats/LittleGreat/TotalCash" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1BBBBF5B-50EC-406F-ABAF-D72807E42359}" uniqueName="ConnectionPoint" name="ConnectionPoint" dataDxfId="39">
-      <xmlColumnPr mapId="13" xpath="/LittleGreatData/LittleGreat/ConnectionPoint" xmlDataType="string"/>
+    <tableColumn id="3" xr3:uid="{1BBBBF5B-50EC-406F-ABAF-D72807E42359}" uniqueName="ConnectionPoint" name="ConnectionPoint" dataDxfId="40">
+      <xmlColumnPr mapId="41" xpath="/LittleGreatData/LittleGreats/LittleGreat/ConnectionPoint" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{EB2469EE-487C-48ED-8BBB-6F2EFC7EAD54}" uniqueName="TotalTime" name="TotalTime" dataDxfId="38">
-      <xmlColumnPr mapId="13" xpath="/LittleGreatData/LittleGreat/TotalTime" xmlDataType="string"/>
+    <tableColumn id="4" xr3:uid="{EB2469EE-487C-48ED-8BBB-6F2EFC7EAD54}" uniqueName="TotalTime" name="TotalTime" dataDxfId="39">
+      <xmlColumnPr mapId="41" xpath="/LittleGreatData/LittleGreats/LittleGreat/TotalTime" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A51DB3BC-583A-4FA6-A377-7A11ED185AE0}" uniqueName="6" name="Description" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{A37AD388-B666-4BFC-AB78-74EB0050A795}" uniqueName="7" name="ContinuedTime"/>
-    <tableColumn id="5" xr3:uid="{76222A9E-EDCC-4946-A69A-4CAD6222BB8A}" uniqueName="Other" name="OtherRequire" dataDxfId="36">
-      <xmlColumnPr mapId="13" xpath="/LittleGreatData/LittleGreat/Other" xmlDataType="string"/>
+    <tableColumn id="6" xr3:uid="{A51DB3BC-583A-4FA6-A377-7A11ED185AE0}" uniqueName="Description" name="Description" dataDxfId="38">
+      <xmlColumnPr mapId="41" xpath="/LittleGreatData/LittleGreats/LittleGreat/Description" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{A37AD388-B666-4BFC-AB78-74EB0050A795}" uniqueName="ContinuedTime" name="ContinuedTime">
+      <xmlColumnPr mapId="41" xpath="/LittleGreatData/LittleGreats/LittleGreat/ContinuedTime" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{76222A9E-EDCC-4946-A69A-4CAD6222BB8A}" uniqueName="OtherRequire" name="OtherRequire" dataDxfId="37">
+      <xmlColumnPr mapId="41" xpath="/LittleGreatData/LittleGreats/LittleGreat/OtherRequire" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3172,22 +3652,22 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FE234666-264F-409A-8A44-E8E0C2C62ED2}" name="表格9" displayName="表格9" ref="A2:E18" tableType="xml" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" connectionId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FE234666-264F-409A-8A44-E8E0C2C62ED2}" name="表格9" displayName="表格9" ref="A2:E18" tableType="xml" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" connectionId="26">
   <autoFilter ref="A2:E18" xr:uid="{FE234666-264F-409A-8A44-E8E0C2C62ED2}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D8597987-CBB0-4023-A70B-9CC4147467D0}" uniqueName="ID" name="ID" dataDxfId="33">
+    <tableColumn id="1" xr3:uid="{D8597987-CBB0-4023-A70B-9CC4147467D0}" uniqueName="ID" name="ID" dataDxfId="34">
       <xmlColumnPr mapId="14" xpath="/LittleLuckData/LittleLuck/ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{FB48B4C8-B260-4DD6-B5CA-720E0872EBE3}" uniqueName="TotalCash" name="TotalCash" dataDxfId="32">
+    <tableColumn id="2" xr3:uid="{FB48B4C8-B260-4DD6-B5CA-720E0872EBE3}" uniqueName="TotalCash" name="TotalCash" dataDxfId="33">
       <xmlColumnPr mapId="14" xpath="/LittleLuckData/LittleLuck/TotalCash" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F8D9E09E-AA6D-4640-9562-6A8395A69B54}" uniqueName="BookNeeds" name="BookNeeds" dataDxfId="31">
+    <tableColumn id="3" xr3:uid="{F8D9E09E-AA6D-4640-9562-6A8395A69B54}" uniqueName="BookNeeds" name="BookNeeds" dataDxfId="32">
       <xmlColumnPr mapId="14" xpath="/LittleLuckData/LittleLuck/BookNeeds" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{02C0CDAE-192D-4CA2-9E0B-F24B04D305F6}" uniqueName="RelationshipPointNeeds" name="RelationshipPointNeeds" dataDxfId="30">
+    <tableColumn id="4" xr3:uid="{02C0CDAE-192D-4CA2-9E0B-F24B04D305F6}" uniqueName="RelationshipPointNeeds" name="RelationshipPointNeeds" dataDxfId="31">
       <xmlColumnPr mapId="14" xpath="/LittleLuckData/LittleLuck/RelationshipPointNeeds" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8E6D30CE-F566-4462-A1A0-4B38E811F710}" uniqueName="OtherRequire" name="OtherRequire" dataDxfId="29">
+    <tableColumn id="5" xr3:uid="{8E6D30CE-F566-4462-A1A0-4B38E811F710}" uniqueName="OtherRequire" name="OtherRequire" dataDxfId="30">
       <xmlColumnPr mapId="14" xpath="/LittleLuckData/LittleLuck/OtherRequire" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3196,46 +3676,46 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{4A1B4344-A6AD-4675-AE5A-79750CCE0C9E}" name="表格19" displayName="表格19" ref="A2:M33" tableType="xml" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" connectionId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{4A1B4344-A6AD-4675-AE5A-79750CCE0C9E}" name="表格19" displayName="表格19" ref="A2:M33" tableType="xml" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" connectionId="15">
   <autoFilter ref="A2:M33" xr:uid="{4A1B4344-A6AD-4675-AE5A-79750CCE0C9E}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{05240DE6-B2D5-424E-B8E7-91CF6F180FE7}" uniqueName="ID" name="ID" dataDxfId="26">
+    <tableColumn id="1" xr3:uid="{05240DE6-B2D5-424E-B8E7-91CF6F180FE7}" uniqueName="ID" name="ID" dataDxfId="27">
       <xmlColumnPr mapId="15" xpath="/WorkDataBase/Work/ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{1C5C3DFC-E4A3-44DC-9013-6AB53FD49AC8}" uniqueName="Name" name="Name" dataDxfId="25">
+    <tableColumn id="2" xr3:uid="{1C5C3DFC-E4A3-44DC-9013-6AB53FD49AC8}" uniqueName="Name" name="Name" dataDxfId="26">
       <xmlColumnPr mapId="15" xpath="/WorkDataBase/Work/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{78C4F42B-74AE-417E-B663-C9189C1BF2C8}" uniqueName="Post" name="Post" dataDxfId="24">
+    <tableColumn id="3" xr3:uid="{78C4F42B-74AE-417E-B663-C9189C1BF2C8}" uniqueName="Post" name="Post" dataDxfId="25">
       <xmlColumnPr mapId="15" xpath="/WorkDataBase/Work/Post" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{65040293-4B9A-4A0D-BE16-1B22B3624CE6}" uniqueName="PersonRequire" name="PersonRequire" dataDxfId="23">
+    <tableColumn id="4" xr3:uid="{65040293-4B9A-4A0D-BE16-1B22B3624CE6}" uniqueName="PersonRequire" name="PersonRequire" dataDxfId="24">
       <xmlColumnPr mapId="15" xpath="/WorkDataBase/Work/PersonRequire" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B1193EE9-D4C7-47C3-BAA2-D7E95D627F5B}" uniqueName="StartMonth" name="StartMonth" dataDxfId="22">
+    <tableColumn id="5" xr3:uid="{B1193EE9-D4C7-47C3-BAA2-D7E95D627F5B}" uniqueName="StartMonth" name="StartMonth" dataDxfId="23">
       <xmlColumnPr mapId="15" xpath="/WorkDataBase/Work/StartMonth" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{31DB3E11-1DCB-4784-9602-85AA29DCAFF3}" uniqueName="EndMonth" name="EndMonth" dataDxfId="21">
+    <tableColumn id="6" xr3:uid="{31DB3E11-1DCB-4784-9602-85AA29DCAFF3}" uniqueName="EndMonth" name="EndMonth" dataDxfId="22">
       <xmlColumnPr mapId="15" xpath="/WorkDataBase/Work/EndMonth" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{CA97C32B-5122-45FE-A661-E8406569B4EE}" uniqueName="HourlySalary" name="HourlySalary" dataDxfId="20">
+    <tableColumn id="7" xr3:uid="{CA97C32B-5122-45FE-A661-E8406569B4EE}" uniqueName="HourlySalary" name="HourlySalary" dataDxfId="21">
       <xmlColumnPr mapId="15" xpath="/WorkDataBase/Work/HourlySalary" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{146C5670-0ED4-4EBB-BE52-8192F3F522BE}" uniqueName="MonthlySalary" name="MonthlySalary" dataDxfId="19">
+    <tableColumn id="8" xr3:uid="{146C5670-0ED4-4EBB-BE52-8192F3F522BE}" uniqueName="MonthlySalary" name="MonthlySalary" dataDxfId="20">
       <xmlColumnPr mapId="15" xpath="/WorkDataBase/Work/MonthlySalary" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D9897E5B-3376-44D7-A68F-3A68B76104E9}" uniqueName="AnnualSalary" name="AnnualSalary" dataDxfId="18">
+    <tableColumn id="9" xr3:uid="{D9897E5B-3376-44D7-A68F-3A68B76104E9}" uniqueName="AnnualSalary" name="AnnualSalary" dataDxfId="19">
       <xmlColumnPr mapId="15" xpath="/WorkDataBase/Work/AnnualSalary" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{8FF8F675-CE3C-4EE5-8FDE-B39A06B9BBF2}" uniqueName="WeeklyTime" name="WeeklyTime" dataDxfId="17">
+    <tableColumn id="10" xr3:uid="{8FF8F675-CE3C-4EE5-8FDE-B39A06B9BBF2}" uniqueName="WeeklyTime" name="WeeklyTime" dataDxfId="18">
       <xmlColumnPr mapId="15" xpath="/WorkDataBase/Work/WeeklyTime" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{CB7B846A-AA9A-4E90-9FC9-D6AA4018F4CA}" uniqueName="MonthlyTime" name="MonthlyTime" dataDxfId="16">
+    <tableColumn id="11" xr3:uid="{CB7B846A-AA9A-4E90-9FC9-D6AA4018F4CA}" uniqueName="MonthlyTime" name="MonthlyTime" dataDxfId="17">
       <xmlColumnPr mapId="15" xpath="/WorkDataBase/Work/MonthlyTime" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{969FA5E6-DAEB-4C04-9F8F-2E6F0D75FF9E}" uniqueName="MonthlyRequire" name="MonthlyRequire" dataDxfId="15">
+    <tableColumn id="12" xr3:uid="{969FA5E6-DAEB-4C04-9F8F-2E6F0D75FF9E}" uniqueName="MonthlyRequire" name="MonthlyRequire" dataDxfId="16">
       <xmlColumnPr mapId="15" xpath="/WorkDataBase/Work/MonthlyRequire" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{E9D82839-CC1B-4D21-B347-AD0C4769B1FF}" uniqueName="OtherRequire" name="OtherRequire" dataDxfId="14">
+    <tableColumn id="13" xr3:uid="{E9D82839-CC1B-4D21-B347-AD0C4769B1FF}" uniqueName="OtherRequire" name="OtherRequire" dataDxfId="15">
       <xmlColumnPr mapId="15" xpath="/WorkDataBase/Work/OtherRequire" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3244,46 +3724,46 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB976CD4-8313-483B-9CC7-9B2FD4A7F8B1}" name="表格2" displayName="表格2" ref="A2:L22" tableType="xml" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" connectionId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB976CD4-8313-483B-9CC7-9B2FD4A7F8B1}" name="表格2" displayName="表格2" ref="A2:L22" tableType="xml" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" connectionId="6">
   <autoFilter ref="A2:L22" xr:uid="{CB976CD4-8313-483B-9CC7-9B2FD4A7F8B1}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:R22">
     <sortCondition ref="A3:A22"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{EF9B6792-E319-4F3A-9395-E7F0E21DAC1C}" uniqueName="ID" name="ID" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{EF9B6792-E319-4F3A-9395-E7F0E21DAC1C}" uniqueName="ID" name="ID" dataDxfId="12">
       <xmlColumnPr mapId="32" xpath="/CharactersData/Characters/Character/ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D28A433D-CDA8-4896-A910-094181D5B8E3}" uniqueName="Name" name="Name" dataDxfId="10">
+    <tableColumn id="3" xr3:uid="{D28A433D-CDA8-4896-A910-094181D5B8E3}" uniqueName="Name" name="Name" dataDxfId="11">
       <xmlColumnPr mapId="32" xpath="/CharactersData/Characters/Character/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{6DD8687C-0012-4EBA-87AE-983C9DBC254B}" uniqueName="Birth" name="Birth" dataDxfId="9">
+    <tableColumn id="4" xr3:uid="{6DD8687C-0012-4EBA-87AE-983C9DBC254B}" uniqueName="Birth" name="Birth" dataDxfId="10">
       <xmlColumnPr mapId="32" xpath="/CharactersData/Characters/Character/Birth" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A34F4AC5-2176-4DA6-B292-5412C0D70321}" uniqueName="Relationship" name="Relationship" dataDxfId="8">
+    <tableColumn id="5" xr3:uid="{A34F4AC5-2176-4DA6-B292-5412C0D70321}" uniqueName="Relationship" name="Relationship" dataDxfId="9">
       <xmlColumnPr mapId="32" xpath="/CharactersData/Characters/Character/Relationship" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{2C9ACC86-3D76-451B-8E53-8657D9246CAB}" uniqueName="StarSign" name="StarSign" dataDxfId="7">
+    <tableColumn id="19" xr3:uid="{2C9ACC86-3D76-451B-8E53-8657D9246CAB}" uniqueName="StarSign" name="StarSign" dataDxfId="8">
       <xmlColumnPr mapId="32" xpath="/CharactersData/Characters/Character/StarSign" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{22B6D80F-8DE2-4985-A848-1F621FC49873}" uniqueName="PocketMoney" name="PocketMoney" dataDxfId="6">
+    <tableColumn id="6" xr3:uid="{22B6D80F-8DE2-4985-A848-1F621FC49873}" uniqueName="PocketMoney" name="PocketMoney" dataDxfId="7">
       <xmlColumnPr mapId="32" xpath="/CharactersData/Characters/Character/PocketMoney" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B96ED033-7D98-40A7-92ED-6F7D1E531255}" uniqueName="Salary" name="Salary" dataDxfId="5">
+    <tableColumn id="7" xr3:uid="{B96ED033-7D98-40A7-92ED-6F7D1E531255}" uniqueName="Salary" name="Salary" dataDxfId="6">
       <xmlColumnPr mapId="32" xpath="/CharactersData/Characters/Character/Salary" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{6700D963-D6E0-4E3D-94CA-30E307377171}" uniqueName="LivingExpend" name="LivingExpend" dataDxfId="4">
+    <tableColumn id="8" xr3:uid="{6700D963-D6E0-4E3D-94CA-30E307377171}" uniqueName="LivingExpend" name="LivingExpend" dataDxfId="5">
       <xmlColumnPr mapId="32" xpath="/CharactersData/Characters/Character/LivingExpend" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{68749A43-75A0-4A2D-A05B-3A4BCB1FF32F}" uniqueName="StartJob" name="StartJob" dataDxfId="3">
+    <tableColumn id="9" xr3:uid="{68749A43-75A0-4A2D-A05B-3A4BCB1FF32F}" uniqueName="StartJob" name="StartJob" dataDxfId="4">
       <xmlColumnPr mapId="32" xpath="/CharactersData/Characters/Character/StartJob" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{0735FA9F-637A-4338-B3D7-9DBB5B12DFB9}" uniqueName="AllocateCash" name="AllocateCash" dataDxfId="2">
+    <tableColumn id="10" xr3:uid="{0735FA9F-637A-4338-B3D7-9DBB5B12DFB9}" uniqueName="AllocateCash" name="AllocateCash" dataDxfId="3">
       <xmlColumnPr mapId="32" xpath="/CharactersData/Characters/Character/AllocateCash" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{A5B619AB-1DED-47F6-88C0-315C48128F19}" uniqueName="AllocateTime" name="AllocateTime" dataDxfId="1">
+    <tableColumn id="11" xr3:uid="{A5B619AB-1DED-47F6-88C0-315C48128F19}" uniqueName="AllocateTime" name="AllocateTime" dataDxfId="2">
       <xmlColumnPr mapId="32" xpath="/CharactersData/Characters/Character/AllocateTime" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B6916EF1-599A-4400-BCFF-8D91C80C1BD9}" uniqueName="ConnectionPoint" name="ConnectionPoint" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{B6916EF1-599A-4400-BCFF-8D91C80C1BD9}" uniqueName="ConnectionPoint" name="ConnectionPoint" dataDxfId="1">
       <xmlColumnPr mapId="32" xpath="/CharactersData/Characters/Character/ConnectionPoint" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3587,20 +4067,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F13BD33-04D2-483C-86FB-D784764C2C9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F13BD33-04D2-483C-86FB-D784764C2C9B}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14:E15"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="8.44140625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.109375" bestFit="1" customWidth="1"/>
@@ -3610,7 +4090,7 @@
     <col min="6" max="6" width="18.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3624,13 +4104,13 @@
         <v>84</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3644,13 +4124,13 @@
         <v>87</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -3664,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="F3" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -3684,13 +4164,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -3704,13 +4184,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -3724,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
@@ -3733,7 +4213,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -3747,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
@@ -3756,7 +4236,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -3770,13 +4250,13 @@
         <v>2</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -3790,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -3799,7 +4279,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -3813,13 +4293,13 @@
         <v>2</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="F10" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -3833,13 +4313,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="F11" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -3853,13 +4333,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="F12" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -3873,13 +4353,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="F13" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -3893,16 +4373,16 @@
         <v>0</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F14" s="5">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -3916,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="F15" s="5">
         <v>1</v>
@@ -3925,7 +4405,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -3939,13 +4419,13 @@
         <v>1</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="F16" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -3959,7 +4439,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="F17" s="5">
         <v>0</v>
@@ -3968,357 +4448,396 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF2F7FF-89FD-4E09-9A3A-1A16D8ADD817}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF2F7FF-89FD-4E09-9A3A-1A16D8ADD817}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18:XFD18"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="5.33203125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.33203125" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="59.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="11" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="14" customFormat="1">
       <c r="A1" s="14" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>157</v>
+        <v>421</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>367</v>
+        <v>145</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="14" customFormat="1">
       <c r="A2" s="14" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>162</v>
+        <v>1</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>369</v>
+        <v>150</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" hidden="1">
       <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="C3" s="15">
         <v>4800</v>
       </c>
-      <c r="C3" s="15">
-        <v>0</v>
-      </c>
       <c r="D3" s="15">
         <v>0</v>
       </c>
       <c r="E3" s="15">
         <v>0</v>
       </c>
-      <c r="F3" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G3" s="15">
-        <v>0</v>
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>354</v>
       </c>
       <c r="H3" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I3" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="C4" s="15">
         <v>30000</v>
       </c>
-      <c r="C4" s="15">
-        <v>1</v>
-      </c>
       <c r="D4" s="15">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15">
         <v>12</v>
       </c>
-      <c r="E4" s="15">
+      <c r="F4" s="15">
         <v>3000</v>
       </c>
-      <c r="F4" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="G4" s="15">
-        <v>0</v>
+      <c r="G4" s="25" t="s">
+        <v>430</v>
       </c>
       <c r="H4" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="C5" s="15">
         <v>22000</v>
       </c>
-      <c r="C5" s="15">
-        <v>1</v>
-      </c>
       <c r="D5" s="15">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15">
         <v>9</v>
       </c>
-      <c r="E5" s="15">
+      <c r="F5" s="15">
         <v>2900</v>
       </c>
-      <c r="F5" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="G5" s="15">
-        <v>0</v>
+      <c r="G5" s="25" t="s">
+        <v>432</v>
       </c>
       <c r="H5" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="C6" s="15">
         <v>26000</v>
       </c>
-      <c r="C6" s="15">
-        <v>1</v>
-      </c>
       <c r="D6" s="15">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15">
         <v>12</v>
       </c>
-      <c r="E6" s="15">
+      <c r="F6" s="15">
         <v>2500</v>
       </c>
-      <c r="F6" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="G6" s="15">
-        <v>0</v>
+      <c r="G6" s="25" t="s">
+        <v>434</v>
       </c>
       <c r="H6" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" hidden="1">
       <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="C7" s="15">
         <v>7800</v>
       </c>
-      <c r="C7" s="15">
-        <v>0</v>
-      </c>
       <c r="D7" s="15">
         <v>0</v>
       </c>
       <c r="E7" s="15">
         <v>0</v>
       </c>
-      <c r="F7" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="G7" s="15">
-        <v>0</v>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>436</v>
       </c>
       <c r="H7" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="C8" s="15">
         <v>14900</v>
       </c>
-      <c r="C8" s="15">
-        <v>1</v>
-      </c>
       <c r="D8" s="15">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15">
         <v>6</v>
       </c>
-      <c r="E8" s="15">
+      <c r="F8" s="15">
         <v>2800</v>
       </c>
-      <c r="F8" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="G8" s="15">
-        <v>0</v>
+      <c r="G8" s="25" t="s">
+        <v>438</v>
       </c>
       <c r="H8" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I8" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" hidden="1">
       <c r="A9" s="13">
         <v>7</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="C9" s="15">
         <v>4500</v>
       </c>
-      <c r="C9" s="15">
-        <v>0</v>
-      </c>
       <c r="D9" s="15">
         <v>0</v>
       </c>
       <c r="E9" s="15">
         <v>0</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="G9" s="15">
-        <v>0</v>
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>440</v>
       </c>
       <c r="H9" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I9" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" hidden="1">
       <c r="A10" s="13">
         <v>8</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="C10" s="15">
         <v>4200</v>
       </c>
-      <c r="C10" s="15">
-        <v>0</v>
-      </c>
       <c r="D10" s="15">
         <v>0</v>
       </c>
       <c r="E10" s="15">
         <v>0</v>
       </c>
-      <c r="F10" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="G10" s="15">
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="H10" s="15">
         <v>3</v>
       </c>
-      <c r="H10" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I10" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="13">
         <v>9</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="C11" s="15">
         <v>19800</v>
       </c>
-      <c r="C11" s="15">
-        <v>1</v>
-      </c>
       <c r="D11" s="15">
+        <v>1</v>
+      </c>
+      <c r="E11" s="15">
         <v>8</v>
       </c>
-      <c r="E11" s="15">
+      <c r="F11" s="15">
         <v>2970</v>
       </c>
-      <c r="F11" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="G11" s="15">
-        <v>0</v>
+      <c r="G11" s="25" t="s">
+        <v>444</v>
       </c>
       <c r="H11" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I11" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" hidden="1">
       <c r="A12" s="13">
         <v>10</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="C12" s="15">
         <v>3800</v>
       </c>
-      <c r="C12" s="15">
-        <v>0</v>
-      </c>
       <c r="D12" s="15">
         <v>0</v>
       </c>
       <c r="E12" s="15">
         <v>0</v>
       </c>
-      <c r="F12" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="G12" s="15">
-        <v>0</v>
+      <c r="F12" s="15">
+        <v>0</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>446</v>
       </c>
       <c r="H12" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="29" customFormat="1" hidden="1">
       <c r="A13" s="27">
         <v>11</v>
       </c>
-      <c r="B13" s="27">
-        <v>0</v>
+      <c r="B13" s="27" t="s">
+        <v>449</v>
       </c>
       <c r="C13" s="27">
         <v>0</v>
@@ -4329,249 +4848,272 @@
       <c r="E13" s="27">
         <v>0</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="27">
+        <v>0</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>448</v>
+      </c>
+      <c r="H13" s="27">
+        <v>0</v>
+      </c>
+      <c r="I13" s="27">
+        <v>1</v>
+      </c>
+      <c r="J13" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="G13" s="27">
-        <v>0</v>
-      </c>
-      <c r="H13" s="27">
-        <v>1</v>
-      </c>
-      <c r="I13" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="13">
         <v>12</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="C14" s="15">
         <v>15000</v>
       </c>
-      <c r="C14" s="15">
-        <v>1</v>
-      </c>
       <c r="D14" s="15">
+        <v>1</v>
+      </c>
+      <c r="E14" s="15">
         <v>5</v>
       </c>
-      <c r="E14" s="15">
+      <c r="F14" s="15">
         <v>3600</v>
       </c>
-      <c r="F14" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="G14" s="15">
-        <v>0</v>
+      <c r="G14" s="25" t="s">
+        <v>450</v>
       </c>
       <c r="H14" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I14" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="13">
         <v>13</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="C15" s="15">
         <v>35000</v>
       </c>
-      <c r="C15" s="15">
-        <v>1</v>
-      </c>
       <c r="D15" s="15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="15">
         <v>12</v>
       </c>
-      <c r="E15" s="15">
+      <c r="F15" s="15">
         <v>3300</v>
       </c>
-      <c r="F15" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="G15" s="15">
-        <v>0</v>
+      <c r="G15" s="25" t="s">
+        <v>451</v>
       </c>
       <c r="H15" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I15" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" hidden="1">
       <c r="A16" s="13">
         <v>14</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="C16" s="15">
         <v>8500</v>
       </c>
-      <c r="C16" s="15">
-        <v>0</v>
-      </c>
       <c r="D16" s="15">
         <v>0</v>
       </c>
       <c r="E16" s="15">
         <v>0</v>
       </c>
-      <c r="F16" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="G16" s="15">
-        <v>0</v>
+      <c r="F16" s="15">
+        <v>0</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>453</v>
       </c>
       <c r="H16" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I16" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="13">
         <v>15</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="C17" s="15">
         <v>15500</v>
       </c>
-      <c r="C17" s="15">
-        <v>1</v>
-      </c>
       <c r="D17" s="15">
+        <v>1</v>
+      </c>
+      <c r="E17" s="15">
         <v>5</v>
       </c>
-      <c r="E17" s="15">
+      <c r="F17" s="15">
         <v>3300</v>
       </c>
-      <c r="F17" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="G17" s="15">
-        <v>0</v>
+      <c r="G17" s="25" t="s">
+        <v>455</v>
       </c>
       <c r="H17" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I17" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="29" customFormat="1">
       <c r="A18" s="27">
         <v>16</v>
       </c>
-      <c r="B18" s="27">
-        <v>0</v>
+      <c r="B18" s="27" t="s">
+        <v>459</v>
       </c>
       <c r="C18" s="27">
-        <v>1</v>
-      </c>
-      <c r="D18" s="27">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>356</v>
       </c>
       <c r="E18" s="27">
+        <v>0</v>
+      </c>
+      <c r="F18" s="27">
         <v>1680</v>
       </c>
-      <c r="F18" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="G18" s="27">
-        <v>0</v>
+      <c r="G18" s="28" t="s">
+        <v>458</v>
       </c>
       <c r="H18" s="27">
-        <v>1</v>
-      </c>
-      <c r="I18" s="29" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="27">
+        <v>1</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="13">
         <v>17</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="C19" s="15">
         <v>30000</v>
       </c>
-      <c r="C19" s="15">
-        <v>1</v>
-      </c>
       <c r="D19" s="15">
+        <v>1</v>
+      </c>
+      <c r="E19" s="15">
         <v>12</v>
       </c>
-      <c r="E19" s="15">
+      <c r="F19" s="15">
         <v>3000</v>
       </c>
-      <c r="F19" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="G19" s="15">
-        <v>0</v>
+      <c r="G19" s="25" t="s">
+        <v>460</v>
       </c>
       <c r="H19" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G20" s="19"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G21" s="19"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G22" s="19"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G23" s="19"/>
+      <c r="I19" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="H20" s="19"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="H22" s="19"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="H23" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE064AB1-CB2B-4498-97DD-F6EA29044D41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE064AB1-CB2B-4498-97DD-F6EA29044D41}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A36" sqref="A36:XFD36"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="8.44140625" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.21875" customWidth="1"/>
+    <col min="5" max="5" width="62.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="12" customFormat="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="12" customFormat="1">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -4582,19 +5124,19 @@
         <v>127</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -4607,17 +5149,17 @@
       <c r="D3" s="9">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="25">
         <v>0</v>
       </c>
       <c r="G3" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -4630,17 +5172,17 @@
       <c r="D4" s="9">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
-        <v>175</v>
-      </c>
-      <c r="F4">
+      <c r="E4" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="25">
         <v>0</v>
       </c>
       <c r="G4" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -4653,17 +5195,17 @@
       <c r="D5" s="9">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F5">
+      <c r="E5" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5" s="25">
         <v>0</v>
       </c>
       <c r="G5" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -4676,17 +5218,17 @@
       <c r="D6" s="9">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
-        <v>177</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" s="25">
         <v>0</v>
       </c>
       <c r="G6" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -4699,17 +5241,17 @@
       <c r="D7" s="9">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F7">
+      <c r="E7" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="25">
         <v>0</v>
       </c>
       <c r="G7" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -4722,17 +5264,17 @@
       <c r="D8" s="9">
         <v>0</v>
       </c>
-      <c r="E8" t="s">
-        <v>179</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" s="25">
         <v>0</v>
       </c>
       <c r="G8" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -4745,17 +5287,17 @@
       <c r="D9" s="9">
         <v>0</v>
       </c>
-      <c r="E9" t="s">
-        <v>180</v>
-      </c>
-      <c r="F9">
+      <c r="E9" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" s="25">
         <v>0</v>
       </c>
       <c r="G9" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="29" customFormat="1">
       <c r="A10" s="27">
         <v>8</v>
       </c>
@@ -4768,20 +5310,20 @@
       <c r="D10" s="27">
         <v>0</v>
       </c>
-      <c r="E10" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="F10" s="29">
+      <c r="E10" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="F10" s="28">
         <v>0</v>
       </c>
       <c r="G10" s="27">
         <v>1</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="13">
         <v>9</v>
       </c>
@@ -4794,17 +5336,17 @@
       <c r="D11" s="9">
         <v>0</v>
       </c>
-      <c r="E11" t="s">
-        <v>182</v>
-      </c>
-      <c r="F11">
+      <c r="E11" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="25">
         <v>0</v>
       </c>
       <c r="G11" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="13">
         <v>10</v>
       </c>
@@ -4817,17 +5359,17 @@
       <c r="D12" s="9">
         <v>0</v>
       </c>
-      <c r="E12" t="s">
-        <v>183</v>
-      </c>
-      <c r="F12">
+      <c r="E12" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" s="25">
         <v>0</v>
       </c>
       <c r="G12" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="13">
         <v>11</v>
       </c>
@@ -4840,17 +5382,17 @@
       <c r="D13" s="9">
         <v>0</v>
       </c>
-      <c r="E13" t="s">
-        <v>184</v>
-      </c>
-      <c r="F13">
+      <c r="E13" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" s="25">
         <v>0</v>
       </c>
       <c r="G13" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="13">
         <v>12</v>
       </c>
@@ -4863,17 +5405,17 @@
       <c r="D14" s="9">
         <v>0</v>
       </c>
-      <c r="E14" t="s">
-        <v>185</v>
-      </c>
-      <c r="F14">
+      <c r="E14" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="25">
         <v>0</v>
       </c>
       <c r="G14" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="13">
         <v>13</v>
       </c>
@@ -4886,17 +5428,17 @@
       <c r="D15" s="9">
         <v>0</v>
       </c>
-      <c r="E15" t="s">
-        <v>187</v>
-      </c>
-      <c r="F15">
+      <c r="E15" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="F15" s="25">
         <v>0</v>
       </c>
       <c r="G15" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="13">
         <v>14</v>
       </c>
@@ -4909,17 +5451,17 @@
       <c r="D16" s="9">
         <v>0</v>
       </c>
-      <c r="E16" t="s">
-        <v>188</v>
-      </c>
-      <c r="F16">
+      <c r="E16" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="F16" s="25">
         <v>0</v>
       </c>
       <c r="G16" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="13">
         <v>15</v>
       </c>
@@ -4932,17 +5474,17 @@
       <c r="D17" s="9">
         <v>0</v>
       </c>
-      <c r="E17" t="s">
-        <v>189</v>
-      </c>
-      <c r="F17">
+      <c r="E17" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" s="25">
         <v>0</v>
       </c>
       <c r="G17" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" s="13">
         <v>16</v>
       </c>
@@ -4955,17 +5497,17 @@
       <c r="D18" s="9">
         <v>5</v>
       </c>
-      <c r="E18" t="s">
-        <v>190</v>
-      </c>
-      <c r="F18">
+      <c r="E18" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="F18" s="25">
         <v>0</v>
       </c>
       <c r="G18" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="13">
         <v>17</v>
       </c>
@@ -4978,17 +5520,17 @@
       <c r="D19" s="9">
         <v>0</v>
       </c>
-      <c r="E19" t="s">
-        <v>191</v>
-      </c>
-      <c r="F19">
+      <c r="E19" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="F19" s="25">
         <v>0</v>
       </c>
       <c r="G19" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" s="13">
         <v>18</v>
       </c>
@@ -5001,17 +5543,17 @@
       <c r="D20" s="9">
         <v>0</v>
       </c>
-      <c r="E20" t="s">
-        <v>192</v>
-      </c>
-      <c r="F20">
+      <c r="E20" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F20" s="25">
         <v>0</v>
       </c>
       <c r="G20" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" s="13">
         <v>19</v>
       </c>
@@ -5024,17 +5566,17 @@
       <c r="D21" s="9">
         <v>0</v>
       </c>
-      <c r="E21" t="s">
-        <v>186</v>
-      </c>
-      <c r="F21">
+      <c r="E21" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="F21" s="25">
         <v>0</v>
       </c>
       <c r="G21" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" s="13">
         <v>20</v>
       </c>
@@ -5047,17 +5589,17 @@
       <c r="D22" s="9">
         <v>6</v>
       </c>
-      <c r="E22" t="s">
-        <v>193</v>
-      </c>
-      <c r="F22">
+      <c r="E22" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="F22" s="25">
         <v>0</v>
       </c>
       <c r="G22" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="29" customFormat="1">
       <c r="A23" s="27">
         <v>21</v>
       </c>
@@ -5070,20 +5612,20 @@
       <c r="D23" s="27">
         <v>0</v>
       </c>
-      <c r="E23" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="F23" s="29">
-        <v>0</v>
-      </c>
-      <c r="G23" s="30">
+      <c r="E23" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23" s="28">
+        <v>0</v>
+      </c>
+      <c r="G23" s="27">
         <v>1</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="13">
         <v>22</v>
       </c>
@@ -5096,17 +5638,17 @@
       <c r="D24" s="9">
         <v>4</v>
       </c>
-      <c r="E24" t="s">
-        <v>195</v>
-      </c>
-      <c r="F24">
+      <c r="E24" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" s="25">
         <v>0</v>
       </c>
       <c r="G24" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" s="13">
         <v>23</v>
       </c>
@@ -5119,17 +5661,17 @@
       <c r="D25" s="9">
         <v>40</v>
       </c>
-      <c r="E25" t="s">
-        <v>196</v>
-      </c>
-      <c r="F25">
+      <c r="E25" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="F25" s="25">
         <v>0</v>
       </c>
       <c r="G25" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" s="13">
         <v>24</v>
       </c>
@@ -5142,17 +5684,17 @@
       <c r="D26" s="9">
         <v>0</v>
       </c>
-      <c r="E26" t="s">
-        <v>197</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E26" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="F26" s="25">
+        <v>1</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="13">
         <v>25</v>
       </c>
@@ -5165,17 +5707,17 @@
       <c r="D27" s="9">
         <v>0</v>
       </c>
-      <c r="E27" t="s">
-        <v>198</v>
-      </c>
-      <c r="F27">
+      <c r="E27" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="F27" s="25">
         <v>0</v>
       </c>
       <c r="G27" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" s="13">
         <v>26</v>
       </c>
@@ -5188,17 +5730,17 @@
       <c r="D28" s="9">
         <v>0</v>
       </c>
-      <c r="E28" t="s">
-        <v>199</v>
-      </c>
-      <c r="F28">
+      <c r="E28" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="F28" s="25">
         <v>0</v>
       </c>
       <c r="G28" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29" s="13">
         <v>27</v>
       </c>
@@ -5211,17 +5753,17 @@
       <c r="D29" s="9">
         <v>5</v>
       </c>
-      <c r="E29" t="s">
-        <v>200</v>
-      </c>
-      <c r="F29">
+      <c r="E29" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="F29" s="25">
         <v>0</v>
       </c>
       <c r="G29" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30" s="13">
         <v>28</v>
       </c>
@@ -5234,17 +5776,17 @@
       <c r="D30" s="9">
         <v>0</v>
       </c>
-      <c r="E30" t="s">
-        <v>201</v>
-      </c>
-      <c r="F30">
+      <c r="E30" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="F30" s="25">
         <v>0</v>
       </c>
       <c r="G30" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31" s="13">
         <v>29</v>
       </c>
@@ -5257,17 +5799,17 @@
       <c r="D31" s="9">
         <v>0</v>
       </c>
-      <c r="E31" t="s">
-        <v>202</v>
-      </c>
-      <c r="F31">
+      <c r="E31" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="F31" s="25">
         <v>0</v>
       </c>
       <c r="G31" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" s="13">
         <v>30</v>
       </c>
@@ -5280,17 +5822,17 @@
       <c r="D32" s="9">
         <v>0</v>
       </c>
-      <c r="E32" t="s">
-        <v>203</v>
-      </c>
-      <c r="F32">
+      <c r="E32" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="F32" s="25">
         <v>0</v>
       </c>
       <c r="G32" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33" s="13">
         <v>31</v>
       </c>
@@ -5303,17 +5845,17 @@
       <c r="D33" s="9">
         <v>0</v>
       </c>
-      <c r="E33" t="s">
-        <v>204</v>
-      </c>
-      <c r="F33">
+      <c r="E33" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="F33" s="25">
         <v>0</v>
       </c>
       <c r="G33" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" s="13">
         <v>32</v>
       </c>
@@ -5326,17 +5868,17 @@
       <c r="D34" s="9">
         <v>0</v>
       </c>
-      <c r="E34" t="s">
-        <v>205</v>
-      </c>
-      <c r="F34">
+      <c r="E34" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="F34" s="25">
         <v>0</v>
       </c>
       <c r="G34" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" s="29" customFormat="1">
       <c r="A35" s="27">
         <v>33</v>
       </c>
@@ -5349,20 +5891,20 @@
       <c r="D35" s="27">
         <v>0</v>
       </c>
-      <c r="E35" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="F35" s="29">
+      <c r="E35" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="F35" s="28">
         <v>0</v>
       </c>
       <c r="G35" s="27">
         <v>1</v>
       </c>
       <c r="H35" s="29" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="29" customFormat="1">
       <c r="A36" s="27">
         <v>34</v>
       </c>
@@ -5375,20 +5917,20 @@
       <c r="D36" s="27">
         <v>0</v>
       </c>
-      <c r="E36" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="F36" s="29">
+      <c r="E36" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="F36" s="28">
         <v>0</v>
       </c>
       <c r="G36" s="27">
         <v>1</v>
       </c>
       <c r="H36" s="29" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="13">
         <v>35</v>
       </c>
@@ -5401,17 +5943,17 @@
       <c r="D37" s="9">
         <v>0</v>
       </c>
-      <c r="E37" t="s">
-        <v>208</v>
-      </c>
-      <c r="F37">
+      <c r="E37" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="F37" s="25">
         <v>0</v>
       </c>
       <c r="G37" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" s="13">
         <v>36</v>
       </c>
@@ -5424,17 +5966,17 @@
       <c r="D38" s="9">
         <v>0</v>
       </c>
-      <c r="E38" t="s">
-        <v>209</v>
-      </c>
-      <c r="F38">
+      <c r="E38" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="F38" s="25">
         <v>0</v>
       </c>
       <c r="G38" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39" s="13">
         <v>37</v>
       </c>
@@ -5447,17 +5989,17 @@
       <c r="D39" s="9">
         <v>0</v>
       </c>
-      <c r="E39" t="s">
-        <v>210</v>
-      </c>
-      <c r="F39">
+      <c r="E39" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="F39" s="25">
         <v>0</v>
       </c>
       <c r="G39" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40" s="13">
         <v>38</v>
       </c>
@@ -5470,17 +6012,17 @@
       <c r="D40" s="9">
         <v>0</v>
       </c>
-      <c r="E40" t="s">
-        <v>211</v>
-      </c>
-      <c r="F40">
+      <c r="E40" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="F40" s="25">
         <v>0</v>
       </c>
       <c r="G40" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="A41" s="13">
         <v>39</v>
       </c>
@@ -5493,17 +6035,17 @@
       <c r="D41" s="9">
         <v>0</v>
       </c>
-      <c r="E41" t="s">
-        <v>212</v>
-      </c>
-      <c r="F41">
+      <c r="E41" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="F41" s="25">
         <v>0</v>
       </c>
       <c r="G41" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="A42" s="13">
         <v>40</v>
       </c>
@@ -5516,17 +6058,17 @@
       <c r="D42" s="9">
         <v>0</v>
       </c>
-      <c r="E42" t="s">
-        <v>213</v>
-      </c>
-      <c r="F42">
+      <c r="E42" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="F42" s="25">
         <v>0</v>
       </c>
       <c r="G42" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8">
       <c r="A43" s="13">
         <v>41</v>
       </c>
@@ -5539,17 +6081,17 @@
       <c r="D43" s="9">
         <v>0</v>
       </c>
-      <c r="E43" t="s">
-        <v>214</v>
-      </c>
-      <c r="F43">
+      <c r="E43" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="F43" s="25">
         <v>0</v>
       </c>
       <c r="G43" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" s="13">
         <v>42</v>
       </c>
@@ -5562,17 +6104,17 @@
       <c r="D44" s="9">
         <v>0</v>
       </c>
-      <c r="E44" t="s">
-        <v>215</v>
-      </c>
-      <c r="F44">
+      <c r="E44" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="F44" s="25">
         <v>0</v>
       </c>
       <c r="G44" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45" s="13">
         <v>43</v>
       </c>
@@ -5585,17 +6127,17 @@
       <c r="D45" s="9">
         <v>0</v>
       </c>
-      <c r="E45" t="s">
-        <v>216</v>
-      </c>
-      <c r="F45">
+      <c r="E45" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="F45" s="25">
         <v>0</v>
       </c>
       <c r="G45" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46" s="13">
         <v>44</v>
       </c>
@@ -5608,17 +6150,17 @@
       <c r="D46" s="9">
         <v>0</v>
       </c>
-      <c r="E46" t="s">
-        <v>217</v>
-      </c>
-      <c r="F46">
+      <c r="E46" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="F46" s="25">
         <v>0</v>
       </c>
       <c r="G46" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47" s="13">
         <v>45</v>
       </c>
@@ -5631,17 +6173,17 @@
       <c r="D47" s="9">
         <v>0</v>
       </c>
-      <c r="E47" t="s">
-        <v>218</v>
-      </c>
-      <c r="F47">
+      <c r="E47" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="F47" s="25">
         <v>0</v>
       </c>
       <c r="G47" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8">
       <c r="A48" s="13">
         <v>46</v>
       </c>
@@ -5654,17 +6196,17 @@
       <c r="D48" s="9">
         <v>0</v>
       </c>
-      <c r="E48" t="s">
-        <v>219</v>
-      </c>
-      <c r="F48">
+      <c r="E48" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="F48" s="25">
         <v>0</v>
       </c>
       <c r="G48" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7">
       <c r="A49" s="13">
         <v>47</v>
       </c>
@@ -5677,17 +6219,17 @@
       <c r="D49" s="9">
         <v>0</v>
       </c>
-      <c r="E49" t="s">
-        <v>220</v>
-      </c>
-      <c r="F49">
+      <c r="E49" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="F49" s="25">
         <v>0</v>
       </c>
       <c r="G49" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7">
       <c r="A50" s="13">
         <v>48</v>
       </c>
@@ -5700,17 +6242,17 @@
       <c r="D50" s="9">
         <v>0</v>
       </c>
-      <c r="E50" t="s">
-        <v>221</v>
-      </c>
-      <c r="F50">
+      <c r="E50" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="F50" s="25">
         <v>0</v>
       </c>
       <c r="G50" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7">
       <c r="A51" s="13">
         <v>49</v>
       </c>
@@ -5723,17 +6265,17 @@
       <c r="D51" s="9">
         <v>0</v>
       </c>
-      <c r="E51" t="s">
-        <v>222</v>
-      </c>
-      <c r="F51">
+      <c r="E51" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="F51" s="25">
         <v>0</v>
       </c>
       <c r="G51" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7">
       <c r="A52" s="13">
         <v>50</v>
       </c>
@@ -5746,17 +6288,17 @@
       <c r="D52" s="9">
         <v>0</v>
       </c>
-      <c r="E52" t="s">
-        <v>223</v>
-      </c>
-      <c r="F52">
+      <c r="E52" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="F52" s="25">
         <v>0</v>
       </c>
       <c r="G52" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7">
       <c r="A53" s="13">
         <v>51</v>
       </c>
@@ -5769,17 +6311,17 @@
       <c r="D53" s="9">
         <v>0</v>
       </c>
-      <c r="E53" t="s">
-        <v>224</v>
-      </c>
-      <c r="F53">
+      <c r="E53" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="F53" s="25">
         <v>0</v>
       </c>
       <c r="G53" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7">
       <c r="A54" s="13">
         <v>52</v>
       </c>
@@ -5792,17 +6334,17 @@
       <c r="D54" s="9">
         <v>0</v>
       </c>
-      <c r="E54" t="s">
-        <v>225</v>
-      </c>
-      <c r="F54">
+      <c r="E54" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="F54" s="25">
         <v>0</v>
       </c>
       <c r="G54" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7">
       <c r="A55" s="13">
         <v>53</v>
       </c>
@@ -5815,17 +6357,17 @@
       <c r="D55" s="9">
         <v>0</v>
       </c>
-      <c r="E55" t="s">
-        <v>226</v>
-      </c>
-      <c r="F55">
+      <c r="E55" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="F55" s="25">
         <v>0</v>
       </c>
       <c r="G55" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7">
       <c r="A56" s="13">
         <v>54</v>
       </c>
@@ -5838,17 +6380,17 @@
       <c r="D56" s="9">
         <v>5</v>
       </c>
-      <c r="E56" t="s">
-        <v>227</v>
-      </c>
-      <c r="F56">
+      <c r="E56" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="F56" s="25">
         <v>0</v>
       </c>
       <c r="G56" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7">
       <c r="A57" s="13">
         <v>55</v>
       </c>
@@ -5861,17 +6403,17 @@
       <c r="D57" s="9">
         <v>8</v>
       </c>
-      <c r="E57" t="s">
-        <v>228</v>
-      </c>
-      <c r="F57">
+      <c r="E57" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="F57" s="25">
         <v>0</v>
       </c>
       <c r="G57" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7">
       <c r="A58" s="13">
         <v>56</v>
       </c>
@@ -5884,17 +6426,17 @@
       <c r="D58" s="9">
         <v>5</v>
       </c>
-      <c r="E58" t="s">
-        <v>229</v>
-      </c>
-      <c r="F58">
+      <c r="E58" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="F58" s="25">
         <v>0</v>
       </c>
       <c r="G58" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7">
       <c r="A59" s="13">
         <v>57</v>
       </c>
@@ -5907,17 +6449,17 @@
       <c r="D59" s="9">
         <v>0</v>
       </c>
-      <c r="E59" t="s">
-        <v>230</v>
-      </c>
-      <c r="F59">
+      <c r="E59" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="F59" s="25">
         <v>0</v>
       </c>
       <c r="G59" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7">
       <c r="A60" s="13">
         <v>58</v>
       </c>
@@ -5930,17 +6472,17 @@
       <c r="D60" s="9">
         <v>8</v>
       </c>
-      <c r="E60" t="s">
-        <v>231</v>
-      </c>
-      <c r="F60">
+      <c r="E60" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="F60" s="25">
         <v>0</v>
       </c>
       <c r="G60" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7">
       <c r="A61" s="13">
         <v>59</v>
       </c>
@@ -5953,17 +6495,17 @@
       <c r="D61" s="9">
         <v>0</v>
       </c>
-      <c r="E61" t="s">
-        <v>232</v>
-      </c>
-      <c r="F61">
+      <c r="E61" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="F61" s="25">
         <v>0</v>
       </c>
       <c r="G61" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7">
       <c r="A62" s="13">
         <v>60</v>
       </c>
@@ -5976,17 +6518,17 @@
       <c r="D62" s="9">
         <v>0</v>
       </c>
-      <c r="E62" t="s">
-        <v>233</v>
-      </c>
-      <c r="F62">
+      <c r="E62" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="F62" s="25">
         <v>0</v>
       </c>
       <c r="G62" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7">
       <c r="A63" s="13">
         <v>61</v>
       </c>
@@ -5999,17 +6541,17 @@
       <c r="D63" s="9">
         <v>0</v>
       </c>
-      <c r="E63" t="s">
-        <v>234</v>
-      </c>
-      <c r="F63">
+      <c r="E63" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="F63" s="25">
         <v>0</v>
       </c>
       <c r="G63" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7">
       <c r="A64" s="13">
         <v>62</v>
       </c>
@@ -6022,10 +6564,10 @@
       <c r="D64" s="9">
         <v>0</v>
       </c>
-      <c r="E64" t="s">
-        <v>235</v>
-      </c>
-      <c r="F64">
+      <c r="E64" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="F64" s="25">
         <v>0</v>
       </c>
       <c r="G64" s="9">
@@ -6036,27 +6578,28 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929C2945-E2AB-436A-8AC9-C08AA4FD2D97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929C2945-E2AB-436A-8AC9-C08AA4FD2D97}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18:XFD18"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="8.44140625" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
@@ -6066,27 +6609,27 @@
     <col min="6" max="6" width="44.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="12" customFormat="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="12" customFormat="1">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -6094,16 +6637,16 @@
         <v>138</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="29" customFormat="1">
       <c r="A3" s="27">
         <v>1</v>
       </c>
@@ -6120,13 +6663,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="29" customFormat="1">
       <c r="A4" s="27">
         <v>2</v>
       </c>
@@ -6143,13 +6686,13 @@
         <v>1</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -6167,10 +6710,10 @@
       </c>
       <c r="F5" s="16"/>
       <c r="G5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="29" customFormat="1">
       <c r="A6" s="27">
         <v>4</v>
       </c>
@@ -6187,13 +6730,13 @@
         <v>1</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="29" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="29" customFormat="1" ht="48.6">
       <c r="A7" s="27">
         <v>5</v>
       </c>
@@ -6210,13 +6753,13 @@
         <v>1</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -6234,10 +6777,10 @@
       </c>
       <c r="F8" s="16"/>
       <c r="G8" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="29" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="29" customFormat="1" ht="32.4">
       <c r="A9" s="27">
         <v>7</v>
       </c>
@@ -6254,13 +6797,13 @@
         <v>1</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -6278,10 +6821,10 @@
       </c>
       <c r="F10" s="16"/>
       <c r="G10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="29" customFormat="1">
       <c r="A11" s="27">
         <v>9</v>
       </c>
@@ -6298,13 +6841,13 @@
         <v>1</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="13">
         <v>10</v>
       </c>
@@ -6322,10 +6865,10 @@
       </c>
       <c r="F12" s="16"/>
       <c r="G12" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="13">
         <v>11</v>
       </c>
@@ -6343,10 +6886,10 @@
       </c>
       <c r="F13" s="16"/>
       <c r="G13" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="29" customFormat="1">
       <c r="A14" s="27">
         <v>12</v>
       </c>
@@ -6363,13 +6906,13 @@
         <v>1</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="29" customFormat="1">
       <c r="A15" s="27">
         <v>13</v>
       </c>
@@ -6386,13 +6929,13 @@
         <v>1</v>
       </c>
       <c r="F15" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="G15" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="G15" s="29" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="29" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:7" s="29" customFormat="1" ht="32.4">
       <c r="A16" s="27">
         <v>14</v>
       </c>
@@ -6409,13 +6952,13 @@
         <v>1</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="29" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="29" customFormat="1" ht="48.6">
       <c r="A17" s="27">
         <v>15</v>
       </c>
@@ -6432,13 +6975,13 @@
         <v>1</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="29" customFormat="1">
       <c r="A18" s="27">
         <v>16</v>
       </c>
@@ -6455,23 +6998,24 @@
         <v>1</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="17"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6484,13 +7028,13 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A33" sqref="A33:XFD33"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="5.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
@@ -6508,7 +7052,7 @@
     <col min="14" max="14" width="57.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6549,7 +7093,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="2" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -6590,7 +7134,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -6631,7 +7175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -6672,7 +7216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" s="29" customFormat="1">
       <c r="A5" s="28">
         <v>3</v>
       </c>
@@ -6716,7 +7260,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="29" customFormat="1">
       <c r="A6" s="28">
         <v>4</v>
       </c>
@@ -6760,7 +7304,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -6801,7 +7345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="29" customFormat="1">
       <c r="A8" s="28">
         <v>6</v>
       </c>
@@ -6836,7 +7380,7 @@
         <v>20</v>
       </c>
       <c r="L8" s="27" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="M8" s="27">
         <v>1</v>
@@ -6845,7 +7389,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" s="29" customFormat="1">
       <c r="A9" s="28">
         <v>7</v>
       </c>
@@ -6889,7 +7433,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="29" customFormat="1">
       <c r="A10" s="28">
         <v>8</v>
       </c>
@@ -6933,7 +7477,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -6974,7 +7518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="29" customFormat="1">
       <c r="A12" s="28">
         <v>10</v>
       </c>
@@ -7018,7 +7562,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="29" customFormat="1">
       <c r="A13" s="28">
         <v>11</v>
       </c>
@@ -7062,7 +7606,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="29" customFormat="1">
       <c r="A14" s="28">
         <v>12</v>
       </c>
@@ -7106,7 +7650,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="29" customFormat="1">
       <c r="A15" s="28">
         <v>13</v>
       </c>
@@ -7150,7 +7694,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -7191,7 +7735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" s="29" customFormat="1">
       <c r="A17" s="28">
         <v>15</v>
       </c>
@@ -7235,7 +7779,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -7276,7 +7820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" s="29" customFormat="1">
       <c r="A19" s="28">
         <v>17</v>
       </c>
@@ -7320,7 +7864,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" s="29" customFormat="1">
       <c r="A20" s="28">
         <v>18</v>
       </c>
@@ -7364,7 +7908,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" s="29" customFormat="1">
       <c r="A21" s="28">
         <v>19</v>
       </c>
@@ -7408,7 +7952,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" s="29" customFormat="1">
       <c r="A22" s="28">
         <v>20</v>
       </c>
@@ -7452,7 +7996,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" s="29" customFormat="1">
       <c r="A23" s="28">
         <v>21</v>
       </c>
@@ -7496,7 +8040,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" s="29" customFormat="1">
       <c r="A24" s="28">
         <v>22</v>
       </c>
@@ -7540,7 +8084,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" s="29" customFormat="1">
       <c r="A25" s="28">
         <v>23</v>
       </c>
@@ -7584,7 +8128,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" s="29" customFormat="1">
       <c r="A26" s="28">
         <v>24</v>
       </c>
@@ -7628,7 +8172,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" s="29" customFormat="1">
       <c r="A27" s="28">
         <v>25</v>
       </c>
@@ -7672,7 +8216,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -7713,7 +8257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" s="29" customFormat="1">
       <c r="A29" s="28">
         <v>27</v>
       </c>
@@ -7757,7 +8301,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -7798,7 +8342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -7839,7 +8383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -7876,12 +8420,12 @@
       <c r="L32" s="9">
         <v>0</v>
       </c>
-      <c r="M32" s="9" cm="1">
-        <f t="array" aca="1" ref="M32" ca="1">B18:M32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M32" s="9" t="str" cm="1">
+        <f t="array" ref="M32">B18:M32</f>
+        <v>咖啡店</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="29" customFormat="1">
       <c r="A33" s="28">
         <v>31</v>
       </c>
@@ -7942,14 +8486,14 @@
   </sheetPr>
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
@@ -7966,7 +8510,7 @@
     <col min="13" max="18" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7980,7 +8524,7 @@
         <v>123</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>103</v>
@@ -7995,16 +8539,16 @@
         <v>106</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>121</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -8018,7 +8562,7 @@
         <v>124</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>102</v>
@@ -8042,7 +8586,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="3">
         <v>101</v>
       </c>
@@ -8050,13 +8594,13 @@
         <v>94</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="D3" s="9">
         <v>1</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="F3" s="9">
         <v>9000</v>
@@ -8086,7 +8630,7 @@
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4" s="3">
         <v>102</v>
       </c>
@@ -8094,13 +8638,13 @@
         <v>95</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="D4" s="9">
         <v>1</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="F4" s="9">
         <v>6000</v>
@@ -8130,7 +8674,7 @@
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5" s="3">
         <v>103</v>
       </c>
@@ -8138,13 +8682,13 @@
         <v>96</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="F5" s="9">
         <v>0</v>
@@ -8174,7 +8718,7 @@
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="A6" s="3">
         <v>104</v>
       </c>
@@ -8182,13 +8726,13 @@
         <v>97</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>271</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>288</v>
       </c>
       <c r="F6" s="9">
         <v>6000</v>
@@ -8218,7 +8762,7 @@
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="A7" s="3">
         <v>105</v>
       </c>
@@ -8226,13 +8770,13 @@
         <v>98</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="F7" s="9">
         <v>5000</v>
@@ -8262,7 +8806,7 @@
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="A8" s="3">
         <v>106</v>
       </c>
@@ -8270,13 +8814,13 @@
         <v>99</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="F8" s="9">
         <v>15000</v>
@@ -8306,21 +8850,21 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="3">
         <v>107</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="F9" s="9">
         <v>4000</v>
@@ -8350,7 +8894,7 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="A10" s="3">
         <v>108</v>
       </c>
@@ -8358,13 +8902,13 @@
         <v>100</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="F10" s="9">
         <v>5000</v>
@@ -8394,7 +8938,7 @@
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18">
       <c r="A11" s="3">
         <v>109</v>
       </c>
@@ -8402,13 +8946,13 @@
         <v>101</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="D11" s="9">
         <v>1</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="F11" s="9">
         <v>2000</v>
@@ -8438,21 +8982,21 @@
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" s="3">
         <v>110</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="D12" s="9">
         <v>0</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="F12" s="9">
         <v>5000</v>
@@ -8482,7 +9026,7 @@
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="A13" s="3">
         <v>201</v>
       </c>
@@ -8490,13 +9034,13 @@
         <v>128</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="D13" s="9">
         <v>1</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="F13" s="9">
         <v>9000</v>
@@ -8526,7 +9070,7 @@
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18">
       <c r="A14" s="3">
         <v>202</v>
       </c>
@@ -8534,13 +9078,13 @@
         <v>129</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="D14" s="9">
         <v>1</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="F14" s="9">
         <v>6000</v>
@@ -8570,7 +9114,7 @@
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" s="3">
         <v>203</v>
       </c>
@@ -8578,13 +9122,13 @@
         <v>130</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="D15" s="9">
         <v>0</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="F15" s="9">
         <v>0</v>
@@ -8614,7 +9158,7 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="A16" s="3">
         <v>204</v>
       </c>
@@ -8622,13 +9166,13 @@
         <v>131</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>271</v>
-      </c>
-      <c r="D16" s="9">
-        <v>1</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>288</v>
       </c>
       <c r="F16" s="9">
         <v>6000</v>
@@ -8658,7 +9202,7 @@
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18">
       <c r="A17" s="3">
         <v>205</v>
       </c>
@@ -8666,13 +9210,13 @@
         <v>132</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="D17" s="9">
         <v>0</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="F17" s="9">
         <v>5000</v>
@@ -8702,7 +9246,7 @@
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18">
       <c r="A18" s="3">
         <v>206</v>
       </c>
@@ -8710,13 +9254,13 @@
         <v>133</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="D18" s="9">
         <v>0</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="F18" s="9">
         <v>15000</v>
@@ -8746,7 +9290,7 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18">
       <c r="A19" s="3">
         <v>207</v>
       </c>
@@ -8754,13 +9298,13 @@
         <v>134</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="D19" s="9">
         <v>0</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="F19" s="9">
         <v>4000</v>
@@ -8790,7 +9334,7 @@
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18">
       <c r="A20" s="3">
         <v>208</v>
       </c>
@@ -8798,13 +9342,13 @@
         <v>135</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="D20" s="9">
         <v>0</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="F20" s="9">
         <v>5000</v>
@@ -8834,7 +9378,7 @@
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18">
       <c r="A21" s="3">
         <v>209</v>
       </c>
@@ -8842,13 +9386,13 @@
         <v>136</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="D21" s="9">
         <v>1</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="F21" s="9">
         <v>2000</v>
@@ -8878,7 +9422,7 @@
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18">
       <c r="A22" s="3">
         <v>210</v>
       </c>
@@ -8886,13 +9430,13 @@
         <v>137</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="D22" s="9">
         <v>0</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="F22" s="9">
         <v>5000</v>
@@ -8942,10 +9486,10 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="8"/>
     <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
@@ -8962,62 +9506,62 @@
     <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="C1" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>138</v>
@@ -9026,31 +9570,31 @@
         <v>76</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>127</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -9058,7 +9602,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -9088,13 +9632,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -9102,7 +9646,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -9132,13 +9676,13 @@
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -9146,7 +9690,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -9176,13 +9720,13 @@
         <v>4</v>
       </c>
       <c r="M5" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -9190,7 +9734,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9220,13 +9764,13 @@
         <v>-1</v>
       </c>
       <c r="M6" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -9234,7 +9778,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9264,13 +9808,13 @@
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -9278,7 +9822,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -9308,13 +9852,13 @@
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" s="29" customFormat="1">
       <c r="A9" s="32">
         <v>7</v>
       </c>
@@ -9352,13 +9896,13 @@
         <v>1</v>
       </c>
       <c r="M9" s="29" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="N9" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -9366,7 +9910,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -9396,13 +9940,13 @@
         <v>12</v>
       </c>
       <c r="M10" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -9410,7 +9954,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -9440,13 +9984,13 @@
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -9454,7 +9998,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -9484,13 +10028,13 @@
         <v>-1</v>
       </c>
       <c r="M12" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -9498,7 +10042,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -9528,13 +10072,13 @@
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -9572,13 +10116,13 @@
         <v>4</v>
       </c>
       <c r="M14" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -9586,7 +10130,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -9616,13 +10160,13 @@
         <v>2</v>
       </c>
       <c r="M15" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -9630,7 +10174,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -9660,13 +10204,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -9704,13 +10248,13 @@
         <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -9718,7 +10262,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -9748,13 +10292,13 @@
         <v>-1</v>
       </c>
       <c r="M18" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -9762,7 +10306,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -9792,13 +10336,13 @@
         <v>2</v>
       </c>
       <c r="M19" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -9806,7 +10350,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -9836,13 +10380,13 @@
         <v>1</v>
       </c>
       <c r="M20" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -9850,7 +10394,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -9880,13 +10424,13 @@
         <v>1</v>
       </c>
       <c r="M21" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -9894,7 +10438,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -9924,13 +10468,13 @@
         <v>4</v>
       </c>
       <c r="M22" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -9938,7 +10482,7 @@
         <v>6</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -9968,13 +10512,13 @@
         <v>-1</v>
       </c>
       <c r="M23" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -9982,7 +10526,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -10012,13 +10556,13 @@
         <v>-1</v>
       </c>
       <c r="M24" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -10026,7 +10570,7 @@
         <v>6</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -10056,13 +10600,13 @@
         <v>-1</v>
       </c>
       <c r="M25" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" s="29" customFormat="1">
       <c r="A26" s="32">
         <v>24</v>
       </c>
@@ -10070,7 +10614,7 @@
         <v>6</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="D26" s="29">
         <v>0</v>
@@ -10100,16 +10644,16 @@
         <v>1</v>
       </c>
       <c r="M26" s="29" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="N26" s="29">
         <v>1</v>
       </c>
       <c r="O26" s="29" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -10117,7 +10661,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -10147,13 +10691,13 @@
         <v>1</v>
       </c>
       <c r="M27" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" s="29" customFormat="1">
       <c r="A28" s="32">
         <v>26</v>
       </c>
@@ -10161,7 +10705,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="D28" s="29">
         <v>0</v>
@@ -10191,16 +10735,16 @@
         <v>4</v>
       </c>
       <c r="M28" s="29" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="N28" s="29">
         <v>1</v>
       </c>
       <c r="O28" s="29" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -10208,7 +10752,7 @@
         <v>3</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -10238,13 +10782,13 @@
         <v>4</v>
       </c>
       <c r="M29" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -10252,7 +10796,7 @@
         <v>3</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -10282,13 +10826,13 @@
         <v>4</v>
       </c>
       <c r="M30" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -10296,7 +10840,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -10326,13 +10870,13 @@
         <v>2</v>
       </c>
       <c r="M31" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -10340,7 +10884,7 @@
         <v>6</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -10370,13 +10914,13 @@
         <v>6</v>
       </c>
       <c r="M32" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15">
       <c r="A33" s="8">
         <v>31</v>
       </c>
@@ -10384,7 +10928,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -10414,13 +10958,13 @@
         <v>1</v>
       </c>
       <c r="M33" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -10428,7 +10972,7 @@
         <v>5</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -10458,13 +11002,13 @@
         <v>1</v>
       </c>
       <c r="M34" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" s="29" customFormat="1">
       <c r="A35" s="32">
         <v>33</v>
       </c>
@@ -10472,7 +11016,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="D35" s="29">
         <v>0</v>
@@ -10502,16 +11046,16 @@
         <v>1</v>
       </c>
       <c r="M35" s="29" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="N35" s="29">
         <v>1</v>
       </c>
       <c r="O35" s="29" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="8">
         <v>34</v>
       </c>
@@ -10519,7 +11063,7 @@
         <v>6</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -10549,13 +11093,13 @@
         <v>6</v>
       </c>
       <c r="M36" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15">
       <c r="A37" s="8">
         <v>35</v>
       </c>
@@ -10563,7 +11107,7 @@
         <v>6</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -10593,7 +11137,7 @@
         <v>4</v>
       </c>
       <c r="M37" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -10617,7 +11161,7 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="11"/>
     <col min="2" max="2" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
@@ -10631,53 +11175,53 @@
     <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="12" customFormat="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="G1" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="H1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:10" s="12" customFormat="1">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" s="19" customFormat="1">
       <c r="A3" s="17">
         <v>1</v>
       </c>
@@ -10688,10 +11232,10 @@
         <v>1000</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="19" customFormat="1">
       <c r="A4" s="17">
         <v>2</v>
       </c>
@@ -10699,10 +11243,10 @@
         <v>2</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="19" customFormat="1">
       <c r="A5" s="17">
         <v>3</v>
       </c>
@@ -10722,26 +11266,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="19" customFormat="1">
       <c r="A6" s="17">
         <v>4</v>
       </c>
       <c r="B6" s="10"/>
       <c r="F6" s="21"/>
     </row>
-    <row r="7" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="19" customFormat="1">
       <c r="A7" s="17">
         <v>5</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="19" customFormat="1">
       <c r="A8" s="17">
         <v>6</v>
       </c>
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="19" customFormat="1">
       <c r="A9" s="17">
         <v>7</v>
       </c>
@@ -10761,31 +11305,31 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="19" customFormat="1">
       <c r="A10" s="17">
         <v>8</v>
       </c>
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="19" customFormat="1">
       <c r="A11" s="17">
         <v>9</v>
       </c>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="19" customFormat="1">
       <c r="A12" s="17">
         <v>10</v>
       </c>
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="19" customFormat="1">
       <c r="A13" s="17">
         <v>11</v>
       </c>
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="19" customFormat="1">
       <c r="A14" s="17">
         <v>12</v>
       </c>
@@ -10796,75 +11340,75 @@
         <v>1100</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="19" customFormat="1">
       <c r="A15" s="17">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="19" customFormat="1">
       <c r="A16" s="17">
         <v>14</v>
       </c>
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" s="19" customFormat="1">
       <c r="A17" s="17">
         <v>15</v>
       </c>
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" s="19" customFormat="1">
       <c r="A18" s="17">
         <v>16</v>
       </c>
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" s="19" customFormat="1">
       <c r="A19" s="17">
         <v>17</v>
       </c>
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" s="19" customFormat="1">
       <c r="A20" s="17">
         <v>18</v>
       </c>
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" s="19" customFormat="1">
       <c r="A21" s="17">
         <v>19</v>
       </c>
       <c r="B21" s="10"/>
     </row>
-    <row r="22" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" s="19" customFormat="1">
       <c r="A22" s="17">
         <v>20</v>
       </c>
       <c r="B22" s="10"/>
     </row>
-    <row r="23" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" s="19" customFormat="1">
       <c r="A23" s="17">
         <v>21</v>
       </c>
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" s="19" customFormat="1">
       <c r="A24" s="17">
         <v>22</v>
       </c>
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" s="19" customFormat="1">
       <c r="A25" s="17">
         <v>23</v>
       </c>
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" s="19" customFormat="1">
       <c r="A26" s="17">
         <v>24</v>
       </c>
@@ -10875,34 +11419,34 @@
         <v>1500</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="19" customFormat="1">
       <c r="A27" s="17">
         <v>25</v>
       </c>
       <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" s="19" customFormat="1">
       <c r="A28" s="17">
         <v>26</v>
       </c>
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" s="19" customFormat="1">
       <c r="A29" s="17">
         <v>27</v>
       </c>
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" s="19" customFormat="1">
       <c r="A30" s="17">
         <v>28</v>
       </c>
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" s="19" customFormat="1">
       <c r="A31" s="17">
         <v>29</v>
       </c>
@@ -10913,34 +11457,34 @@
         <v>1200</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="19" customFormat="1">
       <c r="A32" s="17">
         <v>30</v>
       </c>
       <c r="B32" s="10"/>
     </row>
-    <row r="33" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" s="19" customFormat="1">
       <c r="A33" s="17">
         <v>31</v>
       </c>
       <c r="B33" s="10"/>
     </row>
-    <row r="34" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" s="19" customFormat="1">
       <c r="A34" s="17">
         <v>32</v>
       </c>
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" s="19" customFormat="1">
       <c r="A35" s="17">
         <v>33</v>
       </c>
       <c r="B35" s="10"/>
     </row>
-    <row r="36" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" s="19" customFormat="1">
       <c r="A36" s="17">
         <v>34</v>
       </c>
@@ -10951,16 +11495,16 @@
         <v>1300</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="19" customFormat="1">
       <c r="A37" s="17">
         <v>35</v>
       </c>
       <c r="B37" s="10"/>
     </row>
-    <row r="38" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" s="19" customFormat="1">
       <c r="A38" s="17">
         <v>36</v>
       </c>
@@ -10971,7 +11515,7 @@
         <v>1400</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -10989,109 +11533,109 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E6" t="s">
+        <v>281</v>
+      </c>
+      <c r="F6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D10" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>294</v>
-      </c>
-      <c r="C5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>295</v>
-      </c>
-      <c r="C6" t="s">
-        <v>296</v>
-      </c>
-      <c r="D6" t="s">
-        <v>297</v>
-      </c>
-      <c r="E6" t="s">
-        <v>298</v>
-      </c>
-      <c r="F6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>301</v>
-      </c>
-      <c r="B8" t="s">
-        <v>302</v>
-      </c>
-      <c r="C8" t="s">
-        <v>304</v>
-      </c>
-      <c r="D8" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>306</v>
-      </c>
-      <c r="B10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C10" t="s">
-        <v>307</v>
-      </c>
-      <c r="D10" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/JobDataBase.xlsx
+++ b/JobDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Tru.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65410EFB-D478-4163-869C-DB933811E255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84DB2AD-678A-4DA1-AECD-D03E57339E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-90" windowWidth="19420" windowHeight="10300" tabRatio="584" activeTab="2" xr2:uid="{A08060C5-6DB5-47FF-9FD6-AEE60E0AAE86}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="584" activeTab="1" xr2:uid="{A08060C5-6DB5-47FF-9FD6-AEE60E0AAE86}"/>
   </bookViews>
   <sheets>
     <sheet name="黑暗卡資料" sheetId="2" r:id="rId1"/>
@@ -2113,10 +2113,6 @@
     <t>失去目前時薪最高的工作</t>
   </si>
   <si>
-    <t>購買國外知名藝人團體來台演唱會門票，搖滾區票價4,800元。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>人脈點</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2382,101 +2378,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>買了一台全新機車30,000元，可一次付清，或分期付款一年，每月3,000元。（請先付出第一期費用後，剩餘11期從可支配所得扣除）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全新機車</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>買了最新的手機，一次付清22,000元。或分期付款九期，每期2,900元。（請先付出第一期費用後，剩餘8期從可支配所得扣除）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全新手機</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>名牌包原價一個要26,000。可一次付清，或分期付款十二期，每月2,500元。（請先付出第一期費用後，剩餘11期從可支配所得扣除）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>名牌包</t>
   </si>
   <si>
-    <t>一年一度百貨週年慶採購，花費7,800元。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>百貨週年慶</t>
   </si>
   <si>
-    <t>買了一台單眼相機14,900，可一次付清，或分期付款半年，一個月2,800元。（請先付出第一期費用後，剩餘5期從可支配所得扣除）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>單眼相機</t>
   </si>
   <si>
-    <t>最近換髮型，指定設計師剪髮、燙髮加上護髮，花了4,500元。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>髮型</t>
   </si>
   <si>
-    <t>和朋友打牌，輸了4,200元。同時增加人脈點數3點。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>打牌</t>
   </si>
   <si>
-    <t>參加醫美療程共19,800。可一次付清，或分期付款八期，每月2,970元。（請先付出第一期費用後，剩餘7期從可支配所得扣除）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>醫美療程</t>
   </si>
   <si>
-    <t>享受兩小時的SPA療程，花費3,800元。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SPA療程</t>
   </si>
   <si>
-    <t>花你一個月的可支配所得買了一份禮物送喜歡的對象。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>伴侶禮物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>買了一台電動含三個遊戲共花15,000元，可以選擇一次付清，或分期付款五期，每期3,600元。（請先付出第一期費用後，剩餘4期從可支配所得扣除）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>換筆記型電腦，可以一次付清35,000元，或分期付款，十二期，每期3,300元。（請先付出第一期費用後，剩餘11期從可支配所得扣除）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>筆記型電腦</t>
   </si>
   <si>
-    <t>雙十一大採購，花費8,500元。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>雙十一大採購</t>
   </si>
   <si>
-    <t>買了一台平板，可一次付清15,500元，或選擇分五期付款，每期3,300元。（請先付出第一期費用後，剩餘4期從可支配所得扣除）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全新平板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2485,19 +2425,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>知名健身房入會，每個月繳交月費1,680元。（請先付出當月費用後，剩餘從可支配所得扣除）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>健身房會員</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>買了一台電競主機30,000元，可一次付清或選擇分期付款一年，每期3,000元。（請先付出第一期費用後，剩餘11期從可支配所得扣除）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>電競主機</t>
+  </si>
+  <si>
+    <t>購買國外知名藝人團體來台演唱會門票，搖滾區&lt;color=red&gt;票價4,800元&lt;/color&gt;。</t>
+  </si>
+  <si>
+    <t>買了一台全新機車&lt;color=red&gt;30,000元&lt;/color&gt;，可一次付清，或分期付款一年，&lt;color=red&gt;每月3,000元&lt;/color&gt;。（請先付出第一期費用後，剩餘11期從可支配所得扣除）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>買了最新的手機，&lt;color=red&gt;一次付清22,000元&lt;/color&gt;。或分期付款九期，&lt;color=red&gt;每期2,900元&lt;/color&gt;。（請先付出第一期費用後，剩餘8期從可支配所得扣除）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名牌包&lt;color=red&gt;原價一個要26,000&lt;/color&gt;。可一次付清，或分期付款十二期，&lt;color=red&gt;每月2,500元&lt;/color&gt;。（請先付出第一期費用後，剩餘11期從可支配所得扣除）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一年一度百貨週年慶採購，&lt;color=red&gt;花費7,800元&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>買了一台&lt;color=red&gt;單眼相機14,900&lt;/color&gt;，可一次付清，或分期付款半年，&lt;color=red&gt;一個月2,800元&lt;/color&gt;。（請先付出第一期費用後，剩餘5期從可支配所得扣除）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近換髮型，指定設計師剪髮、燙髮加上護髮，&lt;color=red&gt;花了4,500元&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和朋友打牌，&lt;color=red&gt;輸了4,200元&lt;/color&gt;。同時&lt;color=red&gt;增加人脈點數3點&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>參加&lt;color=red&gt;醫美療程共19,800&lt;/color&gt;。可一次付清，或分期付款八期，&lt;color=red&gt;每月2,970元&lt;/color&gt;。（請先付出第一期費用後，剩餘7期從可支配所得扣除）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>享受兩小時的SPA療程，&lt;color=red&gt;花費3,800元&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花你&lt;color=red&gt;一個月的可支配所得買了一份禮物送喜歡的對象&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>買了一台電動含三個遊戲&lt;color=red&gt;共花15,000元&lt;/color&gt;，可以選擇一次付清，或分期付款五期，&lt;color=red&gt;每期3,600元&lt;/color&gt;。（請先付出第一期費用後，剩餘4期從可支配所得扣除）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>換筆記型電腦，可以&lt;color=red&gt;一次付清35,000元&lt;/color&gt;，或分期付款，十二期，&lt;color=red&gt;每期3,300元&lt;/color&gt;。（請先付出第一期費用後，剩餘11期從可支配所得扣除）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙十一大採購，&lt;color=red&gt;花費8,500元&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>買了一台平板，可&lt;color=red&gt;一次付清15,500元&lt;/color&gt;，或選擇分五期付款，&lt;color=red&gt;每期3,300元&lt;/color&gt;。（請先付出第一期費用後，剩餘4期從可支配所得扣除）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知名健身房入會，&lt;color=red&gt;每個月繳交月費1,680元&lt;/color&gt;。（請先付出當月費用後，剩餘從可支配所得扣除）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>買了一台&lt;color=red&gt;電競主機30,000元&lt;/color&gt;，可一次付清或選擇分期付款一年，&lt;color=red&gt;每期3,000元&lt;/color&gt;。（請先付出第一期費用後，剩餘11期從可支配所得扣除）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2729,16 +2728,6 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="63">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -3240,6 +3229,16 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3581,39 +3580,33 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5EEE68EA-7BC7-4E3E-92EA-07A450CF5882}" name="表格6" displayName="表格6" ref="A2:I19" tableType="xml" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53" connectionId="22">
-  <autoFilter ref="A2:I19" xr:uid="{5EEE68EA-7BC7-4E3E-92EA-07A450CF5882}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:I19" xr:uid="{5EEE68EA-7BC7-4E3E-92EA-07A450CF5882}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{4C9A12F3-C427-4573-96F6-97DA5F5E8FFE}" uniqueName="ID" name="ID" dataDxfId="52">
       <xmlColumnPr mapId="40" xpath="/LargeGreatData/LargeGreats/LargeGreat/ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{A8710691-5DB5-4C13-A284-D4D5BA9D3566}" uniqueName="Name" name="Name" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{A8710691-5DB5-4C13-A284-D4D5BA9D3566}" uniqueName="Name" name="Name" dataDxfId="51">
       <xmlColumnPr mapId="40" xpath="/LargeGreatData/LargeGreats/LargeGreat/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{E5369D02-285D-4532-81FA-FDDDB9A6EE93}" uniqueName="TotalCash" name="TotalCash" dataDxfId="51">
+    <tableColumn id="2" xr3:uid="{E5369D02-285D-4532-81FA-FDDDB9A6EE93}" uniqueName="TotalCash" name="TotalCash" dataDxfId="50">
       <xmlColumnPr mapId="40" xpath="/LargeGreatData/LargeGreats/LargeGreat/TotalCash" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2D3F724A-867C-427B-8262-58438979C731}" uniqueName="Installment" name="Installment" dataDxfId="50">
+    <tableColumn id="3" xr3:uid="{2D3F724A-867C-427B-8262-58438979C731}" uniqueName="Installment" name="Installment" dataDxfId="49">
       <xmlColumnPr mapId="40" xpath="/LargeGreatData/LargeGreats/LargeGreat/Installment" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8B02AAFF-3AFA-4565-9E6E-DA89E60141D7}" uniqueName="MonthToPay" name="MonthToPay" dataDxfId="49">
+    <tableColumn id="4" xr3:uid="{8B02AAFF-3AFA-4565-9E6E-DA89E60141D7}" uniqueName="MonthToPay" name="MonthToPay" dataDxfId="48">
       <xmlColumnPr mapId="40" xpath="/LargeGreatData/LargeGreats/LargeGreat/MonthToPay" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D73DA5E0-9F7E-4FAD-8051-2F691FC17C5D}" uniqueName="CashPerMonth" name="CashPerMonth" dataDxfId="48">
+    <tableColumn id="5" xr3:uid="{D73DA5E0-9F7E-4FAD-8051-2F691FC17C5D}" uniqueName="CashPerMonth" name="CashPerMonth" dataDxfId="47">
       <xmlColumnPr mapId="40" xpath="/LargeGreatData/LargeGreats/LargeGreat/CashPerMonth" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DD97F88A-E7E2-4CB6-8D46-4541D1852655}" uniqueName="Description" name="Description" dataDxfId="47">
+    <tableColumn id="7" xr3:uid="{DD97F88A-E7E2-4CB6-8D46-4541D1852655}" uniqueName="Description" name="Description" dataDxfId="46">
       <xmlColumnPr mapId="40" xpath="/LargeGreatData/LargeGreats/LargeGreat/Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{30F5E13A-6148-486B-B762-B57F3470FDAB}" uniqueName="ConnectionPoint" name="ConnectionPoint" dataDxfId="46">
+    <tableColumn id="8" xr3:uid="{30F5E13A-6148-486B-B762-B57F3470FDAB}" uniqueName="ConnectionPoint" name="ConnectionPoint" dataDxfId="45">
       <xmlColumnPr mapId="40" xpath="/LargeGreatData/LargeGreats/LargeGreat/ConnectionPoint" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6C268A9A-7930-40CC-8E7B-2AC463DACAD1}" uniqueName="OtherRequire" name="OtherRequire" dataDxfId="45">
+    <tableColumn id="6" xr3:uid="{6C268A9A-7930-40CC-8E7B-2AC463DACAD1}" uniqueName="OtherRequire" name="OtherRequire" dataDxfId="44">
       <xmlColumnPr mapId="40" xpath="/LargeGreatData/LargeGreats/LargeGreat/OtherRequire" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3622,28 +3615,28 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{01098721-9802-42F8-9529-C303B6430AE2}" name="表格8" displayName="表格8" ref="A2:G64" tableType="xml" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" connectionId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{01098721-9802-42F8-9529-C303B6430AE2}" name="表格8" displayName="表格8" ref="A2:G64" tableType="xml" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" connectionId="25">
   <autoFilter ref="A2:G64" xr:uid="{01098721-9802-42F8-9529-C303B6430AE2}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D6F0BC58-CF5B-4566-9B11-E6453A6E8FE6}" uniqueName="ID" name="ID" dataDxfId="42">
+    <tableColumn id="1" xr3:uid="{D6F0BC58-CF5B-4566-9B11-E6453A6E8FE6}" uniqueName="ID" name="ID" dataDxfId="41">
       <xmlColumnPr mapId="41" xpath="/LittleGreatData/LittleGreats/LittleGreat/ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{52B47B62-CDC2-4B05-A698-BFE19E2B74FC}" uniqueName="TotalCash" name="TotalCash" dataDxfId="41">
+    <tableColumn id="2" xr3:uid="{52B47B62-CDC2-4B05-A698-BFE19E2B74FC}" uniqueName="TotalCash" name="TotalCash" dataDxfId="40">
       <xmlColumnPr mapId="41" xpath="/LittleGreatData/LittleGreats/LittleGreat/TotalCash" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1BBBBF5B-50EC-406F-ABAF-D72807E42359}" uniqueName="ConnectionPoint" name="ConnectionPoint" dataDxfId="40">
+    <tableColumn id="3" xr3:uid="{1BBBBF5B-50EC-406F-ABAF-D72807E42359}" uniqueName="ConnectionPoint" name="ConnectionPoint" dataDxfId="39">
       <xmlColumnPr mapId="41" xpath="/LittleGreatData/LittleGreats/LittleGreat/ConnectionPoint" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{EB2469EE-487C-48ED-8BBB-6F2EFC7EAD54}" uniqueName="TotalTime" name="TotalTime" dataDxfId="39">
+    <tableColumn id="4" xr3:uid="{EB2469EE-487C-48ED-8BBB-6F2EFC7EAD54}" uniqueName="TotalTime" name="TotalTime" dataDxfId="38">
       <xmlColumnPr mapId="41" xpath="/LittleGreatData/LittleGreats/LittleGreat/TotalTime" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A51DB3BC-583A-4FA6-A377-7A11ED185AE0}" uniqueName="Description" name="Description" dataDxfId="38">
+    <tableColumn id="6" xr3:uid="{A51DB3BC-583A-4FA6-A377-7A11ED185AE0}" uniqueName="Description" name="Description" dataDxfId="37">
       <xmlColumnPr mapId="41" xpath="/LittleGreatData/LittleGreats/LittleGreat/Description" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{A37AD388-B666-4BFC-AB78-74EB0050A795}" uniqueName="ContinuedTime" name="ContinuedTime">
       <xmlColumnPr mapId="41" xpath="/LittleGreatData/LittleGreats/LittleGreat/ContinuedTime" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{76222A9E-EDCC-4946-A69A-4CAD6222BB8A}" uniqueName="OtherRequire" name="OtherRequire" dataDxfId="37">
+    <tableColumn id="5" xr3:uid="{76222A9E-EDCC-4946-A69A-4CAD6222BB8A}" uniqueName="OtherRequire" name="OtherRequire" dataDxfId="36">
       <xmlColumnPr mapId="41" xpath="/LittleGreatData/LittleGreats/LittleGreat/OtherRequire" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3652,22 +3645,28 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FE234666-264F-409A-8A44-E8E0C2C62ED2}" name="表格9" displayName="表格9" ref="A2:E18" tableType="xml" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" connectionId="26">
-  <autoFilter ref="A2:E18" xr:uid="{FE234666-264F-409A-8A44-E8E0C2C62ED2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FE234666-264F-409A-8A44-E8E0C2C62ED2}" name="表格9" displayName="表格9" ref="A2:E18" tableType="xml" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" connectionId="26">
+  <autoFilter ref="A2:E18" xr:uid="{FE234666-264F-409A-8A44-E8E0C2C62ED2}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D8597987-CBB0-4023-A70B-9CC4147467D0}" uniqueName="ID" name="ID" dataDxfId="34">
+    <tableColumn id="1" xr3:uid="{D8597987-CBB0-4023-A70B-9CC4147467D0}" uniqueName="ID" name="ID" dataDxfId="33">
       <xmlColumnPr mapId="14" xpath="/LittleLuckData/LittleLuck/ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{FB48B4C8-B260-4DD6-B5CA-720E0872EBE3}" uniqueName="TotalCash" name="TotalCash" dataDxfId="33">
+    <tableColumn id="2" xr3:uid="{FB48B4C8-B260-4DD6-B5CA-720E0872EBE3}" uniqueName="TotalCash" name="TotalCash" dataDxfId="32">
       <xmlColumnPr mapId="14" xpath="/LittleLuckData/LittleLuck/TotalCash" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F8D9E09E-AA6D-4640-9562-6A8395A69B54}" uniqueName="BookNeeds" name="BookNeeds" dataDxfId="32">
+    <tableColumn id="3" xr3:uid="{F8D9E09E-AA6D-4640-9562-6A8395A69B54}" uniqueName="BookNeeds" name="BookNeeds" dataDxfId="31">
       <xmlColumnPr mapId="14" xpath="/LittleLuckData/LittleLuck/BookNeeds" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{02C0CDAE-192D-4CA2-9E0B-F24B04D305F6}" uniqueName="RelationshipPointNeeds" name="RelationshipPointNeeds" dataDxfId="31">
+    <tableColumn id="4" xr3:uid="{02C0CDAE-192D-4CA2-9E0B-F24B04D305F6}" uniqueName="RelationshipPointNeeds" name="RelationshipPointNeeds" dataDxfId="30">
       <xmlColumnPr mapId="14" xpath="/LittleLuckData/LittleLuck/RelationshipPointNeeds" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8E6D30CE-F566-4462-A1A0-4B38E811F710}" uniqueName="OtherRequire" name="OtherRequire" dataDxfId="30">
+    <tableColumn id="5" xr3:uid="{8E6D30CE-F566-4462-A1A0-4B38E811F710}" uniqueName="OtherRequire" name="OtherRequire" dataDxfId="29">
       <xmlColumnPr mapId="14" xpath="/LittleLuckData/LittleLuck/OtherRequire" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3676,46 +3675,46 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{4A1B4344-A6AD-4675-AE5A-79750CCE0C9E}" name="表格19" displayName="表格19" ref="A2:M33" tableType="xml" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" connectionId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{4A1B4344-A6AD-4675-AE5A-79750CCE0C9E}" name="表格19" displayName="表格19" ref="A2:M33" tableType="xml" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" connectionId="15">
   <autoFilter ref="A2:M33" xr:uid="{4A1B4344-A6AD-4675-AE5A-79750CCE0C9E}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{05240DE6-B2D5-424E-B8E7-91CF6F180FE7}" uniqueName="ID" name="ID" dataDxfId="27">
+    <tableColumn id="1" xr3:uid="{05240DE6-B2D5-424E-B8E7-91CF6F180FE7}" uniqueName="ID" name="ID" dataDxfId="26">
       <xmlColumnPr mapId="15" xpath="/WorkDataBase/Work/ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{1C5C3DFC-E4A3-44DC-9013-6AB53FD49AC8}" uniqueName="Name" name="Name" dataDxfId="26">
+    <tableColumn id="2" xr3:uid="{1C5C3DFC-E4A3-44DC-9013-6AB53FD49AC8}" uniqueName="Name" name="Name" dataDxfId="25">
       <xmlColumnPr mapId="15" xpath="/WorkDataBase/Work/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{78C4F42B-74AE-417E-B663-C9189C1BF2C8}" uniqueName="Post" name="Post" dataDxfId="25">
+    <tableColumn id="3" xr3:uid="{78C4F42B-74AE-417E-B663-C9189C1BF2C8}" uniqueName="Post" name="Post" dataDxfId="24">
       <xmlColumnPr mapId="15" xpath="/WorkDataBase/Work/Post" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{65040293-4B9A-4A0D-BE16-1B22B3624CE6}" uniqueName="PersonRequire" name="PersonRequire" dataDxfId="24">
+    <tableColumn id="4" xr3:uid="{65040293-4B9A-4A0D-BE16-1B22B3624CE6}" uniqueName="PersonRequire" name="PersonRequire" dataDxfId="23">
       <xmlColumnPr mapId="15" xpath="/WorkDataBase/Work/PersonRequire" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B1193EE9-D4C7-47C3-BAA2-D7E95D627F5B}" uniqueName="StartMonth" name="StartMonth" dataDxfId="23">
+    <tableColumn id="5" xr3:uid="{B1193EE9-D4C7-47C3-BAA2-D7E95D627F5B}" uniqueName="StartMonth" name="StartMonth" dataDxfId="22">
       <xmlColumnPr mapId="15" xpath="/WorkDataBase/Work/StartMonth" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{31DB3E11-1DCB-4784-9602-85AA29DCAFF3}" uniqueName="EndMonth" name="EndMonth" dataDxfId="22">
+    <tableColumn id="6" xr3:uid="{31DB3E11-1DCB-4784-9602-85AA29DCAFF3}" uniqueName="EndMonth" name="EndMonth" dataDxfId="21">
       <xmlColumnPr mapId="15" xpath="/WorkDataBase/Work/EndMonth" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{CA97C32B-5122-45FE-A661-E8406569B4EE}" uniqueName="HourlySalary" name="HourlySalary" dataDxfId="21">
+    <tableColumn id="7" xr3:uid="{CA97C32B-5122-45FE-A661-E8406569B4EE}" uniqueName="HourlySalary" name="HourlySalary" dataDxfId="20">
       <xmlColumnPr mapId="15" xpath="/WorkDataBase/Work/HourlySalary" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{146C5670-0ED4-4EBB-BE52-8192F3F522BE}" uniqueName="MonthlySalary" name="MonthlySalary" dataDxfId="20">
+    <tableColumn id="8" xr3:uid="{146C5670-0ED4-4EBB-BE52-8192F3F522BE}" uniqueName="MonthlySalary" name="MonthlySalary" dataDxfId="19">
       <xmlColumnPr mapId="15" xpath="/WorkDataBase/Work/MonthlySalary" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D9897E5B-3376-44D7-A68F-3A68B76104E9}" uniqueName="AnnualSalary" name="AnnualSalary" dataDxfId="19">
+    <tableColumn id="9" xr3:uid="{D9897E5B-3376-44D7-A68F-3A68B76104E9}" uniqueName="AnnualSalary" name="AnnualSalary" dataDxfId="18">
       <xmlColumnPr mapId="15" xpath="/WorkDataBase/Work/AnnualSalary" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{8FF8F675-CE3C-4EE5-8FDE-B39A06B9BBF2}" uniqueName="WeeklyTime" name="WeeklyTime" dataDxfId="18">
+    <tableColumn id="10" xr3:uid="{8FF8F675-CE3C-4EE5-8FDE-B39A06B9BBF2}" uniqueName="WeeklyTime" name="WeeklyTime" dataDxfId="17">
       <xmlColumnPr mapId="15" xpath="/WorkDataBase/Work/WeeklyTime" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{CB7B846A-AA9A-4E90-9FC9-D6AA4018F4CA}" uniqueName="MonthlyTime" name="MonthlyTime" dataDxfId="17">
+    <tableColumn id="11" xr3:uid="{CB7B846A-AA9A-4E90-9FC9-D6AA4018F4CA}" uniqueName="MonthlyTime" name="MonthlyTime" dataDxfId="16">
       <xmlColumnPr mapId="15" xpath="/WorkDataBase/Work/MonthlyTime" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{969FA5E6-DAEB-4C04-9F8F-2E6F0D75FF9E}" uniqueName="MonthlyRequire" name="MonthlyRequire" dataDxfId="16">
+    <tableColumn id="12" xr3:uid="{969FA5E6-DAEB-4C04-9F8F-2E6F0D75FF9E}" uniqueName="MonthlyRequire" name="MonthlyRequire" dataDxfId="15">
       <xmlColumnPr mapId="15" xpath="/WorkDataBase/Work/MonthlyRequire" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{E9D82839-CC1B-4D21-B347-AD0C4769B1FF}" uniqueName="OtherRequire" name="OtherRequire" dataDxfId="15">
+    <tableColumn id="13" xr3:uid="{E9D82839-CC1B-4D21-B347-AD0C4769B1FF}" uniqueName="OtherRequire" name="OtherRequire" dataDxfId="14">
       <xmlColumnPr mapId="15" xpath="/WorkDataBase/Work/OtherRequire" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3724,46 +3723,46 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB976CD4-8313-483B-9CC7-9B2FD4A7F8B1}" name="表格2" displayName="表格2" ref="A2:L22" tableType="xml" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" connectionId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB976CD4-8313-483B-9CC7-9B2FD4A7F8B1}" name="表格2" displayName="表格2" ref="A2:L22" tableType="xml" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" connectionId="6">
   <autoFilter ref="A2:L22" xr:uid="{CB976CD4-8313-483B-9CC7-9B2FD4A7F8B1}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:R22">
     <sortCondition ref="A3:A22"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{EF9B6792-E319-4F3A-9395-E7F0E21DAC1C}" uniqueName="ID" name="ID" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{EF9B6792-E319-4F3A-9395-E7F0E21DAC1C}" uniqueName="ID" name="ID" dataDxfId="11">
       <xmlColumnPr mapId="32" xpath="/CharactersData/Characters/Character/ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D28A433D-CDA8-4896-A910-094181D5B8E3}" uniqueName="Name" name="Name" dataDxfId="11">
+    <tableColumn id="3" xr3:uid="{D28A433D-CDA8-4896-A910-094181D5B8E3}" uniqueName="Name" name="Name" dataDxfId="10">
       <xmlColumnPr mapId="32" xpath="/CharactersData/Characters/Character/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{6DD8687C-0012-4EBA-87AE-983C9DBC254B}" uniqueName="Birth" name="Birth" dataDxfId="10">
+    <tableColumn id="4" xr3:uid="{6DD8687C-0012-4EBA-87AE-983C9DBC254B}" uniqueName="Birth" name="Birth" dataDxfId="9">
       <xmlColumnPr mapId="32" xpath="/CharactersData/Characters/Character/Birth" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A34F4AC5-2176-4DA6-B292-5412C0D70321}" uniqueName="Relationship" name="Relationship" dataDxfId="9">
+    <tableColumn id="5" xr3:uid="{A34F4AC5-2176-4DA6-B292-5412C0D70321}" uniqueName="Relationship" name="Relationship" dataDxfId="8">
       <xmlColumnPr mapId="32" xpath="/CharactersData/Characters/Character/Relationship" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{2C9ACC86-3D76-451B-8E53-8657D9246CAB}" uniqueName="StarSign" name="StarSign" dataDxfId="8">
+    <tableColumn id="19" xr3:uid="{2C9ACC86-3D76-451B-8E53-8657D9246CAB}" uniqueName="StarSign" name="StarSign" dataDxfId="7">
       <xmlColumnPr mapId="32" xpath="/CharactersData/Characters/Character/StarSign" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{22B6D80F-8DE2-4985-A848-1F621FC49873}" uniqueName="PocketMoney" name="PocketMoney" dataDxfId="7">
+    <tableColumn id="6" xr3:uid="{22B6D80F-8DE2-4985-A848-1F621FC49873}" uniqueName="PocketMoney" name="PocketMoney" dataDxfId="6">
       <xmlColumnPr mapId="32" xpath="/CharactersData/Characters/Character/PocketMoney" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B96ED033-7D98-40A7-92ED-6F7D1E531255}" uniqueName="Salary" name="Salary" dataDxfId="6">
+    <tableColumn id="7" xr3:uid="{B96ED033-7D98-40A7-92ED-6F7D1E531255}" uniqueName="Salary" name="Salary" dataDxfId="5">
       <xmlColumnPr mapId="32" xpath="/CharactersData/Characters/Character/Salary" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{6700D963-D6E0-4E3D-94CA-30E307377171}" uniqueName="LivingExpend" name="LivingExpend" dataDxfId="5">
+    <tableColumn id="8" xr3:uid="{6700D963-D6E0-4E3D-94CA-30E307377171}" uniqueName="LivingExpend" name="LivingExpend" dataDxfId="4">
       <xmlColumnPr mapId="32" xpath="/CharactersData/Characters/Character/LivingExpend" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{68749A43-75A0-4A2D-A05B-3A4BCB1FF32F}" uniqueName="StartJob" name="StartJob" dataDxfId="4">
+    <tableColumn id="9" xr3:uid="{68749A43-75A0-4A2D-A05B-3A4BCB1FF32F}" uniqueName="StartJob" name="StartJob" dataDxfId="3">
       <xmlColumnPr mapId="32" xpath="/CharactersData/Characters/Character/StartJob" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{0735FA9F-637A-4338-B3D7-9DBB5B12DFB9}" uniqueName="AllocateCash" name="AllocateCash" dataDxfId="3">
+    <tableColumn id="10" xr3:uid="{0735FA9F-637A-4338-B3D7-9DBB5B12DFB9}" uniqueName="AllocateCash" name="AllocateCash" dataDxfId="2">
       <xmlColumnPr mapId="32" xpath="/CharactersData/Characters/Character/AllocateCash" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{A5B619AB-1DED-47F6-88C0-315C48128F19}" uniqueName="AllocateTime" name="AllocateTime" dataDxfId="2">
+    <tableColumn id="11" xr3:uid="{A5B619AB-1DED-47F6-88C0-315C48128F19}" uniqueName="AllocateTime" name="AllocateTime" dataDxfId="1">
       <xmlColumnPr mapId="32" xpath="/CharactersData/Characters/Character/AllocateTime" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B6916EF1-599A-4400-BCFF-8D91C80C1BD9}" uniqueName="ConnectionPoint" name="ConnectionPoint" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{B6916EF1-599A-4400-BCFF-8D91C80C1BD9}" uniqueName="ConnectionPoint" name="ConnectionPoint" dataDxfId="0">
       <xmlColumnPr mapId="32" xpath="/CharactersData/Characters/Character/ConnectionPoint" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -4077,7 +4076,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3:E17"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -4144,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F3" s="5">
         <v>0</v>
@@ -4164,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
@@ -4184,7 +4183,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
@@ -4204,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
@@ -4227,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
@@ -4250,7 +4249,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
@@ -4270,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -4293,7 +4292,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F10" s="5">
         <v>0</v>
@@ -4313,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F11" s="5">
         <v>0</v>
@@ -4333,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F12" s="5">
         <v>0</v>
@@ -4353,7 +4352,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F13" s="5">
         <v>0</v>
@@ -4373,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F14" s="5">
         <v>1</v>
@@ -4396,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F15" s="5">
         <v>1</v>
@@ -4419,7 +4418,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F16" s="5">
         <v>0</v>
@@ -4439,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F17" s="5">
         <v>0</v>
@@ -4463,11 +4462,11 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B19"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -4489,7 +4488,7 @@
         <v>141</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>142</v>
@@ -4507,7 +4506,7 @@
         <v>350</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>146</v>
@@ -4542,12 +4541,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1">
+    <row r="3" spans="1:10">
       <c r="A3" s="13">
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C3" s="15">
         <v>4800</v>
@@ -4562,7 +4561,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>354</v>
+        <v>445</v>
       </c>
       <c r="H3" s="15">
         <v>0</v>
@@ -4576,7 +4575,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C4" s="15">
         <v>30000</v>
@@ -4591,7 +4590,7 @@
         <v>3000</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="H4" s="15">
         <v>0</v>
@@ -4605,7 +4604,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C5" s="15">
         <v>22000</v>
@@ -4620,7 +4619,7 @@
         <v>2900</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="H5" s="15">
         <v>0</v>
@@ -4634,7 +4633,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C6" s="15">
         <v>26000</v>
@@ -4649,7 +4648,7 @@
         <v>2500</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="H6" s="15">
         <v>0</v>
@@ -4658,12 +4657,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1">
+    <row r="7" spans="1:10">
       <c r="A7" s="13">
         <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C7" s="15">
         <v>7800</v>
@@ -4678,7 +4677,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="H7" s="15">
         <v>0</v>
@@ -4692,7 +4691,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C8" s="15">
         <v>14900</v>
@@ -4707,7 +4706,7 @@
         <v>2800</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="H8" s="15">
         <v>0</v>
@@ -4716,12 +4715,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1">
+    <row r="9" spans="1:10">
       <c r="A9" s="13">
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C9" s="15">
         <v>4500</v>
@@ -4736,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="H9" s="15">
         <v>0</v>
@@ -4745,12 +4744,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1">
+    <row r="10" spans="1:10">
       <c r="A10" s="13">
         <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C10" s="15">
         <v>4200</v>
@@ -4765,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="H10" s="15">
         <v>3</v>
@@ -4779,7 +4778,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="C11" s="15">
         <v>19800</v>
@@ -4794,7 +4793,7 @@
         <v>2970</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="H11" s="15">
         <v>0</v>
@@ -4803,12 +4802,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1">
+    <row r="12" spans="1:10">
       <c r="A12" s="13">
         <v>10</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C12" s="15">
         <v>3800</v>
@@ -4823,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="H12" s="15">
         <v>0</v>
@@ -4832,12 +4831,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="29" customFormat="1" hidden="1">
+    <row r="13" spans="1:10" s="29" customFormat="1">
       <c r="A13" s="27">
         <v>11</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="C13" s="27">
         <v>0</v>
@@ -4852,7 +4851,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="H13" s="27">
         <v>0</v>
@@ -4869,7 +4868,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="C14" s="15">
         <v>15000</v>
@@ -4884,7 +4883,7 @@
         <v>3600</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="H14" s="15">
         <v>0</v>
@@ -4898,7 +4897,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="C15" s="15">
         <v>35000</v>
@@ -4913,7 +4912,7 @@
         <v>3300</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="H15" s="15">
         <v>0</v>
@@ -4922,12 +4921,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1">
+    <row r="16" spans="1:10">
       <c r="A16" s="13">
         <v>14</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="C16" s="15">
         <v>8500</v>
@@ -4942,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="H16" s="15">
         <v>0</v>
@@ -4956,7 +4955,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="C17" s="15">
         <v>15500</v>
@@ -4971,7 +4970,7 @@
         <v>3300</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="H17" s="15">
         <v>0</v>
@@ -4985,13 +4984,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="C18" s="27">
         <v>0</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E18" s="27">
         <v>0</v>
@@ -5000,7 +4999,7 @@
         <v>1680</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="H18" s="27">
         <v>0</v>
@@ -5017,7 +5016,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="C19" s="15">
         <v>30000</v>
@@ -5032,7 +5031,7 @@
         <v>3000</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H19" s="15">
         <v>0</v>
@@ -5071,7 +5070,7 @@
   </sheetPr>
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -5107,7 +5106,7 @@
         <v>350</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>20</v>
@@ -5130,7 +5129,7 @@
         <v>352</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>11</v>
@@ -5311,7 +5310,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F10" s="28">
         <v>0</v>
@@ -5685,7 +5684,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F26" s="25">
         <v>1</v>
@@ -6692,7 +6691,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" hidden="1">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -6759,7 +6758,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" hidden="1">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -6803,7 +6802,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" hidden="1">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -6847,7 +6846,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" hidden="1">
       <c r="A12" s="13">
         <v>10</v>
       </c>
@@ -6868,7 +6867,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" hidden="1">
       <c r="A13" s="13">
         <v>11</v>
       </c>
@@ -6906,7 +6905,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G14" s="29" t="s">
         <v>243</v>
@@ -6998,7 +6997,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G18" s="29" t="s">
         <v>247</v>
@@ -7380,7 +7379,7 @@
         <v>20</v>
       </c>
       <c r="L8" s="27" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M8" s="27">
         <v>1</v>
@@ -8952,7 +8951,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F11" s="9">
         <v>2000</v>
@@ -9392,7 +9391,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F21" s="9">
         <v>2000</v>
@@ -9602,7 +9601,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -9632,7 +9631,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -9676,7 +9675,7 @@
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -9720,7 +9719,7 @@
         <v>4</v>
       </c>
       <c r="M5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -9764,7 +9763,7 @@
         <v>-1</v>
       </c>
       <c r="M6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -9808,7 +9807,7 @@
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -9852,7 +9851,7 @@
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -9896,7 +9895,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N9" s="29">
         <v>0</v>
@@ -9940,7 +9939,7 @@
         <v>12</v>
       </c>
       <c r="M10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -9984,7 +9983,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -10028,7 +10027,7 @@
         <v>-1</v>
       </c>
       <c r="M12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -10072,7 +10071,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -10116,7 +10115,7 @@
         <v>4</v>
       </c>
       <c r="M14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -10160,7 +10159,7 @@
         <v>2</v>
       </c>
       <c r="M15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -10204,7 +10203,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -10248,7 +10247,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -10292,7 +10291,7 @@
         <v>-1</v>
       </c>
       <c r="M18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -10336,7 +10335,7 @@
         <v>2</v>
       </c>
       <c r="M19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -10380,7 +10379,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -10394,7 +10393,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -10424,7 +10423,7 @@
         <v>1</v>
       </c>
       <c r="M21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -10468,7 +10467,7 @@
         <v>4</v>
       </c>
       <c r="M22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -10512,7 +10511,7 @@
         <v>-1</v>
       </c>
       <c r="M23" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -10556,7 +10555,7 @@
         <v>-1</v>
       </c>
       <c r="M24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -10600,7 +10599,7 @@
         <v>-1</v>
       </c>
       <c r="M25" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -10644,7 +10643,7 @@
         <v>1</v>
       </c>
       <c r="M26" s="29" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N26" s="29">
         <v>1</v>
@@ -10691,7 +10690,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -10735,7 +10734,7 @@
         <v>4</v>
       </c>
       <c r="M28" s="29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N28" s="29">
         <v>1</v>
@@ -10782,7 +10781,7 @@
         <v>4</v>
       </c>
       <c r="M29" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -10826,7 +10825,7 @@
         <v>4</v>
       </c>
       <c r="M30" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -10870,7 +10869,7 @@
         <v>2</v>
       </c>
       <c r="M31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -10914,7 +10913,7 @@
         <v>6</v>
       </c>
       <c r="M32" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -10958,7 +10957,7 @@
         <v>1</v>
       </c>
       <c r="M33" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -11002,7 +11001,7 @@
         <v>1</v>
       </c>
       <c r="M34" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -11046,7 +11045,7 @@
         <v>1</v>
       </c>
       <c r="M35" s="29" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N35" s="29">
         <v>1</v>
@@ -11093,7 +11092,7 @@
         <v>6</v>
       </c>
       <c r="M36" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -11137,7 +11136,7 @@
         <v>4</v>
       </c>
       <c r="M37" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -11180,31 +11179,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E1" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>405</v>
-      </c>
       <c r="J1" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="12" customFormat="1">
@@ -11212,13 +11211,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="19" customFormat="1">
@@ -11232,7 +11231,7 @@
         <v>1000</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="19" customFormat="1">
@@ -11243,7 +11242,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="19" customFormat="1">
@@ -11340,7 +11339,7 @@
         <v>1100</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="19" customFormat="1">
@@ -11419,7 +11418,7 @@
         <v>1500</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="19" customFormat="1">
@@ -11457,7 +11456,7 @@
         <v>1200</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="19" customFormat="1">
@@ -11495,7 +11494,7 @@
         <v>1300</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="19" customFormat="1">
@@ -11515,7 +11514,7 @@
         <v>1400</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/JobDataBase.xlsx
+++ b/JobDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Tru.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84DB2AD-678A-4DA1-AECD-D03E57339E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486D2329-6760-4252-9C62-8A38C0F14766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="584" activeTab="1" xr2:uid="{A08060C5-6DB5-47FF-9FD6-AEE60E0AAE86}"/>
+    <workbookView xWindow="-19320" yWindow="-100" windowWidth="19440" windowHeight="10320" tabRatio="584" activeTab="4" xr2:uid="{A08060C5-6DB5-47FF-9FD6-AEE60E0AAE86}"/>
   </bookViews>
   <sheets>
     <sheet name="黑暗卡資料" sheetId="2" r:id="rId1"/>
@@ -846,66 +846,47 @@
   <connection id="15" xr16:uid="{7D249A5E-75FC-4132-868D-3F4A9A758938}" name="Jobs" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\工作\Jobs.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="16" xr16:uid="{15E498C1-E075-4A34-B98E-5E5CB55B02B2}" name="LargeGreat" type="4" refreshedVersion="0" background="1">
+  <connection id="16" xr16:uid="{D4C03FB2-13AF-4EF3-BD20-BCEDBE129B45}" name="Jobs1" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\User\Desktop\Tru.4\DataBase\基底\Jobs.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="17" xr16:uid="{15E498C1-E075-4A34-B98E-5E5CB55B02B2}" name="LargeGreat" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\工作\LargeGreat.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="17" xr16:uid="{41B2BE63-26B9-4CDD-8F9A-F7110581F798}" name="LargeGreat1" type="4" refreshedVersion="0" background="1">
+  <connection id="18" xr16:uid="{41B2BE63-26B9-4CDD-8F9A-F7110581F798}" name="LargeGreat1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\工作\LargeGreat.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="18" xr16:uid="{4CC88361-5E0F-44B7-AC9D-7B20AFB83F8E}" name="LargeGreat2" type="4" refreshedVersion="0" background="1">
+  <connection id="19" xr16:uid="{4CC88361-5E0F-44B7-AC9D-7B20AFB83F8E}" name="LargeGreat2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\工作\LargeGreat.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="19" xr16:uid="{99B76E6E-72B3-4F14-BC59-E9713A8FEFB8}" name="LargeGreat3" type="4" refreshedVersion="0" background="1">
+  <connection id="20" xr16:uid="{99B76E6E-72B3-4F14-BC59-E9713A8FEFB8}" name="LargeGreat3" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\工作\LargeGreat.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="20" xr16:uid="{CBC63E4E-9431-4BA4-857C-411444E0795E}" name="LargeGreat4" type="4" refreshedVersion="0" background="1">
+  <connection id="21" xr16:uid="{CBC63E4E-9431-4BA4-857C-411444E0795E}" name="LargeGreat4" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\工作\LargeGreat.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="21" xr16:uid="{C3D06E72-B22C-4603-A7E4-7BD42083C81F}" name="LargeGreat5" type="4" refreshedVersion="0" background="1">
+  <connection id="22" xr16:uid="{C3D06E72-B22C-4603-A7E4-7BD42083C81F}" name="LargeGreat5" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\工作\LargeGreat.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="22" xr16:uid="{A596FE58-1742-4EA9-BE3C-30255194A2C7}" name="LargeGreat6" type="4" refreshedVersion="0" background="1">
+  <connection id="23" xr16:uid="{A596FE58-1742-4EA9-BE3C-30255194A2C7}" name="LargeGreat6" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\User\Desktop\Tru.4\DataBase\基底\LargeGreat.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="23" xr16:uid="{663FE3B5-6CA8-4904-931A-38EFB41194BA}" name="LittleGreat" type="4" refreshedVersion="0" background="1">
+  <connection id="24" xr16:uid="{663FE3B5-6CA8-4904-931A-38EFB41194BA}" name="LittleGreat" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\工作\LittleGreat.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="24" xr16:uid="{C5AAB932-CAA4-487B-9682-6F2FD8749E22}" name="LittleGreat1" type="4" refreshedVersion="0" background="1">
+  <connection id="25" xr16:uid="{C5AAB932-CAA4-487B-9682-6F2FD8749E22}" name="LittleGreat1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\工作\LittleGreat.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="25" xr16:uid="{4735DF61-537A-46D2-A76D-DDA4B37DB44A}" name="LittleGreat2" type="4" refreshedVersion="0" background="1">
+  <connection id="26" xr16:uid="{4735DF61-537A-46D2-A76D-DDA4B37DB44A}" name="LittleGreat2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\User\Desktop\Tru.4\DataBase\基底\LittleGreat.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="26" xr16:uid="{48A16D77-48D8-4115-80FA-CD884A67C0DD}" name="LittleLuck" type="4" refreshedVersion="0" background="1">
+  <connection id="27" xr16:uid="{48A16D77-48D8-4115-80FA-CD884A67C0DD}" name="LittleLuck" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\工作\LittleLuck.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="488">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2496,6 +2477,87 @@
   </si>
   <si>
     <t>買了一台&lt;color=red&gt;電競主機30,000元&lt;/color&gt;，可一次付清或選擇分期付款一年，&lt;color=red&gt;每期3,000元&lt;/color&gt;。（請先付出第一期費用後，剩餘11期從可支配所得扣除）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">教務處徵工讀生數名，時薪為基本工資。一週工讀時數10小時，每個月需40小時。至少需工作六個月。每位玩家皆可應徵。     </t>
+  </si>
+  <si>
+    <t>餐飲業徵外場人員，時薪為基本工資，每週需工作15小時，每個月須60小時。每位玩家皆可應徵。</t>
+  </si>
+  <si>
+    <t>連鎖美語教室徵課堂助教數名，時薪為基本工資。曾報考英文檢定或學習英語者，時薪為1.5倍基本工資。每週所需工作時數為10小時，每月共需40小時。每位玩家皆可報名。</t>
+  </si>
+  <si>
+    <t>老師招聘一名教學助理，需具備雙主修或輔系資格身份，時薪為1.5倍基本工資，每週需協助8小時，每月共需32小時。至少需工作三個月。</t>
+  </si>
+  <si>
+    <t>系辦公室徵工讀生數名，時薪為基本工資，一週工讀時數10小時，每月共需40小時。至少需工作六個月。每位玩家皆可應徵。</t>
+  </si>
+  <si>
+    <t>科技廠商徵短期工讀生一名，目前準備專業證照考試者，時薪為1.5倍基本工資；已考取相關證照者，時薪兩倍基本工資。每週所需工作時數為5小時，每個月需20小時。每位玩家皆可應徵。</t>
+  </si>
+  <si>
+    <t>外商公司徵短期工讀生數名，時薪為基本工資。曾參加外語訓練，或目前正學習，或準備各種外國語考試者，時薪1.5倍基本工資。經具有任一外國語證照者，時薪三倍基本工資元。每週所需工作時數為6小時，每個月需24小時。每位玩家皆可報名。</t>
+  </si>
+  <si>
+    <t>安親班徵數名作文批閱家教，曾購買或閱讀書籍者時薪為1.5倍基本工資，每月工作時數自訂，惟不能超過30小時。</t>
+  </si>
+  <si>
+    <t>大賣場徵工讀生數名，時薪為基本工資，一週工讀時數10時，每月共需40小時。至少需工作三個月。每位玩家皆可應徵。</t>
+  </si>
+  <si>
+    <t>頂下二手移動式飲料攤，花費10,000元。扣除聘請工讀生及物料成本，每月淨賺5,000元。但需花費監督時間每週4小時，每個月共需16小時。你有優先選擇權。</t>
+  </si>
+  <si>
+    <t>連鎖電腦補習班聘請一名兼任文書處理（Word）及電子試算表（Excel）教學講師，具有相關證照者，時薪為三倍基本工資；曾自修超過四個月者，時薪兩倍基本工資。每月工作時數自訂，惟不能超過30小時。你有優先選擇權。</t>
+  </si>
+  <si>
+    <t>金融機構提供數名實習機會。曾擔任學會幹部或參與社團者時薪1.5倍基本工資；曾參加專業學術或核心職能研習營者時薪兩倍基本工資。每週所需工作時數為7小時，每個月供需28小時。至少必須實習兩個月，之後可自由彈性延長。</t>
+  </si>
+  <si>
+    <t>一名國一生需要英文家教，家長開出的條件是，擁有英文證照，時薪三倍基本工資；若正準備英文證照考試者，時薪兩倍工資。每月所需工作時數為16小時。你有優先選擇權。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">連鎖飲料店徵工讀生，時薪為基本工資，每月需排班50小時。每位玩家皆可應徵。 </t>
+  </si>
+  <si>
+    <t>資訊公司聘請電繪及編程實習生兩名，擁有證照者，時薪三倍基本工資，學習相關技術超過兩個月者，時薪兩倍基本工資。每月工作時數自訂，惟不得超過40小時。你有優先選擇權。</t>
+  </si>
+  <si>
+    <t>科技公司提供數名實習機會，時薪兩倍基本工資，曾參與實務社群、參加企業舉辦主題營隊，或參與過校內外專案活動者方能申請。每月需工作24小時。</t>
+  </si>
+  <si>
+    <t>一名高二學生需要英文家教，家長開出的條件是，必須擁有TOEIC證照，時薪三倍基本工資。每月所需工作時數為16小時。你有優先選擇權。</t>
+  </si>
+  <si>
+    <t>補習班徵課輔老師數名，時薪為基本工資。曾擔任梯隊輔導員，時薪150元。每週所需工作時數為8小時。工作月數不限定。</t>
+  </si>
+  <si>
+    <t>外商公司提供數名實習機會。曾擁有國際經驗者，時薪為兩倍基本工資，若同時考取外語證照者，時薪為四倍基本工資。每月所需工作時數為25小時。至少必須實習兩個月，之後可自由彈性延長。</t>
+  </si>
+  <si>
+    <t>咖啡店徵工讀生數名，時薪為基本工資，每週上班15小時，每月60小時。每位玩家皆可應徵。</t>
+  </si>
+  <si>
+    <t>社區活動中心徵大學生兼任教師數名。準備技術類證照考試者超過三個月者，時薪1.5倍基本工資，具有技術類證照者，時薪三倍基本工資。每週所需工作時數為7小時，每個月需28小時。</t>
+  </si>
+  <si>
+    <t>數位媒體公司提供工讀機會，時薪為1.5倍基本工資，每月工讀時數為20小時，曾經參與過講座或工作坊活動者方可應徵。</t>
+  </si>
+  <si>
+    <t>抽到此卡，已經擁有任何專業或技術證照者，可自訂工作內容，自行決定工時(每月上限20小時)，時薪為三倍基本工資。</t>
+  </si>
+  <si>
+    <t>系上教授徵聘研究助理/實驗室工讀生，現實生活班排前三分之一者，或曾申請研究計畫者可應聘。每月需協助20小時，每小時1.5倍基本工資。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非營利機構提供數名大學生具獎助性質的實習機會。曾參與志工活動或服務性營隊者時薪為1.5倍基本工資，曾參加全國性競賽者時薪為兩倍基本工資。每週所需工作時數為8小時，每月共需32小時。至少必須實習兩個月，之後可自由彈性延長實習月數。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2620,7 +2682,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2675,9 +2737,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2711,9 +2770,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2727,7 +2783,7 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="64">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2736,139 +2792,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -3013,6 +2936,148 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3379,35 +3444,6 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Schema ID="Schema7">
-    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
-      <xsd:element nillable="true" name="WorkDataBase">
-        <xsd:complexType>
-          <xsd:sequence minOccurs="0">
-            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Work" form="unqualified">
-              <xsd:complexType>
-                <xsd:sequence minOccurs="0">
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ID" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Post" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="PersonRequire" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="StartMonth" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="EndMonth" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="WeeklyTime" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MonthlyTime" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MonthlyRequire" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="HourlySalary" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MonthlySalary" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="AnnualSalary" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="OtherRequire" form="unqualified"/>
-                </xsd:sequence>
-              </xsd:complexType>
-            </xsd:element>
-          </xsd:sequence>
-        </xsd:complexType>
-      </xsd:element>
-    </xsd:schema>
-  </Schema>
   <Schema ID="Schema9">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="CharactersData">
@@ -3530,6 +3566,42 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
+  <Schema ID="Schema13">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="WorkDataBase">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" nillable="true" name="Works" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Work" form="unqualified">
+                    <xsd:complexType>
+                      <xsd:sequence minOccurs="0">
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ID" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Post" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="PersonRequire" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="StartMonth" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="EndMonth" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="WeeklyTime" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MonthlyTime" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MonthlyRequire" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="HourlySalary" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MonthlySalary" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="AnnualSalary" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="OtherRequire" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Description" form="unqualified"/>
+                      </xsd:sequence>
+                    </xsd:complexType>
+                  </xsd:element>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
   <Map ID="32" Name="CharactersData_Map" RootElement="CharactersData" SchemaID="Schema9" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
     <DataBinding FileBinding="true" ConnectionID="6" DataBindingLoadMode="1"/>
   </Map>
@@ -3537,40 +3609,46 @@
     <DataBinding FileBinding="true" ConnectionID="12" DataBindingLoadMode="1"/>
   </Map>
   <Map ID="40" Name="LargeGreatData_Map" RootElement="LargeGreatData" SchemaID="Schema8" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="22" DataBindingLoadMode="1"/>
+    <DataBinding FileBinding="true" ConnectionID="23" DataBindingLoadMode="1"/>
   </Map>
   <Map ID="41" Name="LittleGreatData_Map" RootElement="LittleGreatData" SchemaID="Schema10" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="25" DataBindingLoadMode="1"/>
+    <DataBinding FileBinding="true" ConnectionID="26" DataBindingLoadMode="1"/>
   </Map>
   <Map ID="14" Name="LittleLuckData_Map" RootElement="LittleLuckData" SchemaID="Schema11" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="26" DataBindingLoadMode="1"/>
+    <DataBinding FileBinding="true" ConnectionID="27" DataBindingLoadMode="1"/>
   </Map>
-  <Map ID="15" Name="WorkDataBase_Map" RootElement="WorkDataBase" SchemaID="Schema7" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="15" DataBindingLoadMode="1"/>
+  <Map ID="45" Name="WorkDataBase_Map" RootElement="WorkDataBase" SchemaID="Schema13" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="16" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E17D290B-C8C8-4691-B884-4C0B5391019E}" name="表格1" displayName="表格1" ref="A2:F17" tableType="xml" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61" connectionId="12">
-  <autoFilter ref="A2:F17" xr:uid="{E17D290B-C8C8-4691-B884-4C0B5391019E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E17D290B-C8C8-4691-B884-4C0B5391019E}" name="表格1" displayName="表格1" ref="A2:F17" tableType="xml" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62" connectionId="12">
+  <autoFilter ref="A2:F17" xr:uid="{E17D290B-C8C8-4691-B884-4C0B5391019E}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{9965917F-0B98-4776-B32C-A553A1DA885C}" uniqueName="ID" name="ID" dataDxfId="60">
+    <tableColumn id="1" xr3:uid="{9965917F-0B98-4776-B32C-A553A1DA885C}" uniqueName="ID" name="ID" dataDxfId="61">
       <xmlColumnPr mapId="33" xpath="/DarkCards/Cards/Card/ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{0B31CDE8-3F31-4172-BC4B-4B24EACECB50}" uniqueName="PunishTime" name="PunishTime" dataDxfId="59">
+    <tableColumn id="2" xr3:uid="{0B31CDE8-3F31-4172-BC4B-4B24EACECB50}" uniqueName="PunishTime" name="PunishTime" dataDxfId="60">
       <xmlColumnPr mapId="33" xpath="/DarkCards/Cards/Card/PunishTime" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FD5EE616-D6B0-4C1B-BD31-D400D22315FE}" uniqueName="PunishCash" name="PunishCash" dataDxfId="58">
+    <tableColumn id="3" xr3:uid="{FD5EE616-D6B0-4C1B-BD31-D400D22315FE}" uniqueName="PunishCash" name="PunishCash" dataDxfId="59">
       <xmlColumnPr mapId="33" xpath="/DarkCards/Cards/Card/PunishCash" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{97513991-1529-45C1-BEDB-11292DBE4EEF}" uniqueName="Suspended" name="Suspended" dataDxfId="57">
+    <tableColumn id="4" xr3:uid="{97513991-1529-45C1-BEDB-11292DBE4EEF}" uniqueName="Suspended" name="Suspended" dataDxfId="58">
       <xmlColumnPr mapId="33" xpath="/DarkCards/Cards/Card/Suspended" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6BB8F66B-E658-4FA1-8A0E-0129154BD341}" uniqueName="Description" name="Description" dataDxfId="56">
+    <tableColumn id="6" xr3:uid="{6BB8F66B-E658-4FA1-8A0E-0129154BD341}" uniqueName="Description" name="Description" dataDxfId="57">
       <xmlColumnPr mapId="33" xpath="/DarkCards/Cards/Card/Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C20DEF06-C593-4BE7-86E1-F0C47B236DA8}" uniqueName="OtherRequire" name="OtherRequire" dataDxfId="55">
+    <tableColumn id="5" xr3:uid="{C20DEF06-C593-4BE7-86E1-F0C47B236DA8}" uniqueName="OtherRequire" name="OtherRequire" dataDxfId="56">
       <xmlColumnPr mapId="33" xpath="/DarkCards/Cards/Card/OtherRequire" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3579,34 +3657,34 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5EEE68EA-7BC7-4E3E-92EA-07A450CF5882}" name="表格6" displayName="表格6" ref="A2:I19" tableType="xml" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53" connectionId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5EEE68EA-7BC7-4E3E-92EA-07A450CF5882}" name="表格6" displayName="表格6" ref="A2:I19" tableType="xml" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54" connectionId="23">
   <autoFilter ref="A2:I19" xr:uid="{5EEE68EA-7BC7-4E3E-92EA-07A450CF5882}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{4C9A12F3-C427-4573-96F6-97DA5F5E8FFE}" uniqueName="ID" name="ID" dataDxfId="52">
+    <tableColumn id="1" xr3:uid="{4C9A12F3-C427-4573-96F6-97DA5F5E8FFE}" uniqueName="ID" name="ID" dataDxfId="53">
       <xmlColumnPr mapId="40" xpath="/LargeGreatData/LargeGreats/LargeGreat/ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{A8710691-5DB5-4C13-A284-D4D5BA9D3566}" uniqueName="Name" name="Name" dataDxfId="51">
+    <tableColumn id="9" xr3:uid="{A8710691-5DB5-4C13-A284-D4D5BA9D3566}" uniqueName="Name" name="Name" dataDxfId="52">
       <xmlColumnPr mapId="40" xpath="/LargeGreatData/LargeGreats/LargeGreat/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{E5369D02-285D-4532-81FA-FDDDB9A6EE93}" uniqueName="TotalCash" name="TotalCash" dataDxfId="50">
+    <tableColumn id="2" xr3:uid="{E5369D02-285D-4532-81FA-FDDDB9A6EE93}" uniqueName="TotalCash" name="TotalCash" dataDxfId="51">
       <xmlColumnPr mapId="40" xpath="/LargeGreatData/LargeGreats/LargeGreat/TotalCash" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2D3F724A-867C-427B-8262-58438979C731}" uniqueName="Installment" name="Installment" dataDxfId="49">
+    <tableColumn id="3" xr3:uid="{2D3F724A-867C-427B-8262-58438979C731}" uniqueName="Installment" name="Installment" dataDxfId="50">
       <xmlColumnPr mapId="40" xpath="/LargeGreatData/LargeGreats/LargeGreat/Installment" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8B02AAFF-3AFA-4565-9E6E-DA89E60141D7}" uniqueName="MonthToPay" name="MonthToPay" dataDxfId="48">
+    <tableColumn id="4" xr3:uid="{8B02AAFF-3AFA-4565-9E6E-DA89E60141D7}" uniqueName="MonthToPay" name="MonthToPay" dataDxfId="49">
       <xmlColumnPr mapId="40" xpath="/LargeGreatData/LargeGreats/LargeGreat/MonthToPay" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D73DA5E0-9F7E-4FAD-8051-2F691FC17C5D}" uniqueName="CashPerMonth" name="CashPerMonth" dataDxfId="47">
+    <tableColumn id="5" xr3:uid="{D73DA5E0-9F7E-4FAD-8051-2F691FC17C5D}" uniqueName="CashPerMonth" name="CashPerMonth" dataDxfId="48">
       <xmlColumnPr mapId="40" xpath="/LargeGreatData/LargeGreats/LargeGreat/CashPerMonth" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DD97F88A-E7E2-4CB6-8D46-4541D1852655}" uniqueName="Description" name="Description" dataDxfId="46">
+    <tableColumn id="7" xr3:uid="{DD97F88A-E7E2-4CB6-8D46-4541D1852655}" uniqueName="Description" name="Description" dataDxfId="47">
       <xmlColumnPr mapId="40" xpath="/LargeGreatData/LargeGreats/LargeGreat/Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{30F5E13A-6148-486B-B762-B57F3470FDAB}" uniqueName="ConnectionPoint" name="ConnectionPoint" dataDxfId="45">
+    <tableColumn id="8" xr3:uid="{30F5E13A-6148-486B-B762-B57F3470FDAB}" uniqueName="ConnectionPoint" name="ConnectionPoint" dataDxfId="46">
       <xmlColumnPr mapId="40" xpath="/LargeGreatData/LargeGreats/LargeGreat/ConnectionPoint" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6C268A9A-7930-40CC-8E7B-2AC463DACAD1}" uniqueName="OtherRequire" name="OtherRequire" dataDxfId="44">
+    <tableColumn id="6" xr3:uid="{6C268A9A-7930-40CC-8E7B-2AC463DACAD1}" uniqueName="OtherRequire" name="OtherRequire" dataDxfId="45">
       <xmlColumnPr mapId="40" xpath="/LargeGreatData/LargeGreats/LargeGreat/OtherRequire" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3615,28 +3693,28 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{01098721-9802-42F8-9529-C303B6430AE2}" name="表格8" displayName="表格8" ref="A2:G64" tableType="xml" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" connectionId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{01098721-9802-42F8-9529-C303B6430AE2}" name="表格8" displayName="表格8" ref="A2:G64" tableType="xml" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" connectionId="26">
   <autoFilter ref="A2:G64" xr:uid="{01098721-9802-42F8-9529-C303B6430AE2}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D6F0BC58-CF5B-4566-9B11-E6453A6E8FE6}" uniqueName="ID" name="ID" dataDxfId="41">
+    <tableColumn id="1" xr3:uid="{D6F0BC58-CF5B-4566-9B11-E6453A6E8FE6}" uniqueName="ID" name="ID" dataDxfId="42">
       <xmlColumnPr mapId="41" xpath="/LittleGreatData/LittleGreats/LittleGreat/ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{52B47B62-CDC2-4B05-A698-BFE19E2B74FC}" uniqueName="TotalCash" name="TotalCash" dataDxfId="40">
+    <tableColumn id="2" xr3:uid="{52B47B62-CDC2-4B05-A698-BFE19E2B74FC}" uniqueName="TotalCash" name="TotalCash" dataDxfId="41">
       <xmlColumnPr mapId="41" xpath="/LittleGreatData/LittleGreats/LittleGreat/TotalCash" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1BBBBF5B-50EC-406F-ABAF-D72807E42359}" uniqueName="ConnectionPoint" name="ConnectionPoint" dataDxfId="39">
+    <tableColumn id="3" xr3:uid="{1BBBBF5B-50EC-406F-ABAF-D72807E42359}" uniqueName="ConnectionPoint" name="ConnectionPoint" dataDxfId="40">
       <xmlColumnPr mapId="41" xpath="/LittleGreatData/LittleGreats/LittleGreat/ConnectionPoint" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{EB2469EE-487C-48ED-8BBB-6F2EFC7EAD54}" uniqueName="TotalTime" name="TotalTime" dataDxfId="38">
+    <tableColumn id="4" xr3:uid="{EB2469EE-487C-48ED-8BBB-6F2EFC7EAD54}" uniqueName="TotalTime" name="TotalTime" dataDxfId="39">
       <xmlColumnPr mapId="41" xpath="/LittleGreatData/LittleGreats/LittleGreat/TotalTime" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A51DB3BC-583A-4FA6-A377-7A11ED185AE0}" uniqueName="Description" name="Description" dataDxfId="37">
+    <tableColumn id="6" xr3:uid="{A51DB3BC-583A-4FA6-A377-7A11ED185AE0}" uniqueName="Description" name="Description" dataDxfId="38">
       <xmlColumnPr mapId="41" xpath="/LittleGreatData/LittleGreats/LittleGreat/Description" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{A37AD388-B666-4BFC-AB78-74EB0050A795}" uniqueName="ContinuedTime" name="ContinuedTime">
       <xmlColumnPr mapId="41" xpath="/LittleGreatData/LittleGreats/LittleGreat/ContinuedTime" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{76222A9E-EDCC-4946-A69A-4CAD6222BB8A}" uniqueName="OtherRequire" name="OtherRequire" dataDxfId="36">
+    <tableColumn id="5" xr3:uid="{76222A9E-EDCC-4946-A69A-4CAD6222BB8A}" uniqueName="OtherRequire" name="OtherRequire" dataDxfId="37">
       <xmlColumnPr mapId="41" xpath="/LittleGreatData/LittleGreats/LittleGreat/OtherRequire" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3645,7 +3723,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FE234666-264F-409A-8A44-E8E0C2C62ED2}" name="表格9" displayName="表格9" ref="A2:E18" tableType="xml" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" connectionId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FE234666-264F-409A-8A44-E8E0C2C62ED2}" name="表格9" displayName="表格9" ref="A2:E18" tableType="xml" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" connectionId="27">
   <autoFilter ref="A2:E18" xr:uid="{FE234666-264F-409A-8A44-E8E0C2C62ED2}">
     <filterColumn colId="4">
       <filters>
@@ -3654,19 +3732,19 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D8597987-CBB0-4023-A70B-9CC4147467D0}" uniqueName="ID" name="ID" dataDxfId="33">
+    <tableColumn id="1" xr3:uid="{D8597987-CBB0-4023-A70B-9CC4147467D0}" uniqueName="ID" name="ID" dataDxfId="34">
       <xmlColumnPr mapId="14" xpath="/LittleLuckData/LittleLuck/ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{FB48B4C8-B260-4DD6-B5CA-720E0872EBE3}" uniqueName="TotalCash" name="TotalCash" dataDxfId="32">
+    <tableColumn id="2" xr3:uid="{FB48B4C8-B260-4DD6-B5CA-720E0872EBE3}" uniqueName="TotalCash" name="TotalCash" dataDxfId="33">
       <xmlColumnPr mapId="14" xpath="/LittleLuckData/LittleLuck/TotalCash" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F8D9E09E-AA6D-4640-9562-6A8395A69B54}" uniqueName="BookNeeds" name="BookNeeds" dataDxfId="31">
+    <tableColumn id="3" xr3:uid="{F8D9E09E-AA6D-4640-9562-6A8395A69B54}" uniqueName="BookNeeds" name="BookNeeds" dataDxfId="32">
       <xmlColumnPr mapId="14" xpath="/LittleLuckData/LittleLuck/BookNeeds" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{02C0CDAE-192D-4CA2-9E0B-F24B04D305F6}" uniqueName="RelationshipPointNeeds" name="RelationshipPointNeeds" dataDxfId="30">
+    <tableColumn id="4" xr3:uid="{02C0CDAE-192D-4CA2-9E0B-F24B04D305F6}" uniqueName="RelationshipPointNeeds" name="RelationshipPointNeeds" dataDxfId="31">
       <xmlColumnPr mapId="14" xpath="/LittleLuckData/LittleLuck/RelationshipPointNeeds" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8E6D30CE-F566-4462-A1A0-4B38E811F710}" uniqueName="OtherRequire" name="OtherRequire" dataDxfId="29">
+    <tableColumn id="5" xr3:uid="{8E6D30CE-F566-4462-A1A0-4B38E811F710}" uniqueName="OtherRequire" name="OtherRequire" dataDxfId="30">
       <xmlColumnPr mapId="14" xpath="/LittleLuckData/LittleLuck/OtherRequire" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3675,47 +3753,56 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{4A1B4344-A6AD-4675-AE5A-79750CCE0C9E}" name="表格19" displayName="表格19" ref="A2:M33" tableType="xml" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" connectionId="15">
-  <autoFilter ref="A2:M33" xr:uid="{4A1B4344-A6AD-4675-AE5A-79750CCE0C9E}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{05240DE6-B2D5-424E-B8E7-91CF6F180FE7}" uniqueName="ID" name="ID" dataDxfId="26">
-      <xmlColumnPr mapId="15" xpath="/WorkDataBase/Work/ID" xmlDataType="string"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{4A1B4344-A6AD-4675-AE5A-79750CCE0C9E}" name="表格19" displayName="表格19" ref="A2:N33" tableType="xml" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" connectionId="16">
+  <autoFilter ref="A2:N33" xr:uid="{4A1B4344-A6AD-4675-AE5A-79750CCE0C9E}">
+    <filterColumn colId="12">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{05240DE6-B2D5-424E-B8E7-91CF6F180FE7}" uniqueName="ID" name="ID" dataDxfId="13">
+      <xmlColumnPr mapId="45" xpath="/WorkDataBase/Works/Work/ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{1C5C3DFC-E4A3-44DC-9013-6AB53FD49AC8}" uniqueName="Name" name="Name" dataDxfId="25">
-      <xmlColumnPr mapId="15" xpath="/WorkDataBase/Work/Name" xmlDataType="string"/>
+    <tableColumn id="2" xr3:uid="{1C5C3DFC-E4A3-44DC-9013-6AB53FD49AC8}" uniqueName="Name" name="Name" dataDxfId="12">
+      <xmlColumnPr mapId="45" xpath="/WorkDataBase/Works/Work/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{78C4F42B-74AE-417E-B663-C9189C1BF2C8}" uniqueName="Post" name="Post" dataDxfId="24">
-      <xmlColumnPr mapId="15" xpath="/WorkDataBase/Work/Post" xmlDataType="string"/>
+    <tableColumn id="3" xr3:uid="{78C4F42B-74AE-417E-B663-C9189C1BF2C8}" uniqueName="Post" name="Post" dataDxfId="11">
+      <xmlColumnPr mapId="45" xpath="/WorkDataBase/Works/Work/Post" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{65040293-4B9A-4A0D-BE16-1B22B3624CE6}" uniqueName="PersonRequire" name="PersonRequire" dataDxfId="23">
-      <xmlColumnPr mapId="15" xpath="/WorkDataBase/Work/PersonRequire" xmlDataType="string"/>
+    <tableColumn id="4" xr3:uid="{65040293-4B9A-4A0D-BE16-1B22B3624CE6}" uniqueName="PersonRequire" name="PersonRequire" dataDxfId="10">
+      <xmlColumnPr mapId="45" xpath="/WorkDataBase/Works/Work/PersonRequire" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B1193EE9-D4C7-47C3-BAA2-D7E95D627F5B}" uniqueName="StartMonth" name="StartMonth" dataDxfId="22">
-      <xmlColumnPr mapId="15" xpath="/WorkDataBase/Work/StartMonth" xmlDataType="string"/>
+    <tableColumn id="5" xr3:uid="{B1193EE9-D4C7-47C3-BAA2-D7E95D627F5B}" uniqueName="StartMonth" name="StartMonth" dataDxfId="9">
+      <xmlColumnPr mapId="45" xpath="/WorkDataBase/Works/Work/StartMonth" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{31DB3E11-1DCB-4784-9602-85AA29DCAFF3}" uniqueName="EndMonth" name="EndMonth" dataDxfId="21">
-      <xmlColumnPr mapId="15" xpath="/WorkDataBase/Work/EndMonth" xmlDataType="string"/>
+    <tableColumn id="6" xr3:uid="{31DB3E11-1DCB-4784-9602-85AA29DCAFF3}" uniqueName="EndMonth" name="EndMonth" dataDxfId="8">
+      <xmlColumnPr mapId="45" xpath="/WorkDataBase/Works/Work/EndMonth" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{CA97C32B-5122-45FE-A661-E8406569B4EE}" uniqueName="HourlySalary" name="HourlySalary" dataDxfId="20">
-      <xmlColumnPr mapId="15" xpath="/WorkDataBase/Work/HourlySalary" xmlDataType="string"/>
+    <tableColumn id="7" xr3:uid="{CA97C32B-5122-45FE-A661-E8406569B4EE}" uniqueName="HourlySalary" name="HourlySalary" dataDxfId="7">
+      <xmlColumnPr mapId="45" xpath="/WorkDataBase/Works/Work/HourlySalary" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{146C5670-0ED4-4EBB-BE52-8192F3F522BE}" uniqueName="MonthlySalary" name="MonthlySalary" dataDxfId="19">
-      <xmlColumnPr mapId="15" xpath="/WorkDataBase/Work/MonthlySalary" xmlDataType="string"/>
+    <tableColumn id="8" xr3:uid="{146C5670-0ED4-4EBB-BE52-8192F3F522BE}" uniqueName="MonthlySalary" name="MonthlySalary" dataDxfId="6">
+      <xmlColumnPr mapId="45" xpath="/WorkDataBase/Works/Work/MonthlySalary" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D9897E5B-3376-44D7-A68F-3A68B76104E9}" uniqueName="AnnualSalary" name="AnnualSalary" dataDxfId="18">
-      <xmlColumnPr mapId="15" xpath="/WorkDataBase/Work/AnnualSalary" xmlDataType="string"/>
+    <tableColumn id="9" xr3:uid="{D9897E5B-3376-44D7-A68F-3A68B76104E9}" uniqueName="AnnualSalary" name="AnnualSalary" dataDxfId="5">
+      <xmlColumnPr mapId="45" xpath="/WorkDataBase/Works/Work/AnnualSalary" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{8FF8F675-CE3C-4EE5-8FDE-B39A06B9BBF2}" uniqueName="WeeklyTime" name="WeeklyTime" dataDxfId="17">
-      <xmlColumnPr mapId="15" xpath="/WorkDataBase/Work/WeeklyTime" xmlDataType="string"/>
+    <tableColumn id="10" xr3:uid="{8FF8F675-CE3C-4EE5-8FDE-B39A06B9BBF2}" uniqueName="WeeklyTime" name="WeeklyTime" dataDxfId="4">
+      <xmlColumnPr mapId="45" xpath="/WorkDataBase/Works/Work/WeeklyTime" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{CB7B846A-AA9A-4E90-9FC9-D6AA4018F4CA}" uniqueName="MonthlyTime" name="MonthlyTime" dataDxfId="16">
-      <xmlColumnPr mapId="15" xpath="/WorkDataBase/Work/MonthlyTime" xmlDataType="string"/>
+    <tableColumn id="11" xr3:uid="{CB7B846A-AA9A-4E90-9FC9-D6AA4018F4CA}" uniqueName="MonthlyTime" name="MonthlyTime" dataDxfId="3">
+      <xmlColumnPr mapId="45" xpath="/WorkDataBase/Works/Work/MonthlyTime" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{969FA5E6-DAEB-4C04-9F8F-2E6F0D75FF9E}" uniqueName="MonthlyRequire" name="MonthlyRequire" dataDxfId="15">
-      <xmlColumnPr mapId="15" xpath="/WorkDataBase/Work/MonthlyRequire" xmlDataType="string"/>
+    <tableColumn id="12" xr3:uid="{969FA5E6-DAEB-4C04-9F8F-2E6F0D75FF9E}" uniqueName="MonthlyRequire" name="MonthlyRequire" dataDxfId="2">
+      <xmlColumnPr mapId="45" xpath="/WorkDataBase/Works/Work/MonthlyRequire" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{E9D82839-CC1B-4D21-B347-AD0C4769B1FF}" uniqueName="OtherRequire" name="OtherRequire" dataDxfId="14">
-      <xmlColumnPr mapId="15" xpath="/WorkDataBase/Work/OtherRequire" xmlDataType="string"/>
+    <tableColumn id="13" xr3:uid="{E9D82839-CC1B-4D21-B347-AD0C4769B1FF}" uniqueName="OtherRequire" name="OtherRequire" dataDxfId="1">
+      <xmlColumnPr mapId="45" xpath="/WorkDataBase/Works/Work/OtherRequire" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{BF843B91-2917-4931-B879-9AA5276123A6}" uniqueName="Description" name="Description" dataDxfId="0">
+      <xmlColumnPr mapId="45" xpath="/WorkDataBase/Works/Work/Description" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3723,46 +3810,46 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB976CD4-8313-483B-9CC7-9B2FD4A7F8B1}" name="表格2" displayName="表格2" ref="A2:L22" tableType="xml" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" connectionId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB976CD4-8313-483B-9CC7-9B2FD4A7F8B1}" name="表格2" displayName="表格2" ref="A2:L22" tableType="xml" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" connectionId="6">
   <autoFilter ref="A2:L22" xr:uid="{CB976CD4-8313-483B-9CC7-9B2FD4A7F8B1}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:R22">
     <sortCondition ref="A3:A22"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{EF9B6792-E319-4F3A-9395-E7F0E21DAC1C}" uniqueName="ID" name="ID" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{EF9B6792-E319-4F3A-9395-E7F0E21DAC1C}" uniqueName="ID" name="ID" dataDxfId="27">
       <xmlColumnPr mapId="32" xpath="/CharactersData/Characters/Character/ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D28A433D-CDA8-4896-A910-094181D5B8E3}" uniqueName="Name" name="Name" dataDxfId="10">
+    <tableColumn id="3" xr3:uid="{D28A433D-CDA8-4896-A910-094181D5B8E3}" uniqueName="Name" name="Name" dataDxfId="26">
       <xmlColumnPr mapId="32" xpath="/CharactersData/Characters/Character/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{6DD8687C-0012-4EBA-87AE-983C9DBC254B}" uniqueName="Birth" name="Birth" dataDxfId="9">
+    <tableColumn id="4" xr3:uid="{6DD8687C-0012-4EBA-87AE-983C9DBC254B}" uniqueName="Birth" name="Birth" dataDxfId="25">
       <xmlColumnPr mapId="32" xpath="/CharactersData/Characters/Character/Birth" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A34F4AC5-2176-4DA6-B292-5412C0D70321}" uniqueName="Relationship" name="Relationship" dataDxfId="8">
+    <tableColumn id="5" xr3:uid="{A34F4AC5-2176-4DA6-B292-5412C0D70321}" uniqueName="Relationship" name="Relationship" dataDxfId="24">
       <xmlColumnPr mapId="32" xpath="/CharactersData/Characters/Character/Relationship" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{2C9ACC86-3D76-451B-8E53-8657D9246CAB}" uniqueName="StarSign" name="StarSign" dataDxfId="7">
+    <tableColumn id="19" xr3:uid="{2C9ACC86-3D76-451B-8E53-8657D9246CAB}" uniqueName="StarSign" name="StarSign" dataDxfId="23">
       <xmlColumnPr mapId="32" xpath="/CharactersData/Characters/Character/StarSign" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{22B6D80F-8DE2-4985-A848-1F621FC49873}" uniqueName="PocketMoney" name="PocketMoney" dataDxfId="6">
+    <tableColumn id="6" xr3:uid="{22B6D80F-8DE2-4985-A848-1F621FC49873}" uniqueName="PocketMoney" name="PocketMoney" dataDxfId="22">
       <xmlColumnPr mapId="32" xpath="/CharactersData/Characters/Character/PocketMoney" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B96ED033-7D98-40A7-92ED-6F7D1E531255}" uniqueName="Salary" name="Salary" dataDxfId="5">
+    <tableColumn id="7" xr3:uid="{B96ED033-7D98-40A7-92ED-6F7D1E531255}" uniqueName="Salary" name="Salary" dataDxfId="21">
       <xmlColumnPr mapId="32" xpath="/CharactersData/Characters/Character/Salary" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{6700D963-D6E0-4E3D-94CA-30E307377171}" uniqueName="LivingExpend" name="LivingExpend" dataDxfId="4">
+    <tableColumn id="8" xr3:uid="{6700D963-D6E0-4E3D-94CA-30E307377171}" uniqueName="LivingExpend" name="LivingExpend" dataDxfId="20">
       <xmlColumnPr mapId="32" xpath="/CharactersData/Characters/Character/LivingExpend" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{68749A43-75A0-4A2D-A05B-3A4BCB1FF32F}" uniqueName="StartJob" name="StartJob" dataDxfId="3">
+    <tableColumn id="9" xr3:uid="{68749A43-75A0-4A2D-A05B-3A4BCB1FF32F}" uniqueName="StartJob" name="StartJob" dataDxfId="19">
       <xmlColumnPr mapId="32" xpath="/CharactersData/Characters/Character/StartJob" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{0735FA9F-637A-4338-B3D7-9DBB5B12DFB9}" uniqueName="AllocateCash" name="AllocateCash" dataDxfId="2">
+    <tableColumn id="10" xr3:uid="{0735FA9F-637A-4338-B3D7-9DBB5B12DFB9}" uniqueName="AllocateCash" name="AllocateCash" dataDxfId="18">
       <xmlColumnPr mapId="32" xpath="/CharactersData/Characters/Character/AllocateCash" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{A5B619AB-1DED-47F6-88C0-315C48128F19}" uniqueName="AllocateTime" name="AllocateTime" dataDxfId="1">
+    <tableColumn id="11" xr3:uid="{A5B619AB-1DED-47F6-88C0-315C48128F19}" uniqueName="AllocateTime" name="AllocateTime" dataDxfId="17">
       <xmlColumnPr mapId="32" xpath="/CharactersData/Characters/Character/AllocateTime" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B6916EF1-599A-4400-BCFF-8D91C80C1BD9}" uniqueName="ConnectionPoint" name="ConnectionPoint" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{B6916EF1-599A-4400-BCFF-8D91C80C1BD9}" uniqueName="ConnectionPoint" name="ConnectionPoint" dataDxfId="16">
       <xmlColumnPr mapId="32" xpath="/CharactersData/Characters/Character/ConnectionPoint" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -4072,11 +4159,11 @@
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -4084,8 +4171,8 @@
     <col min="1" max="1" width="8.44140625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="241.88671875" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="57.77734375" style="23" customWidth="1"/>
     <col min="6" max="6" width="18.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4142,7 +4229,7 @@
       <c r="D3" s="5">
         <v>0</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>406</v>
       </c>
       <c r="F3" s="5">
@@ -4162,7 +4249,7 @@
       <c r="D4" s="5">
         <v>1</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>407</v>
       </c>
       <c r="F4" s="5">
@@ -4182,14 +4269,14 @@
       <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>408</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" hidden="1">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -4202,7 +4289,7 @@
       <c r="D6" s="5">
         <v>0</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>409</v>
       </c>
       <c r="F6" s="5">
@@ -4212,7 +4299,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" hidden="1">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -4225,7 +4312,7 @@
       <c r="D7" s="5">
         <v>0</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>410</v>
       </c>
       <c r="F7" s="5">
@@ -4248,14 +4335,14 @@
       <c r="D8" s="5">
         <v>2</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="21" t="s">
         <v>411</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" hidden="1">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -4268,7 +4355,7 @@
       <c r="D9" s="5">
         <v>0</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>405</v>
       </c>
       <c r="F9" s="5">
@@ -4291,7 +4378,7 @@
       <c r="D10" s="5">
         <v>2</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>412</v>
       </c>
       <c r="F10" s="5">
@@ -4311,7 +4398,7 @@
       <c r="D11" s="5">
         <v>0</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="21" t="s">
         <v>413</v>
       </c>
       <c r="F11" s="5">
@@ -4331,7 +4418,7 @@
       <c r="D12" s="5">
         <v>0</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="21" t="s">
         <v>414</v>
       </c>
       <c r="F12" s="5">
@@ -4351,14 +4438,14 @@
       <c r="D13" s="5">
         <v>0</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="21" t="s">
         <v>415</v>
       </c>
       <c r="F13" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" hidden="1">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -4371,7 +4458,7 @@
       <c r="D14" s="5">
         <v>0</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="21" t="s">
         <v>419</v>
       </c>
       <c r="F14" s="5">
@@ -4381,7 +4468,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" hidden="1">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -4394,7 +4481,7 @@
       <c r="D15" s="5">
         <v>0</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="21" t="s">
         <v>416</v>
       </c>
       <c r="F15" s="5">
@@ -4417,14 +4504,14 @@
       <c r="D16" s="5">
         <v>1</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="21" t="s">
         <v>417</v>
       </c>
       <c r="F16" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="64.8">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -4437,7 +4524,7 @@
       <c r="D17" s="5">
         <v>1</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="25" t="s">
         <v>418</v>
       </c>
       <c r="F17" s="5">
@@ -4462,11 +4549,11 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -4560,7 +4647,7 @@
       <c r="F3" s="15">
         <v>0</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="24" t="s">
         <v>445</v>
       </c>
       <c r="H3" s="15">
@@ -4589,7 +4676,7 @@
       <c r="F4" s="15">
         <v>3000</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="24" t="s">
         <v>446</v>
       </c>
       <c r="H4" s="15">
@@ -4618,7 +4705,7 @@
       <c r="F5" s="15">
         <v>2900</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="24" t="s">
         <v>447</v>
       </c>
       <c r="H5" s="15">
@@ -4647,7 +4734,7 @@
       <c r="F6" s="15">
         <v>2500</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="24" t="s">
         <v>448</v>
       </c>
       <c r="H6" s="15">
@@ -4676,7 +4763,7 @@
       <c r="F7" s="15">
         <v>0</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="24" t="s">
         <v>449</v>
       </c>
       <c r="H7" s="15">
@@ -4705,7 +4792,7 @@
       <c r="F8" s="15">
         <v>2800</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="24" t="s">
         <v>450</v>
       </c>
       <c r="H8" s="15">
@@ -4734,7 +4821,7 @@
       <c r="F9" s="15">
         <v>0</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="24" t="s">
         <v>451</v>
       </c>
       <c r="H9" s="15">
@@ -4763,7 +4850,7 @@
       <c r="F10" s="15">
         <v>0</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="24" t="s">
         <v>452</v>
       </c>
       <c r="H10" s="15">
@@ -4792,7 +4879,7 @@
       <c r="F11" s="15">
         <v>2970</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="24" t="s">
         <v>453</v>
       </c>
       <c r="H11" s="15">
@@ -4821,7 +4908,7 @@
       <c r="F12" s="15">
         <v>0</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="24" t="s">
         <v>454</v>
       </c>
       <c r="H12" s="15">
@@ -4831,35 +4918,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="29" customFormat="1">
-      <c r="A13" s="27">
+    <row r="13" spans="1:10" s="28" customFormat="1">
+      <c r="A13" s="26">
         <v>11</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="26" t="s">
         <v>438</v>
       </c>
-      <c r="C13" s="27">
-        <v>0</v>
-      </c>
-      <c r="D13" s="27">
-        <v>0</v>
-      </c>
-      <c r="E13" s="27">
-        <v>0</v>
-      </c>
-      <c r="F13" s="27">
-        <v>0</v>
-      </c>
-      <c r="G13" s="28" t="s">
+      <c r="C13" s="26">
+        <v>0</v>
+      </c>
+      <c r="D13" s="26">
+        <v>0</v>
+      </c>
+      <c r="E13" s="26">
+        <v>0</v>
+      </c>
+      <c r="F13" s="26">
+        <v>0</v>
+      </c>
+      <c r="G13" s="27" t="s">
         <v>455</v>
       </c>
-      <c r="H13" s="27">
-        <v>0</v>
-      </c>
-      <c r="I13" s="27">
-        <v>1</v>
-      </c>
-      <c r="J13" s="29" t="s">
+      <c r="H13" s="26">
+        <v>0</v>
+      </c>
+      <c r="I13" s="26">
+        <v>1</v>
+      </c>
+      <c r="J13" s="28" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4882,7 +4969,7 @@
       <c r="F14" s="15">
         <v>3600</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="24" t="s">
         <v>456</v>
       </c>
       <c r="H14" s="15">
@@ -4911,7 +4998,7 @@
       <c r="F15" s="15">
         <v>3300</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="24" t="s">
         <v>457</v>
       </c>
       <c r="H15" s="15">
@@ -4940,7 +5027,7 @@
       <c r="F16" s="15">
         <v>0</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="24" t="s">
         <v>458</v>
       </c>
       <c r="H16" s="15">
@@ -4969,7 +5056,7 @@
       <c r="F17" s="15">
         <v>3300</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="24" t="s">
         <v>459</v>
       </c>
       <c r="H17" s="15">
@@ -4979,35 +5066,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="29" customFormat="1">
-      <c r="A18" s="27">
+    <row r="18" spans="1:10" s="28" customFormat="1">
+      <c r="A18" s="26">
         <v>16</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="26" t="s">
         <v>443</v>
       </c>
-      <c r="C18" s="27">
-        <v>0</v>
-      </c>
-      <c r="D18" s="27" t="s">
+      <c r="C18" s="26">
+        <v>0</v>
+      </c>
+      <c r="D18" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="E18" s="27">
-        <v>0</v>
-      </c>
-      <c r="F18" s="27">
+      <c r="E18" s="26">
+        <v>0</v>
+      </c>
+      <c r="F18" s="26">
         <v>1680</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="27" t="s">
         <v>460</v>
       </c>
-      <c r="H18" s="27">
-        <v>0</v>
-      </c>
-      <c r="I18" s="27">
-        <v>1</v>
-      </c>
-      <c r="J18" s="29" t="s">
+      <c r="H18" s="26">
+        <v>0</v>
+      </c>
+      <c r="I18" s="26">
+        <v>1</v>
+      </c>
+      <c r="J18" s="28" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5030,7 +5117,7 @@
       <c r="F19" s="15">
         <v>3000</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="24" t="s">
         <v>461</v>
       </c>
       <c r="H19" s="15">
@@ -5041,16 +5128,16 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="H20" s="19"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="H21" s="19"/>
+      <c r="H21" s="18"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="H22" s="19"/>
+      <c r="H22" s="18"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="H23" s="19"/>
+      <c r="H23" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5148,10 +5235,10 @@
       <c r="D3" s="9">
         <v>0</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="24">
         <v>0</v>
       </c>
       <c r="G3" s="9">
@@ -5171,10 +5258,10 @@
       <c r="D4" s="9">
         <v>8</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="24">
         <v>0</v>
       </c>
       <c r="G4" s="9">
@@ -5194,10 +5281,10 @@
       <c r="D5" s="9">
         <v>0</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="24">
         <v>0</v>
       </c>
       <c r="G5" s="9">
@@ -5217,10 +5304,10 @@
       <c r="D6" s="9">
         <v>0</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="24">
         <v>0</v>
       </c>
       <c r="G6" s="9">
@@ -5240,10 +5327,10 @@
       <c r="D7" s="9">
         <v>16</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="24">
         <v>0</v>
       </c>
       <c r="G7" s="9">
@@ -5263,10 +5350,10 @@
       <c r="D8" s="9">
         <v>0</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="24">
         <v>0</v>
       </c>
       <c r="G8" s="9">
@@ -5286,39 +5373,39 @@
       <c r="D9" s="9">
         <v>0</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="24">
         <v>0</v>
       </c>
       <c r="G9" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="29" customFormat="1">
-      <c r="A10" s="27">
+    <row r="10" spans="1:8" s="28" customFormat="1">
+      <c r="A10" s="26">
         <v>8</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="26">
         <v>2200</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="26">
         <v>7</v>
       </c>
-      <c r="D10" s="27">
-        <v>0</v>
-      </c>
-      <c r="E10" s="28" t="s">
+      <c r="D10" s="26">
+        <v>0</v>
+      </c>
+      <c r="E10" s="27" t="s">
         <v>426</v>
       </c>
-      <c r="F10" s="28">
-        <v>0</v>
-      </c>
-      <c r="G10" s="27">
-        <v>1</v>
-      </c>
-      <c r="H10" s="29" t="s">
+      <c r="F10" s="27">
+        <v>0</v>
+      </c>
+      <c r="G10" s="26">
+        <v>1</v>
+      </c>
+      <c r="H10" s="28" t="s">
         <v>156</v>
       </c>
     </row>
@@ -5335,10 +5422,10 @@
       <c r="D11" s="9">
         <v>0</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="24">
         <v>0</v>
       </c>
       <c r="G11" s="9">
@@ -5358,10 +5445,10 @@
       <c r="D12" s="9">
         <v>0</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="24">
         <v>0</v>
       </c>
       <c r="G12" s="9">
@@ -5381,10 +5468,10 @@
       <c r="D13" s="9">
         <v>0</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="24">
         <v>0</v>
       </c>
       <c r="G13" s="9">
@@ -5404,10 +5491,10 @@
       <c r="D14" s="9">
         <v>0</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="24">
         <v>0</v>
       </c>
       <c r="G14" s="9">
@@ -5427,10 +5514,10 @@
       <c r="D15" s="9">
         <v>0</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="24">
         <v>0</v>
       </c>
       <c r="G15" s="9">
@@ -5450,10 +5537,10 @@
       <c r="D16" s="9">
         <v>0</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="24">
         <v>0</v>
       </c>
       <c r="G16" s="9">
@@ -5473,10 +5560,10 @@
       <c r="D17" s="9">
         <v>0</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="24">
         <v>0</v>
       </c>
       <c r="G17" s="9">
@@ -5496,10 +5583,10 @@
       <c r="D18" s="9">
         <v>5</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="24">
         <v>0</v>
       </c>
       <c r="G18" s="9">
@@ -5519,10 +5606,10 @@
       <c r="D19" s="9">
         <v>0</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="24">
         <v>0</v>
       </c>
       <c r="G19" s="9">
@@ -5542,10 +5629,10 @@
       <c r="D20" s="9">
         <v>0</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="24">
         <v>0</v>
       </c>
       <c r="G20" s="9">
@@ -5565,10 +5652,10 @@
       <c r="D21" s="9">
         <v>0</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="24">
         <v>0</v>
       </c>
       <c r="G21" s="9">
@@ -5588,39 +5675,39 @@
       <c r="D22" s="9">
         <v>6</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="24">
         <v>0</v>
       </c>
       <c r="G22" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="29" customFormat="1">
-      <c r="A23" s="27">
+    <row r="23" spans="1:8" s="28" customFormat="1">
+      <c r="A23" s="26">
         <v>21</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="26">
         <v>1800</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="26">
         <v>2</v>
       </c>
-      <c r="D23" s="27">
-        <v>0</v>
-      </c>
-      <c r="E23" s="28" t="s">
+      <c r="D23" s="26">
+        <v>0</v>
+      </c>
+      <c r="E23" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="F23" s="28">
-        <v>0</v>
-      </c>
-      <c r="G23" s="27">
-        <v>1</v>
-      </c>
-      <c r="H23" s="29" t="s">
+      <c r="F23" s="27">
+        <v>0</v>
+      </c>
+      <c r="G23" s="26">
+        <v>1</v>
+      </c>
+      <c r="H23" s="28" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5637,10 +5724,10 @@
       <c r="D24" s="9">
         <v>4</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="24">
         <v>0</v>
       </c>
       <c r="G24" s="9">
@@ -5660,10 +5747,10 @@
       <c r="D25" s="9">
         <v>40</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="24">
         <v>0</v>
       </c>
       <c r="G25" s="9">
@@ -5683,10 +5770,10 @@
       <c r="D26" s="9">
         <v>0</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="24" t="s">
         <v>427</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="24">
         <v>1</v>
       </c>
       <c r="G26" s="9">
@@ -5706,10 +5793,10 @@
       <c r="D27" s="9">
         <v>0</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="24">
         <v>0</v>
       </c>
       <c r="G27" s="9">
@@ -5729,10 +5816,10 @@
       <c r="D28" s="9">
         <v>0</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="24">
         <v>0</v>
       </c>
       <c r="G28" s="9">
@@ -5752,10 +5839,10 @@
       <c r="D29" s="9">
         <v>5</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="24">
         <v>0</v>
       </c>
       <c r="G29" s="9">
@@ -5775,10 +5862,10 @@
       <c r="D30" s="9">
         <v>0</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="24">
         <v>0</v>
       </c>
       <c r="G30" s="9">
@@ -5798,10 +5885,10 @@
       <c r="D31" s="9">
         <v>0</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="F31" s="25">
+      <c r="F31" s="24">
         <v>0</v>
       </c>
       <c r="G31" s="9">
@@ -5821,10 +5908,10 @@
       <c r="D32" s="9">
         <v>0</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="F32" s="25">
+      <c r="F32" s="24">
         <v>0</v>
       </c>
       <c r="G32" s="9">
@@ -5844,10 +5931,10 @@
       <c r="D33" s="9">
         <v>0</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="F33" s="25">
+      <c r="F33" s="24">
         <v>0</v>
       </c>
       <c r="G33" s="9">
@@ -5867,65 +5954,65 @@
       <c r="D34" s="9">
         <v>0</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="F34" s="25">
+      <c r="F34" s="24">
         <v>0</v>
       </c>
       <c r="G34" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="29" customFormat="1">
-      <c r="A35" s="27">
+    <row r="35" spans="1:8" s="28" customFormat="1">
+      <c r="A35" s="26">
         <v>33</v>
       </c>
-      <c r="B35" s="27">
-        <v>0</v>
-      </c>
-      <c r="C35" s="27">
+      <c r="B35" s="26">
+        <v>0</v>
+      </c>
+      <c r="C35" s="26">
         <v>3</v>
       </c>
-      <c r="D35" s="27">
-        <v>0</v>
-      </c>
-      <c r="E35" s="28" t="s">
+      <c r="D35" s="26">
+        <v>0</v>
+      </c>
+      <c r="E35" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="F35" s="28">
-        <v>0</v>
-      </c>
-      <c r="G35" s="27">
-        <v>1</v>
-      </c>
-      <c r="H35" s="29" t="s">
+      <c r="F35" s="27">
+        <v>0</v>
+      </c>
+      <c r="G35" s="26">
+        <v>1</v>
+      </c>
+      <c r="H35" s="28" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="29" customFormat="1">
-      <c r="A36" s="27">
+    <row r="36" spans="1:8" s="28" customFormat="1">
+      <c r="A36" s="26">
         <v>34</v>
       </c>
-      <c r="B36" s="27">
+      <c r="B36" s="26">
         <v>400</v>
       </c>
-      <c r="C36" s="27">
+      <c r="C36" s="26">
         <v>2</v>
       </c>
-      <c r="D36" s="27">
-        <v>0</v>
-      </c>
-      <c r="E36" s="28" t="s">
+      <c r="D36" s="26">
+        <v>0</v>
+      </c>
+      <c r="E36" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="F36" s="28">
-        <v>0</v>
-      </c>
-      <c r="G36" s="27">
-        <v>1</v>
-      </c>
-      <c r="H36" s="29" t="s">
+      <c r="F36" s="27">
+        <v>0</v>
+      </c>
+      <c r="G36" s="26">
+        <v>1</v>
+      </c>
+      <c r="H36" s="28" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5942,10 +6029,10 @@
       <c r="D37" s="9">
         <v>0</v>
       </c>
-      <c r="E37" s="25" t="s">
+      <c r="E37" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="F37" s="25">
+      <c r="F37" s="24">
         <v>0</v>
       </c>
       <c r="G37" s="9">
@@ -5965,10 +6052,10 @@
       <c r="D38" s="9">
         <v>0</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E38" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="F38" s="25">
+      <c r="F38" s="24">
         <v>0</v>
       </c>
       <c r="G38" s="9">
@@ -5988,10 +6075,10 @@
       <c r="D39" s="9">
         <v>0</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="E39" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="F39" s="25">
+      <c r="F39" s="24">
         <v>0</v>
       </c>
       <c r="G39" s="9">
@@ -6011,10 +6098,10 @@
       <c r="D40" s="9">
         <v>0</v>
       </c>
-      <c r="E40" s="25" t="s">
+      <c r="E40" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="F40" s="25">
+      <c r="F40" s="24">
         <v>0</v>
       </c>
       <c r="G40" s="9">
@@ -6034,10 +6121,10 @@
       <c r="D41" s="9">
         <v>0</v>
       </c>
-      <c r="E41" s="25" t="s">
+      <c r="E41" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="F41" s="25">
+      <c r="F41" s="24">
         <v>0</v>
       </c>
       <c r="G41" s="9">
@@ -6057,10 +6144,10 @@
       <c r="D42" s="9">
         <v>0</v>
       </c>
-      <c r="E42" s="25" t="s">
+      <c r="E42" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="F42" s="25">
+      <c r="F42" s="24">
         <v>0</v>
       </c>
       <c r="G42" s="9">
@@ -6080,10 +6167,10 @@
       <c r="D43" s="9">
         <v>0</v>
       </c>
-      <c r="E43" s="25" t="s">
+      <c r="E43" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="F43" s="25">
+      <c r="F43" s="24">
         <v>0</v>
       </c>
       <c r="G43" s="9">
@@ -6103,10 +6190,10 @@
       <c r="D44" s="9">
         <v>0</v>
       </c>
-      <c r="E44" s="25" t="s">
+      <c r="E44" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="F44" s="25">
+      <c r="F44" s="24">
         <v>0</v>
       </c>
       <c r="G44" s="9">
@@ -6126,10 +6213,10 @@
       <c r="D45" s="9">
         <v>0</v>
       </c>
-      <c r="E45" s="25" t="s">
+      <c r="E45" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="F45" s="25">
+      <c r="F45" s="24">
         <v>0</v>
       </c>
       <c r="G45" s="9">
@@ -6149,10 +6236,10 @@
       <c r="D46" s="9">
         <v>0</v>
       </c>
-      <c r="E46" s="25" t="s">
+      <c r="E46" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="F46" s="25">
+      <c r="F46" s="24">
         <v>0</v>
       </c>
       <c r="G46" s="9">
@@ -6172,10 +6259,10 @@
       <c r="D47" s="9">
         <v>0</v>
       </c>
-      <c r="E47" s="25" t="s">
+      <c r="E47" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="F47" s="25">
+      <c r="F47" s="24">
         <v>0</v>
       </c>
       <c r="G47" s="9">
@@ -6195,10 +6282,10 @@
       <c r="D48" s="9">
         <v>0</v>
       </c>
-      <c r="E48" s="25" t="s">
+      <c r="E48" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="F48" s="25">
+      <c r="F48" s="24">
         <v>0</v>
       </c>
       <c r="G48" s="9">
@@ -6218,10 +6305,10 @@
       <c r="D49" s="9">
         <v>0</v>
       </c>
-      <c r="E49" s="25" t="s">
+      <c r="E49" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="F49" s="25">
+      <c r="F49" s="24">
         <v>0</v>
       </c>
       <c r="G49" s="9">
@@ -6241,10 +6328,10 @@
       <c r="D50" s="9">
         <v>0</v>
       </c>
-      <c r="E50" s="25" t="s">
+      <c r="E50" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="F50" s="25">
+      <c r="F50" s="24">
         <v>0</v>
       </c>
       <c r="G50" s="9">
@@ -6264,10 +6351,10 @@
       <c r="D51" s="9">
         <v>0</v>
       </c>
-      <c r="E51" s="25" t="s">
+      <c r="E51" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="F51" s="25">
+      <c r="F51" s="24">
         <v>0</v>
       </c>
       <c r="G51" s="9">
@@ -6287,10 +6374,10 @@
       <c r="D52" s="9">
         <v>0</v>
       </c>
-      <c r="E52" s="25" t="s">
+      <c r="E52" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="F52" s="25">
+      <c r="F52" s="24">
         <v>0</v>
       </c>
       <c r="G52" s="9">
@@ -6310,10 +6397,10 @@
       <c r="D53" s="9">
         <v>0</v>
       </c>
-      <c r="E53" s="25" t="s">
+      <c r="E53" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="F53" s="25">
+      <c r="F53" s="24">
         <v>0</v>
       </c>
       <c r="G53" s="9">
@@ -6333,10 +6420,10 @@
       <c r="D54" s="9">
         <v>0</v>
       </c>
-      <c r="E54" s="25" t="s">
+      <c r="E54" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="F54" s="25">
+      <c r="F54" s="24">
         <v>0</v>
       </c>
       <c r="G54" s="9">
@@ -6356,10 +6443,10 @@
       <c r="D55" s="9">
         <v>0</v>
       </c>
-      <c r="E55" s="25" t="s">
+      <c r="E55" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="F55" s="25">
+      <c r="F55" s="24">
         <v>0</v>
       </c>
       <c r="G55" s="9">
@@ -6379,10 +6466,10 @@
       <c r="D56" s="9">
         <v>5</v>
       </c>
-      <c r="E56" s="25" t="s">
+      <c r="E56" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="F56" s="25">
+      <c r="F56" s="24">
         <v>0</v>
       </c>
       <c r="G56" s="9">
@@ -6402,10 +6489,10 @@
       <c r="D57" s="9">
         <v>8</v>
       </c>
-      <c r="E57" s="25" t="s">
+      <c r="E57" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="F57" s="25">
+      <c r="F57" s="24">
         <v>0</v>
       </c>
       <c r="G57" s="9">
@@ -6425,10 +6512,10 @@
       <c r="D58" s="9">
         <v>5</v>
       </c>
-      <c r="E58" s="25" t="s">
+      <c r="E58" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="F58" s="25">
+      <c r="F58" s="24">
         <v>0</v>
       </c>
       <c r="G58" s="9">
@@ -6448,10 +6535,10 @@
       <c r="D59" s="9">
         <v>0</v>
       </c>
-      <c r="E59" s="25" t="s">
+      <c r="E59" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="F59" s="25">
+      <c r="F59" s="24">
         <v>0</v>
       </c>
       <c r="G59" s="9">
@@ -6471,10 +6558,10 @@
       <c r="D60" s="9">
         <v>8</v>
       </c>
-      <c r="E60" s="25" t="s">
+      <c r="E60" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="F60" s="25">
+      <c r="F60" s="24">
         <v>0</v>
       </c>
       <c r="G60" s="9">
@@ -6494,10 +6581,10 @@
       <c r="D61" s="9">
         <v>0</v>
       </c>
-      <c r="E61" s="25" t="s">
+      <c r="E61" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="F61" s="25">
+      <c r="F61" s="24">
         <v>0</v>
       </c>
       <c r="G61" s="9">
@@ -6517,10 +6604,10 @@
       <c r="D62" s="9">
         <v>0</v>
       </c>
-      <c r="E62" s="25" t="s">
+      <c r="E62" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="F62" s="25">
+      <c r="F62" s="24">
         <v>0</v>
       </c>
       <c r="G62" s="9">
@@ -6540,10 +6627,10 @@
       <c r="D63" s="9">
         <v>0</v>
       </c>
-      <c r="E63" s="25" t="s">
+      <c r="E63" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="F63" s="25">
+      <c r="F63" s="24">
         <v>0</v>
       </c>
       <c r="G63" s="9">
@@ -6563,10 +6650,10 @@
       <c r="D64" s="9">
         <v>0</v>
       </c>
-      <c r="E64" s="25" t="s">
+      <c r="E64" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="F64" s="25">
+      <c r="F64" s="24">
         <v>0</v>
       </c>
       <c r="G64" s="9">
@@ -6645,49 +6732,49 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="29" customFormat="1">
-      <c r="A3" s="27">
-        <v>1</v>
-      </c>
-      <c r="B3" s="27">
+    <row r="3" spans="1:7" s="28" customFormat="1">
+      <c r="A3" s="26">
+        <v>1</v>
+      </c>
+      <c r="B3" s="26">
         <v>5000</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="26">
         <v>5</v>
       </c>
-      <c r="D3" s="27">
-        <v>0</v>
-      </c>
-      <c r="E3" s="27">
-        <v>1</v>
-      </c>
-      <c r="F3" s="31" t="s">
+      <c r="D3" s="26">
+        <v>0</v>
+      </c>
+      <c r="E3" s="26">
+        <v>1</v>
+      </c>
+      <c r="F3" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="28" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="29" customFormat="1">
-      <c r="A4" s="27">
+    <row r="4" spans="1:7" s="28" customFormat="1">
+      <c r="A4" s="26">
         <v>2</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="26">
         <v>1000</v>
       </c>
-      <c r="C4" s="27">
-        <v>0</v>
-      </c>
-      <c r="D4" s="27">
-        <v>0</v>
-      </c>
-      <c r="E4" s="27">
-        <v>1</v>
-      </c>
-      <c r="F4" s="31" t="s">
+      <c r="C4" s="26">
+        <v>0</v>
+      </c>
+      <c r="D4" s="26">
+        <v>0</v>
+      </c>
+      <c r="E4" s="26">
+        <v>1</v>
+      </c>
+      <c r="F4" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="28" t="s">
         <v>233</v>
       </c>
     </row>
@@ -6712,49 +6799,49 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="29" customFormat="1">
-      <c r="A6" s="27">
+    <row r="6" spans="1:7" s="28" customFormat="1">
+      <c r="A6" s="26">
         <v>4</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="26">
         <v>2500</v>
       </c>
-      <c r="C6" s="27">
-        <v>0</v>
-      </c>
-      <c r="D6" s="27">
-        <v>0</v>
-      </c>
-      <c r="E6" s="27">
-        <v>1</v>
-      </c>
-      <c r="F6" s="31" t="s">
+      <c r="C6" s="26">
+        <v>0</v>
+      </c>
+      <c r="D6" s="26">
+        <v>0</v>
+      </c>
+      <c r="E6" s="26">
+        <v>1</v>
+      </c>
+      <c r="F6" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="28" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="29" customFormat="1" ht="48.6">
-      <c r="A7" s="27">
+    <row r="7" spans="1:7" s="28" customFormat="1" ht="48.6">
+      <c r="A7" s="26">
         <v>5</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="26">
         <v>2000</v>
       </c>
-      <c r="C7" s="27">
-        <v>0</v>
-      </c>
-      <c r="D7" s="27">
-        <v>0</v>
-      </c>
-      <c r="E7" s="27">
-        <v>1</v>
-      </c>
-      <c r="F7" s="31" t="s">
+      <c r="C7" s="26">
+        <v>0</v>
+      </c>
+      <c r="D7" s="26">
+        <v>0</v>
+      </c>
+      <c r="E7" s="26">
+        <v>1</v>
+      </c>
+      <c r="F7" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="28" t="s">
         <v>236</v>
       </c>
     </row>
@@ -6779,26 +6866,26 @@
         <v>237</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="29" customFormat="1" ht="32.4">
-      <c r="A9" s="27">
+    <row r="9" spans="1:7" s="28" customFormat="1" ht="32.4">
+      <c r="A9" s="26">
         <v>7</v>
       </c>
-      <c r="B9" s="27">
-        <v>0</v>
-      </c>
-      <c r="C9" s="27">
-        <v>0</v>
-      </c>
-      <c r="D9" s="27">
-        <v>0</v>
-      </c>
-      <c r="E9" s="27">
-        <v>1</v>
-      </c>
-      <c r="F9" s="31" t="s">
+      <c r="B9" s="26">
+        <v>0</v>
+      </c>
+      <c r="C9" s="26">
+        <v>0</v>
+      </c>
+      <c r="D9" s="26">
+        <v>0</v>
+      </c>
+      <c r="E9" s="26">
+        <v>1</v>
+      </c>
+      <c r="F9" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="28" t="s">
         <v>238</v>
       </c>
     </row>
@@ -6823,26 +6910,26 @@
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="29" customFormat="1">
-      <c r="A11" s="27">
+    <row r="11" spans="1:7" s="28" customFormat="1">
+      <c r="A11" s="26">
         <v>9</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="26">
         <v>5000</v>
       </c>
-      <c r="C11" s="27">
-        <v>0</v>
-      </c>
-      <c r="D11" s="27">
-        <v>0</v>
-      </c>
-      <c r="E11" s="27">
-        <v>1</v>
-      </c>
-      <c r="F11" s="31" t="s">
+      <c r="C11" s="26">
+        <v>0</v>
+      </c>
+      <c r="D11" s="26">
+        <v>0</v>
+      </c>
+      <c r="E11" s="26">
+        <v>1</v>
+      </c>
+      <c r="F11" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="28" t="s">
         <v>240</v>
       </c>
     </row>
@@ -6888,118 +6975,118 @@
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="29" customFormat="1">
-      <c r="A14" s="27">
+    <row r="14" spans="1:7" s="28" customFormat="1">
+      <c r="A14" s="26">
         <v>12</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="26">
         <v>2000</v>
       </c>
-      <c r="C14" s="27">
-        <v>0</v>
-      </c>
-      <c r="D14" s="27">
+      <c r="C14" s="26">
+        <v>0</v>
+      </c>
+      <c r="D14" s="26">
         <v>50</v>
       </c>
-      <c r="E14" s="27">
-        <v>1</v>
-      </c>
-      <c r="F14" s="31" t="s">
+      <c r="E14" s="26">
+        <v>1</v>
+      </c>
+      <c r="F14" s="29" t="s">
         <v>423</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="28" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="29" customFormat="1">
-      <c r="A15" s="27">
+    <row r="15" spans="1:7" s="28" customFormat="1">
+      <c r="A15" s="26">
         <v>13</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="26">
         <v>9000</v>
       </c>
-      <c r="C15" s="27">
-        <v>0</v>
-      </c>
-      <c r="D15" s="27">
-        <v>0</v>
-      </c>
-      <c r="E15" s="27">
-        <v>1</v>
-      </c>
-      <c r="F15" s="31" t="s">
+      <c r="C15" s="26">
+        <v>0</v>
+      </c>
+      <c r="D15" s="26">
+        <v>0</v>
+      </c>
+      <c r="E15" s="26">
+        <v>1</v>
+      </c>
+      <c r="F15" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="28" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="29" customFormat="1" ht="32.4">
-      <c r="A16" s="27">
+    <row r="16" spans="1:7" s="28" customFormat="1" ht="32.4">
+      <c r="A16" s="26">
         <v>14</v>
       </c>
-      <c r="B16" s="27">
-        <v>0</v>
-      </c>
-      <c r="C16" s="27">
-        <v>0</v>
-      </c>
-      <c r="D16" s="27">
-        <v>0</v>
-      </c>
-      <c r="E16" s="27">
-        <v>1</v>
-      </c>
-      <c r="F16" s="31" t="s">
+      <c r="B16" s="26">
+        <v>0</v>
+      </c>
+      <c r="C16" s="26">
+        <v>0</v>
+      </c>
+      <c r="D16" s="26">
+        <v>0</v>
+      </c>
+      <c r="E16" s="26">
+        <v>1</v>
+      </c>
+      <c r="F16" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="28" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="29" customFormat="1" ht="48.6">
-      <c r="A17" s="27">
+    <row r="17" spans="1:7" s="28" customFormat="1" ht="48.6">
+      <c r="A17" s="26">
         <v>15</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="26">
         <v>1500</v>
       </c>
-      <c r="C17" s="27">
-        <v>0</v>
-      </c>
-      <c r="D17" s="27">
-        <v>0</v>
-      </c>
-      <c r="E17" s="27">
-        <v>1</v>
-      </c>
-      <c r="F17" s="31" t="s">
+      <c r="C17" s="26">
+        <v>0</v>
+      </c>
+      <c r="D17" s="26">
+        <v>0</v>
+      </c>
+      <c r="E17" s="26">
+        <v>1</v>
+      </c>
+      <c r="F17" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="28" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="29" customFormat="1">
-      <c r="A18" s="27">
+    <row r="18" spans="1:7" s="28" customFormat="1">
+      <c r="A18" s="26">
         <v>16</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="26">
         <v>2000</v>
       </c>
-      <c r="C18" s="27">
-        <v>0</v>
-      </c>
-      <c r="D18" s="27">
+      <c r="C18" s="26">
+        <v>0</v>
+      </c>
+      <c r="D18" s="26">
         <v>50</v>
       </c>
-      <c r="E18" s="27">
-        <v>1</v>
-      </c>
-      <c r="F18" s="31" t="s">
+      <c r="E18" s="26">
+        <v>1</v>
+      </c>
+      <c r="F18" s="29" t="s">
         <v>424</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="28" t="s">
         <v>247</v>
       </c>
     </row>
@@ -7024,13 +7111,13 @@
   <sheetPr codeName="工作表1">
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -7038,20 +7125,21 @@
     <col min="1" max="1" width="5.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="57.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.77734375" customWidth="1"/>
+    <col min="15" max="15" width="57.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1">
+    <row r="1" spans="1:15" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7091,8 +7179,11 @@
       <c r="M1" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" s="2" customFormat="1">
+      <c r="N1" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="2" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -7132,8 +7223,11 @@
       <c r="M2" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="N2" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" hidden="1">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -7143,7 +7237,7 @@
       <c r="C3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="9">
         <v>0</v>
       </c>
       <c r="E3" s="9">
@@ -7173,8 +7267,11 @@
       <c r="M3" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="N3" s="9" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" hidden="1">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -7184,7 +7281,7 @@
       <c r="C4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="9">
         <v>0</v>
       </c>
       <c r="E4" s="9">
@@ -7214,96 +7311,105 @@
       <c r="M4" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" s="29" customFormat="1">
-      <c r="A5" s="28">
+      <c r="N4" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="28" customFormat="1">
+      <c r="A5" s="27">
         <v>3</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="30">
-        <v>0</v>
-      </c>
-      <c r="E5" s="27">
-        <v>0</v>
-      </c>
-      <c r="F5" s="27">
-        <v>0</v>
-      </c>
-      <c r="G5" s="27">
-        <v>1</v>
-      </c>
-      <c r="H5" s="27">
-        <v>0</v>
-      </c>
-      <c r="I5" s="27">
-        <v>0</v>
-      </c>
-      <c r="J5" s="27">
+      <c r="D5" s="26">
+        <v>0</v>
+      </c>
+      <c r="E5" s="26">
+        <v>0</v>
+      </c>
+      <c r="F5" s="26">
+        <v>0</v>
+      </c>
+      <c r="G5" s="26">
+        <v>1</v>
+      </c>
+      <c r="H5" s="26">
+        <v>0</v>
+      </c>
+      <c r="I5" s="26">
+        <v>0</v>
+      </c>
+      <c r="J5" s="26">
         <v>10</v>
       </c>
-      <c r="K5" s="27">
+      <c r="K5" s="26">
         <v>40</v>
       </c>
-      <c r="L5" s="27">
-        <v>0</v>
-      </c>
-      <c r="M5" s="27">
-        <v>1</v>
-      </c>
-      <c r="N5" s="29" t="s">
+      <c r="L5" s="26">
+        <v>0</v>
+      </c>
+      <c r="M5" s="26">
+        <v>1</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="O5" s="28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="29" customFormat="1">
-      <c r="A6" s="28">
+    <row r="6" spans="1:15" s="28" customFormat="1">
+      <c r="A6" s="27">
         <v>4</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="30">
-        <v>0</v>
-      </c>
-      <c r="E6" s="27">
-        <v>0</v>
-      </c>
-      <c r="F6" s="27">
-        <v>0</v>
-      </c>
-      <c r="G6" s="27">
+      <c r="D6" s="26">
+        <v>0</v>
+      </c>
+      <c r="E6" s="26">
+        <v>0</v>
+      </c>
+      <c r="F6" s="26">
+        <v>0</v>
+      </c>
+      <c r="G6" s="26">
         <v>1.5</v>
       </c>
-      <c r="H6" s="27">
-        <v>0</v>
-      </c>
-      <c r="I6" s="27">
-        <v>0</v>
-      </c>
-      <c r="J6" s="27">
+      <c r="H6" s="26">
+        <v>0</v>
+      </c>
+      <c r="I6" s="26">
+        <v>0</v>
+      </c>
+      <c r="J6" s="26">
         <v>8</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="26">
         <v>32</v>
       </c>
-      <c r="L6" s="27">
+      <c r="L6" s="26">
         <v>3</v>
       </c>
-      <c r="M6" s="27">
-        <v>1</v>
-      </c>
-      <c r="N6" s="29" t="s">
+      <c r="M6" s="26">
+        <v>1</v>
+      </c>
+      <c r="N6" s="26" t="s">
+        <v>466</v>
+      </c>
+      <c r="O6" s="28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15" hidden="1">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -7313,7 +7419,7 @@
       <c r="C7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="9">
         <v>0</v>
       </c>
       <c r="E7" s="9">
@@ -7343,140 +7449,152 @@
       <c r="M7" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" s="29" customFormat="1">
-      <c r="A8" s="28">
+      <c r="N7" s="9" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="28" customFormat="1">
+      <c r="A8" s="27">
         <v>6</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="27">
-        <v>1</v>
-      </c>
-      <c r="E8" s="27">
-        <v>0</v>
-      </c>
-      <c r="F8" s="27">
-        <v>0</v>
-      </c>
-      <c r="G8" s="27">
+      <c r="D8" s="26">
+        <v>1</v>
+      </c>
+      <c r="E8" s="26">
+        <v>0</v>
+      </c>
+      <c r="F8" s="26">
+        <v>0</v>
+      </c>
+      <c r="G8" s="26">
         <v>1.5</v>
       </c>
-      <c r="H8" s="27">
-        <v>0</v>
-      </c>
-      <c r="I8" s="27">
-        <v>0</v>
-      </c>
-      <c r="J8" s="27">
+      <c r="H8" s="26">
+        <v>0</v>
+      </c>
+      <c r="I8" s="26">
+        <v>0</v>
+      </c>
+      <c r="J8" s="26">
         <v>5</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="26">
         <v>20</v>
       </c>
-      <c r="L8" s="27" t="s">
+      <c r="L8" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="M8" s="27">
-        <v>1</v>
-      </c>
-      <c r="N8" s="29" t="s">
+      <c r="M8" s="26">
+        <v>1</v>
+      </c>
+      <c r="N8" s="26" t="s">
+        <v>468</v>
+      </c>
+      <c r="O8" s="28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="29" customFormat="1">
-      <c r="A9" s="28">
+    <row r="9" spans="1:15" s="28" customFormat="1">
+      <c r="A9" s="27">
         <v>7</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="30">
-        <v>0</v>
-      </c>
-      <c r="E9" s="27">
-        <v>0</v>
-      </c>
-      <c r="F9" s="27">
-        <v>0</v>
-      </c>
-      <c r="G9" s="27">
-        <v>1</v>
-      </c>
-      <c r="H9" s="27">
-        <v>0</v>
-      </c>
-      <c r="I9" s="27">
-        <v>0</v>
-      </c>
-      <c r="J9" s="27">
+      <c r="D9" s="26">
+        <v>0</v>
+      </c>
+      <c r="E9" s="26">
+        <v>0</v>
+      </c>
+      <c r="F9" s="26">
+        <v>0</v>
+      </c>
+      <c r="G9" s="26">
+        <v>1</v>
+      </c>
+      <c r="H9" s="26">
+        <v>0</v>
+      </c>
+      <c r="I9" s="26">
+        <v>0</v>
+      </c>
+      <c r="J9" s="26">
         <v>6</v>
       </c>
-      <c r="K9" s="27">
+      <c r="K9" s="26">
         <v>24</v>
       </c>
-      <c r="L9" s="27">
-        <v>0</v>
-      </c>
-      <c r="M9" s="27">
-        <v>1</v>
-      </c>
-      <c r="N9" s="29" t="s">
+      <c r="L9" s="26">
+        <v>0</v>
+      </c>
+      <c r="M9" s="26">
+        <v>1</v>
+      </c>
+      <c r="N9" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="O9" s="28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="29" customFormat="1">
-      <c r="A10" s="28">
+    <row r="10" spans="1:15" s="28" customFormat="1">
+      <c r="A10" s="27">
         <v>8</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="30">
-        <v>0</v>
-      </c>
-      <c r="E10" s="27">
-        <v>0</v>
-      </c>
-      <c r="F10" s="27">
-        <v>0</v>
-      </c>
-      <c r="G10" s="27">
-        <v>1</v>
-      </c>
-      <c r="H10" s="27">
-        <v>0</v>
-      </c>
-      <c r="I10" s="27">
-        <v>0</v>
-      </c>
-      <c r="J10" s="27">
-        <v>0</v>
-      </c>
-      <c r="K10" s="27">
+      <c r="D10" s="26">
+        <v>0</v>
+      </c>
+      <c r="E10" s="26">
+        <v>0</v>
+      </c>
+      <c r="F10" s="26">
+        <v>0</v>
+      </c>
+      <c r="G10" s="26">
+        <v>1</v>
+      </c>
+      <c r="H10" s="26">
+        <v>0</v>
+      </c>
+      <c r="I10" s="26">
+        <v>0</v>
+      </c>
+      <c r="J10" s="26">
+        <v>0</v>
+      </c>
+      <c r="K10" s="26">
         <v>-308</v>
       </c>
-      <c r="L10" s="27">
-        <v>0</v>
-      </c>
-      <c r="M10" s="27">
-        <v>1</v>
-      </c>
-      <c r="N10" s="29" t="s">
+      <c r="L10" s="26">
+        <v>0</v>
+      </c>
+      <c r="M10" s="26">
+        <v>1</v>
+      </c>
+      <c r="N10" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="O10" s="28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15" hidden="1">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -7486,7 +7604,7 @@
       <c r="C11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="9">
         <v>0</v>
       </c>
       <c r="E11" s="9">
@@ -7516,184 +7634,199 @@
       <c r="M11" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" s="29" customFormat="1">
-      <c r="A12" s="28">
+      <c r="N11" s="9" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="28" customFormat="1">
+      <c r="A12" s="27">
         <v>10</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="27">
-        <v>1</v>
-      </c>
-      <c r="E12" s="27">
-        <v>0</v>
-      </c>
-      <c r="F12" s="27">
-        <v>0</v>
-      </c>
-      <c r="G12" s="27">
-        <v>0</v>
-      </c>
-      <c r="H12" s="27">
+      <c r="D12" s="26">
+        <v>1</v>
+      </c>
+      <c r="E12" s="26">
+        <v>0</v>
+      </c>
+      <c r="F12" s="26">
+        <v>0</v>
+      </c>
+      <c r="G12" s="26">
+        <v>0</v>
+      </c>
+      <c r="H12" s="26">
         <v>5000</v>
       </c>
-      <c r="I12" s="27">
-        <v>0</v>
-      </c>
-      <c r="J12" s="27">
+      <c r="I12" s="26">
+        <v>0</v>
+      </c>
+      <c r="J12" s="26">
         <v>4</v>
       </c>
-      <c r="K12" s="27">
+      <c r="K12" s="26">
         <v>16</v>
       </c>
-      <c r="L12" s="27">
-        <v>0</v>
-      </c>
-      <c r="M12" s="27">
-        <v>1</v>
-      </c>
-      <c r="N12" s="29" t="s">
+      <c r="L12" s="26">
+        <v>0</v>
+      </c>
+      <c r="M12" s="26">
+        <v>1</v>
+      </c>
+      <c r="N12" s="26" t="s">
+        <v>472</v>
+      </c>
+      <c r="O12" s="28" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="29" customFormat="1">
-      <c r="A13" s="28">
+    <row r="13" spans="1:15" s="28" customFormat="1">
+      <c r="A13" s="27">
         <v>11</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="27">
-        <v>1</v>
-      </c>
-      <c r="E13" s="27">
-        <v>0</v>
-      </c>
-      <c r="F13" s="27">
-        <v>0</v>
-      </c>
-      <c r="G13" s="27">
-        <v>1</v>
-      </c>
-      <c r="H13" s="27">
-        <v>0</v>
-      </c>
-      <c r="I13" s="27">
-        <v>0</v>
-      </c>
-      <c r="J13" s="27">
-        <v>0</v>
-      </c>
-      <c r="K13" s="27">
+      <c r="D13" s="26">
+        <v>1</v>
+      </c>
+      <c r="E13" s="26">
+        <v>0</v>
+      </c>
+      <c r="F13" s="26">
+        <v>0</v>
+      </c>
+      <c r="G13" s="26">
+        <v>1</v>
+      </c>
+      <c r="H13" s="26">
+        <v>0</v>
+      </c>
+      <c r="I13" s="26">
+        <v>0</v>
+      </c>
+      <c r="J13" s="26">
+        <v>0</v>
+      </c>
+      <c r="K13" s="26">
         <v>-30</v>
       </c>
-      <c r="L13" s="27">
-        <v>0</v>
-      </c>
-      <c r="M13" s="27">
-        <v>1</v>
-      </c>
-      <c r="N13" s="29" t="s">
+      <c r="L13" s="26">
+        <v>0</v>
+      </c>
+      <c r="M13" s="26">
+        <v>1</v>
+      </c>
+      <c r="N13" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="O13" s="28" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="29" customFormat="1">
-      <c r="A14" s="28">
+    <row r="14" spans="1:15" s="28" customFormat="1">
+      <c r="A14" s="27">
         <v>12</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="30">
-        <v>0</v>
-      </c>
-      <c r="E14" s="27">
-        <v>0</v>
-      </c>
-      <c r="F14" s="27">
-        <v>0</v>
-      </c>
-      <c r="G14" s="27">
-        <v>1</v>
-      </c>
-      <c r="H14" s="27">
-        <v>0</v>
-      </c>
-      <c r="I14" s="27">
-        <v>0</v>
-      </c>
-      <c r="J14" s="27">
+      <c r="D14" s="26">
+        <v>0</v>
+      </c>
+      <c r="E14" s="26">
+        <v>0</v>
+      </c>
+      <c r="F14" s="26">
+        <v>0</v>
+      </c>
+      <c r="G14" s="26">
+        <v>1</v>
+      </c>
+      <c r="H14" s="26">
+        <v>0</v>
+      </c>
+      <c r="I14" s="26">
+        <v>0</v>
+      </c>
+      <c r="J14" s="26">
         <v>7</v>
       </c>
-      <c r="K14" s="27">
+      <c r="K14" s="26">
         <v>28</v>
       </c>
-      <c r="L14" s="27">
+      <c r="L14" s="26">
         <v>2</v>
       </c>
-      <c r="M14" s="27">
-        <v>1</v>
-      </c>
-      <c r="N14" s="29" t="s">
+      <c r="M14" s="26">
+        <v>1</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>474</v>
+      </c>
+      <c r="O14" s="28" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="29" customFormat="1">
-      <c r="A15" s="28">
+    <row r="15" spans="1:15" s="28" customFormat="1">
+      <c r="A15" s="27">
         <v>13</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="27">
-        <v>1</v>
-      </c>
-      <c r="E15" s="27">
-        <v>0</v>
-      </c>
-      <c r="F15" s="27">
-        <v>0</v>
-      </c>
-      <c r="G15" s="27">
-        <v>1</v>
-      </c>
-      <c r="H15" s="27">
-        <v>0</v>
-      </c>
-      <c r="I15" s="27">
-        <v>0</v>
-      </c>
-      <c r="J15" s="27">
-        <v>0</v>
-      </c>
-      <c r="K15" s="27">
+      <c r="D15" s="26">
+        <v>1</v>
+      </c>
+      <c r="E15" s="26">
+        <v>0</v>
+      </c>
+      <c r="F15" s="26">
+        <v>0</v>
+      </c>
+      <c r="G15" s="26">
+        <v>1</v>
+      </c>
+      <c r="H15" s="26">
+        <v>0</v>
+      </c>
+      <c r="I15" s="26">
+        <v>0</v>
+      </c>
+      <c r="J15" s="26">
+        <v>0</v>
+      </c>
+      <c r="K15" s="26">
         <v>16</v>
       </c>
-      <c r="L15" s="27">
-        <v>0</v>
-      </c>
-      <c r="M15" s="27">
-        <v>1</v>
-      </c>
-      <c r="N15" s="29" t="s">
+      <c r="L15" s="26">
+        <v>0</v>
+      </c>
+      <c r="M15" s="26">
+        <v>1</v>
+      </c>
+      <c r="N15" s="26" t="s">
+        <v>475</v>
+      </c>
+      <c r="O15" s="28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:15" hidden="1">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -7703,7 +7836,7 @@
       <c r="C16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="9">
         <v>0</v>
       </c>
       <c r="E16" s="9">
@@ -7733,52 +7866,58 @@
       <c r="M16" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" s="29" customFormat="1">
-      <c r="A17" s="28">
+      <c r="N16" s="9" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="28" customFormat="1">
+      <c r="A17" s="27">
         <v>15</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="26">
         <v>2</v>
       </c>
-      <c r="E17" s="27">
-        <v>0</v>
-      </c>
-      <c r="F17" s="27">
-        <v>0</v>
-      </c>
-      <c r="G17" s="27">
-        <v>1</v>
-      </c>
-      <c r="H17" s="27">
-        <v>0</v>
-      </c>
-      <c r="I17" s="27">
-        <v>0</v>
-      </c>
-      <c r="J17" s="27">
-        <v>0</v>
-      </c>
-      <c r="K17" s="27">
+      <c r="E17" s="26">
+        <v>0</v>
+      </c>
+      <c r="F17" s="26">
+        <v>0</v>
+      </c>
+      <c r="G17" s="26">
+        <v>1</v>
+      </c>
+      <c r="H17" s="26">
+        <v>0</v>
+      </c>
+      <c r="I17" s="26">
+        <v>0</v>
+      </c>
+      <c r="J17" s="26">
+        <v>0</v>
+      </c>
+      <c r="K17" s="26">
         <v>-40</v>
       </c>
-      <c r="L17" s="27">
-        <v>0</v>
-      </c>
-      <c r="M17" s="27">
-        <v>1</v>
-      </c>
-      <c r="N17" s="29" t="s">
+      <c r="L17" s="26">
+        <v>0</v>
+      </c>
+      <c r="M17" s="26">
+        <v>1</v>
+      </c>
+      <c r="N17" s="26" t="s">
+        <v>477</v>
+      </c>
+      <c r="O17" s="28" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:15" hidden="1">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -7788,7 +7927,7 @@
       <c r="C18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="9">
         <v>0</v>
       </c>
       <c r="E18" s="9">
@@ -7818,404 +7957,434 @@
       <c r="M18" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" s="29" customFormat="1">
-      <c r="A19" s="28">
+      <c r="N18" s="9" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="28" customFormat="1">
+      <c r="A19" s="27">
         <v>17</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="30">
-        <v>0</v>
-      </c>
-      <c r="E19" s="27">
-        <v>0</v>
-      </c>
-      <c r="F19" s="27">
-        <v>0</v>
-      </c>
-      <c r="G19" s="27">
-        <v>1</v>
-      </c>
-      <c r="H19" s="27">
-        <v>0</v>
-      </c>
-      <c r="I19" s="27">
-        <v>0</v>
-      </c>
-      <c r="J19" s="27">
+      <c r="D19" s="26">
+        <v>0</v>
+      </c>
+      <c r="E19" s="26">
+        <v>0</v>
+      </c>
+      <c r="F19" s="26">
+        <v>0</v>
+      </c>
+      <c r="G19" s="26">
+        <v>1</v>
+      </c>
+      <c r="H19" s="26">
+        <v>0</v>
+      </c>
+      <c r="I19" s="26">
+        <v>0</v>
+      </c>
+      <c r="J19" s="26">
         <v>7</v>
       </c>
-      <c r="K19" s="27">
+      <c r="K19" s="26">
         <v>28</v>
       </c>
-      <c r="L19" s="27">
-        <v>0</v>
-      </c>
-      <c r="M19" s="27">
-        <v>1</v>
-      </c>
-      <c r="N19" s="29" t="s">
+      <c r="L19" s="26">
+        <v>0</v>
+      </c>
+      <c r="M19" s="26">
+        <v>1</v>
+      </c>
+      <c r="N19" s="26" t="s">
+        <v>483</v>
+      </c>
+      <c r="O19" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="29" customFormat="1">
-      <c r="A20" s="28">
+    <row r="20" spans="1:15" s="28" customFormat="1">
+      <c r="A20" s="27">
         <v>18</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="30">
-        <v>0</v>
-      </c>
-      <c r="E20" s="27">
-        <v>0</v>
-      </c>
-      <c r="F20" s="27">
-        <v>0</v>
-      </c>
-      <c r="G20" s="27">
+      <c r="D20" s="26">
+        <v>0</v>
+      </c>
+      <c r="E20" s="26">
+        <v>0</v>
+      </c>
+      <c r="F20" s="26">
+        <v>0</v>
+      </c>
+      <c r="G20" s="26">
         <v>1.5</v>
       </c>
-      <c r="H20" s="27">
-        <v>0</v>
-      </c>
-      <c r="I20" s="27">
-        <v>0</v>
-      </c>
-      <c r="J20" s="27">
-        <v>0</v>
-      </c>
-      <c r="K20" s="27">
+      <c r="H20" s="26">
+        <v>0</v>
+      </c>
+      <c r="I20" s="26">
+        <v>0</v>
+      </c>
+      <c r="J20" s="26">
+        <v>0</v>
+      </c>
+      <c r="K20" s="26">
         <v>20</v>
       </c>
-      <c r="L20" s="27">
-        <v>0</v>
-      </c>
-      <c r="M20" s="27">
-        <v>1</v>
-      </c>
-      <c r="N20" s="29" t="s">
+      <c r="L20" s="26">
+        <v>0</v>
+      </c>
+      <c r="M20" s="26">
+        <v>1</v>
+      </c>
+      <c r="N20" s="26" t="s">
+        <v>484</v>
+      </c>
+      <c r="O20" s="28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="29" customFormat="1">
-      <c r="A21" s="28">
+    <row r="21" spans="1:15" s="28" customFormat="1">
+      <c r="A21" s="27">
         <v>19</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="27">
-        <v>1</v>
-      </c>
-      <c r="E21" s="27">
-        <v>0</v>
-      </c>
-      <c r="F21" s="27">
-        <v>0</v>
-      </c>
-      <c r="G21" s="27">
+      <c r="D21" s="26">
+        <v>1</v>
+      </c>
+      <c r="E21" s="26">
+        <v>0</v>
+      </c>
+      <c r="F21" s="26">
+        <v>0</v>
+      </c>
+      <c r="G21" s="26">
         <v>3</v>
       </c>
-      <c r="H21" s="27">
-        <v>0</v>
-      </c>
-      <c r="I21" s="27">
-        <v>0</v>
-      </c>
-      <c r="J21" s="27">
-        <v>0</v>
-      </c>
-      <c r="K21" s="27">
-        <v>0</v>
-      </c>
-      <c r="L21" s="27">
-        <v>0</v>
-      </c>
-      <c r="M21" s="27">
-        <v>1</v>
-      </c>
-      <c r="N21" s="29" t="s">
+      <c r="H21" s="26">
+        <v>0</v>
+      </c>
+      <c r="I21" s="26">
+        <v>0</v>
+      </c>
+      <c r="J21" s="26">
+        <v>0</v>
+      </c>
+      <c r="K21" s="26">
+        <v>0</v>
+      </c>
+      <c r="L21" s="26">
+        <v>0</v>
+      </c>
+      <c r="M21" s="26">
+        <v>1</v>
+      </c>
+      <c r="N21" s="26" t="s">
+        <v>485</v>
+      </c>
+      <c r="O21" s="28" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="29" customFormat="1">
-      <c r="A22" s="28">
+    <row r="22" spans="1:15" s="28" customFormat="1">
+      <c r="A22" s="27">
         <v>20</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="30">
-        <v>0</v>
-      </c>
-      <c r="E22" s="27">
-        <v>0</v>
-      </c>
-      <c r="F22" s="27">
-        <v>0</v>
-      </c>
-      <c r="G22" s="27">
+      <c r="D22" s="26">
+        <v>0</v>
+      </c>
+      <c r="E22" s="26">
+        <v>0</v>
+      </c>
+      <c r="F22" s="26">
+        <v>0</v>
+      </c>
+      <c r="G22" s="26">
         <v>1.5</v>
       </c>
-      <c r="H22" s="27">
-        <v>0</v>
-      </c>
-      <c r="I22" s="27">
-        <v>0</v>
-      </c>
-      <c r="J22" s="27">
-        <v>0</v>
-      </c>
-      <c r="K22" s="27">
+      <c r="H22" s="26">
+        <v>0</v>
+      </c>
+      <c r="I22" s="26">
+        <v>0</v>
+      </c>
+      <c r="J22" s="26">
+        <v>0</v>
+      </c>
+      <c r="K22" s="26">
         <v>20</v>
       </c>
-      <c r="L22" s="27">
-        <v>0</v>
-      </c>
-      <c r="M22" s="27">
-        <v>1</v>
-      </c>
-      <c r="N22" s="29" t="s">
+      <c r="L22" s="26">
+        <v>0</v>
+      </c>
+      <c r="M22" s="26">
+        <v>1</v>
+      </c>
+      <c r="N22" s="26" t="s">
+        <v>486</v>
+      </c>
+      <c r="O22" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="29" customFormat="1">
-      <c r="A23" s="28">
+    <row r="23" spans="1:15" s="28" customFormat="1">
+      <c r="A23" s="27">
         <v>21</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="30">
-        <v>0</v>
-      </c>
-      <c r="E23" s="27">
-        <v>0</v>
-      </c>
-      <c r="F23" s="27">
-        <v>0</v>
-      </c>
-      <c r="G23" s="27">
+      <c r="D23" s="26">
+        <v>0</v>
+      </c>
+      <c r="E23" s="26">
+        <v>0</v>
+      </c>
+      <c r="F23" s="26">
+        <v>0</v>
+      </c>
+      <c r="G23" s="26">
         <v>2</v>
       </c>
-      <c r="H23" s="27">
-        <v>0</v>
-      </c>
-      <c r="I23" s="27">
-        <v>0</v>
-      </c>
-      <c r="J23" s="27">
-        <v>0</v>
-      </c>
-      <c r="K23" s="27">
+      <c r="H23" s="26">
+        <v>0</v>
+      </c>
+      <c r="I23" s="26">
+        <v>0</v>
+      </c>
+      <c r="J23" s="26">
+        <v>0</v>
+      </c>
+      <c r="K23" s="26">
         <v>24</v>
       </c>
-      <c r="L23" s="27">
-        <v>0</v>
-      </c>
-      <c r="M23" s="27">
-        <v>1</v>
-      </c>
-      <c r="N23" s="29" t="s">
+      <c r="L23" s="26">
+        <v>0</v>
+      </c>
+      <c r="M23" s="26">
+        <v>1</v>
+      </c>
+      <c r="N23" s="26" t="s">
+        <v>478</v>
+      </c>
+      <c r="O23" s="28" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="29" customFormat="1">
-      <c r="A24" s="28">
+    <row r="24" spans="1:15" s="28" customFormat="1">
+      <c r="A24" s="27">
         <v>22</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="30">
-        <v>0</v>
-      </c>
-      <c r="E24" s="27">
-        <v>0</v>
-      </c>
-      <c r="F24" s="27">
-        <v>0</v>
-      </c>
-      <c r="G24" s="27">
-        <v>1</v>
-      </c>
-      <c r="H24" s="27">
-        <v>0</v>
-      </c>
-      <c r="I24" s="27">
-        <v>0</v>
-      </c>
-      <c r="J24" s="27">
+      <c r="D24" s="26">
+        <v>0</v>
+      </c>
+      <c r="E24" s="26">
+        <v>0</v>
+      </c>
+      <c r="F24" s="26">
+        <v>0</v>
+      </c>
+      <c r="G24" s="26">
+        <v>1</v>
+      </c>
+      <c r="H24" s="26">
+        <v>0</v>
+      </c>
+      <c r="I24" s="26">
+        <v>0</v>
+      </c>
+      <c r="J24" s="26">
         <v>8</v>
       </c>
-      <c r="K24" s="27">
+      <c r="K24" s="26">
         <v>32</v>
       </c>
-      <c r="L24" s="27">
+      <c r="L24" s="26">
         <v>2</v>
       </c>
-      <c r="M24" s="27">
-        <v>1</v>
-      </c>
-      <c r="N24" s="29" t="s">
+      <c r="M24" s="26">
+        <v>1</v>
+      </c>
+      <c r="N24" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="O24" s="28" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="29" customFormat="1">
-      <c r="A25" s="28">
+    <row r="25" spans="1:15" s="28" customFormat="1">
+      <c r="A25" s="27">
         <v>23</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="D25" s="27">
-        <v>1</v>
-      </c>
-      <c r="E25" s="27">
-        <v>0</v>
-      </c>
-      <c r="F25" s="27">
-        <v>0</v>
-      </c>
-      <c r="G25" s="27">
+      <c r="D25" s="26">
+        <v>1</v>
+      </c>
+      <c r="E25" s="26">
+        <v>0</v>
+      </c>
+      <c r="F25" s="26">
+        <v>0</v>
+      </c>
+      <c r="G25" s="26">
         <v>3</v>
       </c>
-      <c r="H25" s="27">
-        <v>0</v>
-      </c>
-      <c r="I25" s="27">
-        <v>0</v>
-      </c>
-      <c r="J25" s="27">
-        <v>0</v>
-      </c>
-      <c r="K25" s="27">
+      <c r="H25" s="26">
+        <v>0</v>
+      </c>
+      <c r="I25" s="26">
+        <v>0</v>
+      </c>
+      <c r="J25" s="26">
+        <v>0</v>
+      </c>
+      <c r="K25" s="26">
         <v>16</v>
       </c>
-      <c r="L25" s="27">
-        <v>0</v>
-      </c>
-      <c r="M25" s="27">
-        <v>1</v>
-      </c>
-      <c r="N25" s="29" t="s">
+      <c r="L25" s="26">
+        <v>0</v>
+      </c>
+      <c r="M25" s="26">
+        <v>1</v>
+      </c>
+      <c r="N25" s="26" t="s">
+        <v>479</v>
+      </c>
+      <c r="O25" s="28" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="29" customFormat="1">
-      <c r="A26" s="28">
+    <row r="26" spans="1:15" s="28" customFormat="1">
+      <c r="A26" s="27">
         <v>24</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="30">
-        <v>0</v>
-      </c>
-      <c r="E26" s="27">
-        <v>0</v>
-      </c>
-      <c r="F26" s="27">
-        <v>0</v>
-      </c>
-      <c r="G26" s="27">
-        <v>1</v>
-      </c>
-      <c r="H26" s="27">
-        <v>0</v>
-      </c>
-      <c r="I26" s="27">
-        <v>0</v>
-      </c>
-      <c r="J26" s="27">
+      <c r="D26" s="26">
+        <v>0</v>
+      </c>
+      <c r="E26" s="26">
+        <v>0</v>
+      </c>
+      <c r="F26" s="26">
+        <v>0</v>
+      </c>
+      <c r="G26" s="26">
+        <v>1</v>
+      </c>
+      <c r="H26" s="26">
+        <v>0</v>
+      </c>
+      <c r="I26" s="26">
+        <v>0</v>
+      </c>
+      <c r="J26" s="26">
         <v>8</v>
       </c>
-      <c r="K26" s="27">
-        <v>0</v>
-      </c>
-      <c r="L26" s="27">
-        <v>0</v>
-      </c>
-      <c r="M26" s="27">
-        <v>1</v>
-      </c>
-      <c r="N26" s="29" t="s">
+      <c r="K26" s="26">
+        <v>0</v>
+      </c>
+      <c r="L26" s="26">
+        <v>0</v>
+      </c>
+      <c r="M26" s="26">
+        <v>1</v>
+      </c>
+      <c r="N26" s="26" t="s">
+        <v>480</v>
+      </c>
+      <c r="O26" s="28" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="29" customFormat="1">
-      <c r="A27" s="28">
+    <row r="27" spans="1:15" s="28" customFormat="1">
+      <c r="A27" s="27">
         <v>25</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="30">
-        <v>0</v>
-      </c>
-      <c r="E27" s="27">
-        <v>0</v>
-      </c>
-      <c r="F27" s="27">
-        <v>0</v>
-      </c>
-      <c r="G27" s="27">
-        <v>1</v>
-      </c>
-      <c r="H27" s="27">
-        <v>0</v>
-      </c>
-      <c r="I27" s="27">
-        <v>0</v>
-      </c>
-      <c r="J27" s="27">
-        <v>0</v>
-      </c>
-      <c r="K27" s="27">
+      <c r="D27" s="26">
+        <v>0</v>
+      </c>
+      <c r="E27" s="26">
+        <v>0</v>
+      </c>
+      <c r="F27" s="26">
+        <v>0</v>
+      </c>
+      <c r="G27" s="26">
+        <v>1</v>
+      </c>
+      <c r="H27" s="26">
+        <v>0</v>
+      </c>
+      <c r="I27" s="26">
+        <v>0</v>
+      </c>
+      <c r="J27" s="26">
+        <v>0</v>
+      </c>
+      <c r="K27" s="26">
         <v>25</v>
       </c>
-      <c r="L27" s="27">
+      <c r="L27" s="26">
         <v>2</v>
       </c>
-      <c r="M27" s="27">
-        <v>1</v>
-      </c>
-      <c r="N27" s="29" t="s">
+      <c r="M27" s="26">
+        <v>1</v>
+      </c>
+      <c r="N27" s="26" t="s">
+        <v>481</v>
+      </c>
+      <c r="O27" s="28" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:15" hidden="1">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -8249,58 +8418,60 @@
       <c r="K28" s="9">
         <v>32</v>
       </c>
-      <c r="L28" s="9">
-        <v>0</v>
+      <c r="L28" s="9" t="s">
+        <v>462</v>
       </c>
       <c r="M28" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" s="29" customFormat="1">
-      <c r="A29" s="28">
+      <c r="N28" s="9"/>
+    </row>
+    <row r="29" spans="1:15" s="19" customFormat="1" hidden="1">
+      <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="27">
-        <v>1</v>
-      </c>
-      <c r="E29" s="27">
-        <v>0</v>
-      </c>
-      <c r="F29" s="27">
-        <v>0</v>
-      </c>
-      <c r="G29" s="27">
-        <v>1</v>
-      </c>
-      <c r="H29" s="27">
-        <v>0</v>
-      </c>
-      <c r="I29" s="27">
-        <v>0</v>
-      </c>
-      <c r="J29" s="27">
+      <c r="D29" s="9">
+        <v>1</v>
+      </c>
+      <c r="E29" s="9">
+        <v>0</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9">
+        <v>1</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0</v>
+      </c>
+      <c r="J29" s="9">
         <v>20</v>
       </c>
-      <c r="K29" s="30">
+      <c r="K29" s="9">
         <v>80</v>
       </c>
-      <c r="L29" s="27">
-        <v>0</v>
-      </c>
-      <c r="M29" s="27">
-        <v>1</v>
-      </c>
-      <c r="N29" s="29" t="s">
+      <c r="L29" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M29" s="9">
+        <v>0</v>
+      </c>
+      <c r="N29" s="9"/>
+      <c r="O29" s="19" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:15" hidden="1">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -8331,17 +8502,18 @@
       <c r="J30" s="9">
         <v>12</v>
       </c>
-      <c r="K30" s="18">
+      <c r="K30" s="9">
         <v>48</v>
       </c>
       <c r="L30" s="9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M30" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="1:15" hidden="1">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -8372,17 +8544,18 @@
       <c r="J31" s="9">
         <v>20</v>
       </c>
-      <c r="K31" s="18">
+      <c r="K31" s="9">
         <v>80</v>
       </c>
       <c r="L31" s="9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M31" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="N31" s="9"/>
+    </row>
+    <row r="32" spans="1:15" hidden="1">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -8417,63 +8590,65 @@
         <v>40</v>
       </c>
       <c r="L32" s="9">
-        <v>0</v>
-      </c>
-      <c r="M32" s="9" t="str" cm="1">
-        <f t="array" ref="M32">B18:M32</f>
-        <v>咖啡店</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" s="29" customFormat="1">
-      <c r="A33" s="28">
+        <v>-1</v>
+      </c>
+      <c r="M32" s="9">
+        <v>0</v>
+      </c>
+      <c r="N32" s="9"/>
+    </row>
+    <row r="33" spans="1:15" s="19" customFormat="1" hidden="1">
+      <c r="A33" s="3">
         <v>31</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D33" s="27">
-        <v>1</v>
-      </c>
-      <c r="E33" s="27">
-        <v>0</v>
-      </c>
-      <c r="F33" s="27">
-        <v>0</v>
-      </c>
-      <c r="G33" s="27">
-        <v>1</v>
-      </c>
-      <c r="H33" s="27">
-        <v>0</v>
-      </c>
-      <c r="I33" s="27">
-        <v>0</v>
-      </c>
-      <c r="J33" s="27">
+      <c r="D33" s="9">
+        <v>1</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0</v>
+      </c>
+      <c r="G33" s="9">
+        <v>1</v>
+      </c>
+      <c r="H33" s="9">
+        <v>0</v>
+      </c>
+      <c r="I33" s="9">
+        <v>0</v>
+      </c>
+      <c r="J33" s="9">
         <v>20</v>
       </c>
-      <c r="K33" s="30">
+      <c r="K33" s="9">
         <v>80</v>
       </c>
-      <c r="L33" s="27">
-        <v>0</v>
-      </c>
-      <c r="M33" s="27">
-        <v>1</v>
-      </c>
-      <c r="N33" s="29" t="s">
+      <c r="L33" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M33" s="9">
+        <v>0</v>
+      </c>
+      <c r="N33" s="9"/>
+      <c r="O33" s="19" t="s">
         <v>118</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8486,10 +8661,10 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -9492,7 +9667,7 @@
   <cols>
     <col min="1" max="1" width="8.88671875" style="8"/>
     <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" style="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
@@ -9512,7 +9687,7 @@
       <c r="B1" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>306</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -9556,7 +9731,7 @@
       <c r="B2" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -9600,7 +9775,7 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>393</v>
       </c>
       <c r="D3">
@@ -9644,7 +9819,7 @@
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>310</v>
       </c>
       <c r="D4">
@@ -9688,7 +9863,7 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>307</v>
       </c>
       <c r="D5">
@@ -9732,7 +9907,7 @@
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>311</v>
       </c>
       <c r="D6">
@@ -9776,7 +9951,7 @@
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>312</v>
       </c>
       <c r="D7">
@@ -9820,7 +9995,7 @@
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>313</v>
       </c>
       <c r="D8">
@@ -9857,47 +10032,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="29" customFormat="1">
-      <c r="A9" s="32">
+    <row r="9" spans="1:14" s="28" customFormat="1">
+      <c r="A9" s="30">
         <v>7</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="28">
         <v>5</v>
       </c>
-      <c r="C9" s="33">
-        <v>1</v>
-      </c>
-      <c r="D9" s="29">
-        <v>0</v>
-      </c>
-      <c r="E9" s="29">
+      <c r="C9" s="31">
+        <v>1</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0</v>
+      </c>
+      <c r="E9" s="28">
         <v>500</v>
       </c>
-      <c r="F9" s="31">
-        <v>0</v>
-      </c>
-      <c r="G9" s="29">
-        <v>1</v>
-      </c>
-      <c r="H9" s="29">
+      <c r="F9" s="29">
+        <v>0</v>
+      </c>
+      <c r="G9" s="28">
+        <v>1</v>
+      </c>
+      <c r="H9" s="28">
         <v>6</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="28">
         <v>24</v>
       </c>
-      <c r="J9" s="29">
-        <v>0</v>
-      </c>
-      <c r="K9" s="29">
-        <v>0</v>
-      </c>
-      <c r="L9" s="29">
-        <v>1</v>
-      </c>
-      <c r="M9" s="29" t="s">
+      <c r="J9" s="28">
+        <v>0</v>
+      </c>
+      <c r="K9" s="28">
+        <v>0</v>
+      </c>
+      <c r="L9" s="28">
+        <v>1</v>
+      </c>
+      <c r="M9" s="28" t="s">
         <v>364</v>
       </c>
-      <c r="N9" s="29">
+      <c r="N9" s="28">
         <v>0</v>
       </c>
     </row>
@@ -9908,7 +10083,7 @@
       <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>317</v>
       </c>
       <c r="D10">
@@ -9952,7 +10127,7 @@
       <c r="B11">
         <v>6</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>316</v>
       </c>
       <c r="D11">
@@ -9996,7 +10171,7 @@
       <c r="B12">
         <v>6</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="23" t="s">
         <v>320</v>
       </c>
       <c r="D12">
@@ -10040,7 +10215,7 @@
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="23" t="s">
         <v>321</v>
       </c>
       <c r="D13">
@@ -10084,7 +10259,7 @@
       <c r="B14">
         <v>3</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="23">
         <v>1</v>
       </c>
       <c r="D14">
@@ -10128,7 +10303,7 @@
       <c r="B15">
         <v>7</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="23" t="s">
         <v>322</v>
       </c>
       <c r="D15">
@@ -10172,7 +10347,7 @@
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="23" t="s">
         <v>324</v>
       </c>
       <c r="D16">
@@ -10216,7 +10391,7 @@
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="23">
         <v>1</v>
       </c>
       <c r="D17">
@@ -10260,7 +10435,7 @@
       <c r="B18">
         <v>8</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="23" t="s">
         <v>325</v>
       </c>
       <c r="D18">
@@ -10304,7 +10479,7 @@
       <c r="B19">
         <v>6</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="23" t="s">
         <v>326</v>
       </c>
       <c r="D19">
@@ -10348,7 +10523,7 @@
       <c r="B20">
         <v>6</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="23" t="s">
         <v>327</v>
       </c>
       <c r="D20">
@@ -10392,7 +10567,7 @@
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="23" t="s">
         <v>393</v>
       </c>
       <c r="D21">
@@ -10436,7 +10611,7 @@
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="23" t="s">
         <v>330</v>
       </c>
       <c r="D22">
@@ -10480,7 +10655,7 @@
       <c r="B23">
         <v>6</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="23" t="s">
         <v>331</v>
       </c>
       <c r="D23">
@@ -10524,7 +10699,7 @@
       <c r="B24">
         <v>6</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="23" t="s">
         <v>332</v>
       </c>
       <c r="D24">
@@ -10568,7 +10743,7 @@
       <c r="B25">
         <v>6</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="23" t="s">
         <v>333</v>
       </c>
       <c r="D25">
@@ -10605,50 +10780,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="29" customFormat="1">
-      <c r="A26" s="32">
+    <row r="26" spans="1:15" s="28" customFormat="1">
+      <c r="A26" s="30">
         <v>24</v>
       </c>
-      <c r="B26" s="29">
+      <c r="B26" s="28">
         <v>6</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="31" t="s">
         <v>334</v>
       </c>
-      <c r="D26" s="29">
-        <v>0</v>
-      </c>
-      <c r="E26" s="29">
-        <v>0</v>
-      </c>
-      <c r="F26" s="29">
-        <v>1</v>
-      </c>
-      <c r="G26" s="29">
-        <v>0</v>
-      </c>
-      <c r="H26" s="29">
-        <v>0</v>
-      </c>
-      <c r="I26" s="29">
+      <c r="D26" s="28">
+        <v>0</v>
+      </c>
+      <c r="E26" s="28">
+        <v>0</v>
+      </c>
+      <c r="F26" s="28">
+        <v>1</v>
+      </c>
+      <c r="G26" s="28">
+        <v>0</v>
+      </c>
+      <c r="H26" s="28">
+        <v>0</v>
+      </c>
+      <c r="I26" s="28">
         <v>6</v>
       </c>
-      <c r="J26" s="29">
-        <v>0</v>
-      </c>
-      <c r="K26" s="29">
-        <v>0</v>
-      </c>
-      <c r="L26" s="29">
-        <v>1</v>
-      </c>
-      <c r="M26" s="29" t="s">
+      <c r="J26" s="28">
+        <v>0</v>
+      </c>
+      <c r="K26" s="28">
+        <v>0</v>
+      </c>
+      <c r="L26" s="28">
+        <v>1</v>
+      </c>
+      <c r="M26" s="28" t="s">
         <v>382</v>
       </c>
-      <c r="N26" s="29">
-        <v>1</v>
-      </c>
-      <c r="O26" s="29" t="s">
+      <c r="N26" s="28">
+        <v>1</v>
+      </c>
+      <c r="O26" s="28" t="s">
         <v>335</v>
       </c>
     </row>
@@ -10659,7 +10834,7 @@
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="23" t="s">
         <v>336</v>
       </c>
       <c r="D27">
@@ -10696,50 +10871,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="29" customFormat="1">
-      <c r="A28" s="32">
+    <row r="28" spans="1:15" s="28" customFormat="1">
+      <c r="A28" s="30">
         <v>26</v>
       </c>
-      <c r="B28" s="29">
+      <c r="B28" s="28">
         <v>3</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="31" t="s">
         <v>338</v>
       </c>
-      <c r="D28" s="29">
-        <v>0</v>
-      </c>
-      <c r="E28" s="29">
-        <v>0</v>
-      </c>
-      <c r="F28" s="29">
-        <v>0</v>
-      </c>
-      <c r="G28" s="29">
-        <v>1</v>
-      </c>
-      <c r="H28" s="29">
-        <v>0</v>
-      </c>
-      <c r="I28" s="29">
+      <c r="D28" s="28">
+        <v>0</v>
+      </c>
+      <c r="E28" s="28">
+        <v>0</v>
+      </c>
+      <c r="F28" s="28">
+        <v>0</v>
+      </c>
+      <c r="G28" s="28">
+        <v>1</v>
+      </c>
+      <c r="H28" s="28">
+        <v>0</v>
+      </c>
+      <c r="I28" s="28">
         <v>30</v>
       </c>
-      <c r="J28" s="29">
-        <v>0</v>
-      </c>
-      <c r="K28" s="29">
-        <v>0</v>
-      </c>
-      <c r="L28" s="29">
+      <c r="J28" s="28">
+        <v>0</v>
+      </c>
+      <c r="K28" s="28">
+        <v>0</v>
+      </c>
+      <c r="L28" s="28">
         <v>4</v>
       </c>
-      <c r="M28" s="29" t="s">
+      <c r="M28" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="N28" s="29">
-        <v>1</v>
-      </c>
-      <c r="O28" s="29" t="s">
+      <c r="N28" s="28">
+        <v>1</v>
+      </c>
+      <c r="O28" s="28" t="s">
         <v>339</v>
       </c>
     </row>
@@ -10750,7 +10925,7 @@
       <c r="B29">
         <v>3</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="23" t="s">
         <v>337</v>
       </c>
       <c r="D29">
@@ -10794,7 +10969,7 @@
       <c r="B30">
         <v>3</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="23" t="s">
         <v>340</v>
       </c>
       <c r="D30">
@@ -10838,7 +11013,7 @@
       <c r="B31">
         <v>7</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="23" t="s">
         <v>341</v>
       </c>
       <c r="D31">
@@ -10882,7 +11057,7 @@
       <c r="B32">
         <v>6</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="23" t="s">
         <v>342</v>
       </c>
       <c r="D32">
@@ -10926,7 +11101,7 @@
       <c r="B33">
         <v>2</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="23" t="s">
         <v>343</v>
       </c>
       <c r="D33">
@@ -10970,7 +11145,7 @@
       <c r="B34">
         <v>5</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="23" t="s">
         <v>344</v>
       </c>
       <c r="D34">
@@ -11007,50 +11182,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="29" customFormat="1">
-      <c r="A35" s="32">
+    <row r="35" spans="1:15" s="28" customFormat="1">
+      <c r="A35" s="30">
         <v>33</v>
       </c>
-      <c r="B35" s="29">
+      <c r="B35" s="28">
         <v>2</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="31" t="s">
         <v>345</v>
       </c>
-      <c r="D35" s="29">
-        <v>0</v>
-      </c>
-      <c r="E35" s="29">
-        <v>0</v>
-      </c>
-      <c r="F35" s="29">
-        <v>1</v>
-      </c>
-      <c r="G35" s="29">
-        <v>1</v>
-      </c>
-      <c r="H35" s="29">
-        <v>0</v>
-      </c>
-      <c r="I35" s="29">
+      <c r="D35" s="28">
+        <v>0</v>
+      </c>
+      <c r="E35" s="28">
+        <v>0</v>
+      </c>
+      <c r="F35" s="28">
+        <v>1</v>
+      </c>
+      <c r="G35" s="28">
+        <v>1</v>
+      </c>
+      <c r="H35" s="28">
+        <v>0</v>
+      </c>
+      <c r="I35" s="28">
         <v>12</v>
       </c>
-      <c r="J35" s="29">
+      <c r="J35" s="28">
         <v>2</v>
       </c>
-      <c r="K35" s="29">
-        <v>0</v>
-      </c>
-      <c r="L35" s="29">
-        <v>1</v>
-      </c>
-      <c r="M35" s="29" t="s">
+      <c r="K35" s="28">
+        <v>0</v>
+      </c>
+      <c r="L35" s="28">
+        <v>1</v>
+      </c>
+      <c r="M35" s="28" t="s">
         <v>390</v>
       </c>
-      <c r="N35" s="29">
-        <v>1</v>
-      </c>
-      <c r="O35" s="29" t="s">
+      <c r="N35" s="28">
+        <v>1</v>
+      </c>
+      <c r="O35" s="28" t="s">
         <v>346</v>
       </c>
     </row>
@@ -11061,7 +11236,7 @@
       <c r="B36">
         <v>6</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="23" t="s">
         <v>347</v>
       </c>
       <c r="D36">
@@ -11105,7 +11280,7 @@
       <c r="B37">
         <v>6</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="23" t="s">
         <v>348</v>
       </c>
       <c r="D37">
@@ -11163,7 +11338,7 @@
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="11"/>
-    <col min="2" max="2" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
@@ -11220,300 +11395,300 @@
         <v>421</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="19" customFormat="1">
+    <row r="3" spans="1:10" s="18" customFormat="1">
       <c r="A3" s="17">
         <v>1</v>
       </c>
       <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="18">
         <v>1000</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="19" customFormat="1">
+    <row r="4" spans="1:10" s="18" customFormat="1">
       <c r="A4" s="17">
         <v>2</v>
       </c>
       <c r="B4" s="10">
         <v>2</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="18" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="19" customFormat="1">
+    <row r="5" spans="1:10" s="18" customFormat="1">
       <c r="A5" s="17">
         <v>3</v>
       </c>
       <c r="B5" s="10">
         <v>3</v>
       </c>
-      <c r="E5" s="19">
-        <v>0</v>
-      </c>
-      <c r="F5" s="19">
+      <c r="E5" s="18">
+        <v>0</v>
+      </c>
+      <c r="F5" s="18">
         <v>12</v>
       </c>
-      <c r="G5" s="19">
-        <v>0</v>
-      </c>
-      <c r="H5" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="19" customFormat="1">
+      <c r="G5" s="18">
+        <v>0</v>
+      </c>
+      <c r="H5" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="18" customFormat="1">
       <c r="A6" s="17">
         <v>4</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="F6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" s="19" customFormat="1">
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="1:10" s="18" customFormat="1">
       <c r="A7" s="17">
         <v>5</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:10" s="19" customFormat="1">
+    <row r="8" spans="1:10" s="18" customFormat="1">
       <c r="A8" s="17">
         <v>6</v>
       </c>
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:10" s="19" customFormat="1">
+    <row r="9" spans="1:10" s="18" customFormat="1">
       <c r="A9" s="17">
         <v>7</v>
       </c>
       <c r="B9" s="10">
         <v>2</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <v>10000</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <v>18</v>
       </c>
-      <c r="G9" s="19">
-        <v>0</v>
-      </c>
-      <c r="H9" s="19">
+      <c r="G9" s="18">
+        <v>0</v>
+      </c>
+      <c r="H9" s="18">
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="19" customFormat="1">
+    <row r="10" spans="1:10" s="18" customFormat="1">
       <c r="A10" s="17">
         <v>8</v>
       </c>
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:10" s="19" customFormat="1">
+    <row r="11" spans="1:10" s="18" customFormat="1">
       <c r="A11" s="17">
         <v>9</v>
       </c>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:10" s="19" customFormat="1">
+    <row r="12" spans="1:10" s="18" customFormat="1">
       <c r="A12" s="17">
         <v>10</v>
       </c>
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:10" s="19" customFormat="1">
+    <row r="13" spans="1:10" s="18" customFormat="1">
       <c r="A13" s="17">
         <v>11</v>
       </c>
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="1:10" s="19" customFormat="1">
+    <row r="14" spans="1:10" s="18" customFormat="1">
       <c r="A14" s="17">
         <v>12</v>
       </c>
       <c r="B14" s="10">
         <v>1</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="18">
         <v>1100</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="18" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="19" customFormat="1">
+    <row r="15" spans="1:10" s="18" customFormat="1">
       <c r="A15" s="17">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="19" customFormat="1">
+    <row r="16" spans="1:10" s="18" customFormat="1">
       <c r="A16" s="17">
         <v>14</v>
       </c>
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:4" s="19" customFormat="1">
+    <row r="17" spans="1:4" s="18" customFormat="1">
       <c r="A17" s="17">
         <v>15</v>
       </c>
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:4" s="19" customFormat="1">
+    <row r="18" spans="1:4" s="18" customFormat="1">
       <c r="A18" s="17">
         <v>16</v>
       </c>
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="1:4" s="19" customFormat="1">
+    <row r="19" spans="1:4" s="18" customFormat="1">
       <c r="A19" s="17">
         <v>17</v>
       </c>
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:4" s="19" customFormat="1">
+    <row r="20" spans="1:4" s="18" customFormat="1">
       <c r="A20" s="17">
         <v>18</v>
       </c>
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="1:4" s="19" customFormat="1">
+    <row r="21" spans="1:4" s="18" customFormat="1">
       <c r="A21" s="17">
         <v>19</v>
       </c>
       <c r="B21" s="10"/>
     </row>
-    <row r="22" spans="1:4" s="19" customFormat="1">
+    <row r="22" spans="1:4" s="18" customFormat="1">
       <c r="A22" s="17">
         <v>20</v>
       </c>
       <c r="B22" s="10"/>
     </row>
-    <row r="23" spans="1:4" s="19" customFormat="1">
+    <row r="23" spans="1:4" s="18" customFormat="1">
       <c r="A23" s="17">
         <v>21</v>
       </c>
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="1:4" s="19" customFormat="1">
+    <row r="24" spans="1:4" s="18" customFormat="1">
       <c r="A24" s="17">
         <v>22</v>
       </c>
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:4" s="19" customFormat="1">
+    <row r="25" spans="1:4" s="18" customFormat="1">
       <c r="A25" s="17">
         <v>23</v>
       </c>
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="1:4" s="19" customFormat="1">
+    <row r="26" spans="1:4" s="18" customFormat="1">
       <c r="A26" s="17">
         <v>24</v>
       </c>
       <c r="B26" s="10">
         <v>1</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="18">
         <v>1500</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="18" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="19" customFormat="1">
+    <row r="27" spans="1:4" s="18" customFormat="1">
       <c r="A27" s="17">
         <v>25</v>
       </c>
       <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="1:4" s="19" customFormat="1">
+    <row r="28" spans="1:4" s="18" customFormat="1">
       <c r="A28" s="17">
         <v>26</v>
       </c>
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:4" s="19" customFormat="1">
+    <row r="29" spans="1:4" s="18" customFormat="1">
       <c r="A29" s="17">
         <v>27</v>
       </c>
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="1:4" s="19" customFormat="1">
+    <row r="30" spans="1:4" s="18" customFormat="1">
       <c r="A30" s="17">
         <v>28</v>
       </c>
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:4" s="19" customFormat="1">
+    <row r="31" spans="1:4" s="18" customFormat="1">
       <c r="A31" s="17">
         <v>29</v>
       </c>
       <c r="B31" s="10">
         <v>1</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="18">
         <v>1200</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="18" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="19" customFormat="1">
+    <row r="32" spans="1:4" s="18" customFormat="1">
       <c r="A32" s="17">
         <v>30</v>
       </c>
       <c r="B32" s="10"/>
     </row>
-    <row r="33" spans="1:4" s="19" customFormat="1">
+    <row r="33" spans="1:4" s="18" customFormat="1">
       <c r="A33" s="17">
         <v>31</v>
       </c>
       <c r="B33" s="10"/>
     </row>
-    <row r="34" spans="1:4" s="19" customFormat="1">
+    <row r="34" spans="1:4" s="18" customFormat="1">
       <c r="A34" s="17">
         <v>32</v>
       </c>
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="1:4" s="19" customFormat="1">
+    <row r="35" spans="1:4" s="18" customFormat="1">
       <c r="A35" s="17">
         <v>33</v>
       </c>
       <c r="B35" s="10"/>
     </row>
-    <row r="36" spans="1:4" s="19" customFormat="1">
+    <row r="36" spans="1:4" s="18" customFormat="1">
       <c r="A36" s="17">
         <v>34</v>
       </c>
       <c r="B36" s="10">
         <v>1</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="18">
         <v>1300</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="18" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="19" customFormat="1">
+    <row r="37" spans="1:4" s="18" customFormat="1">
       <c r="A37" s="17">
         <v>35</v>
       </c>
       <c r="B37" s="10"/>
     </row>
-    <row r="38" spans="1:4" s="19" customFormat="1">
+    <row r="38" spans="1:4" s="18" customFormat="1">
       <c r="A38" s="17">
         <v>36</v>
       </c>
       <c r="B38" s="10">
         <v>1</v>
       </c>
-      <c r="C38" s="19">
+      <c r="C38" s="18">
         <v>1400</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="18" t="s">
         <v>399</v>
       </c>
     </row>

--- a/JobDataBase.xlsx
+++ b/JobDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Tru.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486D2329-6760-4252-9C62-8A38C0F14766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0648B97-FC97-4001-823A-B6E569A2C18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-100" windowWidth="19440" windowHeight="10320" tabRatio="584" activeTab="4" xr2:uid="{A08060C5-6DB5-47FF-9FD6-AEE60E0AAE86}"/>
+    <workbookView xWindow="-19310" yWindow="-90" windowWidth="19420" windowHeight="10300" tabRatio="584" activeTab="6" xr2:uid="{A08060C5-6DB5-47FF-9FD6-AEE60E0AAE86}"/>
   </bookViews>
   <sheets>
     <sheet name="黑暗卡資料" sheetId="2" r:id="rId1"/>
@@ -870,23 +870,26 @@
   <connection id="23" xr16:uid="{A596FE58-1742-4EA9-BE3C-30255194A2C7}" name="LargeGreat6" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\User\Desktop\Tru.4\DataBase\基底\LargeGreat.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="24" xr16:uid="{663FE3B5-6CA8-4904-931A-38EFB41194BA}" name="LittleGreat" type="4" refreshedVersion="0" background="1">
+  <connection id="24" xr16:uid="{74C42A89-E215-4189-A378-298CB681BEA2}" name="Learning" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\User\Desktop\Tru.4\DataBase\基底\Learning.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="25" xr16:uid="{663FE3B5-6CA8-4904-931A-38EFB41194BA}" name="LittleGreat" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\工作\LittleGreat.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="25" xr16:uid="{C5AAB932-CAA4-487B-9682-6F2FD8749E22}" name="LittleGreat1" type="4" refreshedVersion="0" background="1">
+  <connection id="26" xr16:uid="{C5AAB932-CAA4-487B-9682-6F2FD8749E22}" name="LittleGreat1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\工作\LittleGreat.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="26" xr16:uid="{4735DF61-537A-46D2-A76D-DDA4B37DB44A}" name="LittleGreat2" type="4" refreshedVersion="0" background="1">
+  <connection id="27" xr16:uid="{4735DF61-537A-46D2-A76D-DDA4B37DB44A}" name="LittleGreat2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\User\Desktop\Tru.4\DataBase\基底\LittleGreat.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="27" xr16:uid="{48A16D77-48D8-4115-80FA-CD884A67C0DD}" name="LittleLuck" type="4" refreshedVersion="0" background="1">
+  <connection id="28" xr16:uid="{48A16D77-48D8-4115-80FA-CD884A67C0DD}" name="LittleLuck" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\工作\LittleLuck.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="485">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1929,10 +1932,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MonthlyTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>項物名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1980,10 +1979,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OtherRequire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>系級球隊</t>
   </si>
   <si>
@@ -2082,9 +2077,6 @@
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
   </si>
   <si>
     <t>Description</t>
@@ -2565,7 +2557,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2641,6 +2633,13 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2682,7 +2681,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2773,17 +2772,584 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="64">
+  <dxfs count="80">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2936,148 +3502,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3602,6 +4026,42 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
+  <Schema ID="Schema7">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="LearningCardData">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" nillable="true" name="LearningCards" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="LearningCard" form="unqualified">
+                    <xsd:complexType>
+                      <xsd:sequence minOccurs="0">
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ID" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Type" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="BookNums" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="TotalCash" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="PersonRequire" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="UseTime" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="WeeklyTime" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MonthlyTime" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ConnectionPoint" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Punish_ConnectionPoint" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MonthNeeds" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Description" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="OtherRequire" form="unqualified"/>
+                      </xsd:sequence>
+                    </xsd:complexType>
+                  </xsd:element>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
   <Map ID="32" Name="CharactersData_Map" RootElement="CharactersData" SchemaID="Schema9" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
     <DataBinding FileBinding="true" ConnectionID="6" DataBindingLoadMode="1"/>
   </Map>
@@ -3611,11 +4071,14 @@
   <Map ID="40" Name="LargeGreatData_Map" RootElement="LargeGreatData" SchemaID="Schema8" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
     <DataBinding FileBinding="true" ConnectionID="23" DataBindingLoadMode="1"/>
   </Map>
+  <Map ID="46" Name="LearningCardData_Map" RootElement="LearningCardData" SchemaID="Schema7" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="24" DataBindingLoadMode="1"/>
+  </Map>
   <Map ID="41" Name="LittleGreatData_Map" RootElement="LittleGreatData" SchemaID="Schema10" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="26" DataBindingLoadMode="1"/>
+    <DataBinding FileBinding="true" ConnectionID="27" DataBindingLoadMode="1"/>
   </Map>
   <Map ID="14" Name="LittleLuckData_Map" RootElement="LittleLuckData" SchemaID="Schema11" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="27" DataBindingLoadMode="1"/>
+    <DataBinding FileBinding="true" ConnectionID="28" DataBindingLoadMode="1"/>
   </Map>
   <Map ID="45" Name="WorkDataBase_Map" RootElement="WorkDataBase" SchemaID="Schema13" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
     <DataBinding FileBinding="true" ConnectionID="16" DataBindingLoadMode="1"/>
@@ -3624,7 +4087,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E17D290B-C8C8-4691-B884-4C0B5391019E}" name="表格1" displayName="表格1" ref="A2:F17" tableType="xml" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62" connectionId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E17D290B-C8C8-4691-B884-4C0B5391019E}" name="表格1" displayName="表格1" ref="A2:F17" tableType="xml" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78" connectionId="12">
   <autoFilter ref="A2:F17" xr:uid="{E17D290B-C8C8-4691-B884-4C0B5391019E}">
     <filterColumn colId="5">
       <filters>
@@ -3633,22 +4096,22 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{9965917F-0B98-4776-B32C-A553A1DA885C}" uniqueName="ID" name="ID" dataDxfId="61">
+    <tableColumn id="1" xr3:uid="{9965917F-0B98-4776-B32C-A553A1DA885C}" uniqueName="ID" name="ID" dataDxfId="77">
       <xmlColumnPr mapId="33" xpath="/DarkCards/Cards/Card/ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{0B31CDE8-3F31-4172-BC4B-4B24EACECB50}" uniqueName="PunishTime" name="PunishTime" dataDxfId="60">
+    <tableColumn id="2" xr3:uid="{0B31CDE8-3F31-4172-BC4B-4B24EACECB50}" uniqueName="PunishTime" name="PunishTime" dataDxfId="76">
       <xmlColumnPr mapId="33" xpath="/DarkCards/Cards/Card/PunishTime" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FD5EE616-D6B0-4C1B-BD31-D400D22315FE}" uniqueName="PunishCash" name="PunishCash" dataDxfId="59">
+    <tableColumn id="3" xr3:uid="{FD5EE616-D6B0-4C1B-BD31-D400D22315FE}" uniqueName="PunishCash" name="PunishCash" dataDxfId="75">
       <xmlColumnPr mapId="33" xpath="/DarkCards/Cards/Card/PunishCash" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{97513991-1529-45C1-BEDB-11292DBE4EEF}" uniqueName="Suspended" name="Suspended" dataDxfId="58">
+    <tableColumn id="4" xr3:uid="{97513991-1529-45C1-BEDB-11292DBE4EEF}" uniqueName="Suspended" name="Suspended" dataDxfId="74">
       <xmlColumnPr mapId="33" xpath="/DarkCards/Cards/Card/Suspended" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6BB8F66B-E658-4FA1-8A0E-0129154BD341}" uniqueName="Description" name="Description" dataDxfId="57">
+    <tableColumn id="6" xr3:uid="{6BB8F66B-E658-4FA1-8A0E-0129154BD341}" uniqueName="Description" name="Description" dataDxfId="73">
       <xmlColumnPr mapId="33" xpath="/DarkCards/Cards/Card/Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C20DEF06-C593-4BE7-86E1-F0C47B236DA8}" uniqueName="OtherRequire" name="OtherRequire" dataDxfId="56">
+    <tableColumn id="5" xr3:uid="{C20DEF06-C593-4BE7-86E1-F0C47B236DA8}" uniqueName="OtherRequire" name="OtherRequire" dataDxfId="72">
       <xmlColumnPr mapId="33" xpath="/DarkCards/Cards/Card/OtherRequire" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3657,34 +4120,34 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5EEE68EA-7BC7-4E3E-92EA-07A450CF5882}" name="表格6" displayName="表格6" ref="A2:I19" tableType="xml" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54" connectionId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5EEE68EA-7BC7-4E3E-92EA-07A450CF5882}" name="表格6" displayName="表格6" ref="A2:I19" tableType="xml" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70" connectionId="23">
   <autoFilter ref="A2:I19" xr:uid="{5EEE68EA-7BC7-4E3E-92EA-07A450CF5882}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{4C9A12F3-C427-4573-96F6-97DA5F5E8FFE}" uniqueName="ID" name="ID" dataDxfId="53">
+    <tableColumn id="1" xr3:uid="{4C9A12F3-C427-4573-96F6-97DA5F5E8FFE}" uniqueName="ID" name="ID" dataDxfId="69">
       <xmlColumnPr mapId="40" xpath="/LargeGreatData/LargeGreats/LargeGreat/ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{A8710691-5DB5-4C13-A284-D4D5BA9D3566}" uniqueName="Name" name="Name" dataDxfId="52">
+    <tableColumn id="9" xr3:uid="{A8710691-5DB5-4C13-A284-D4D5BA9D3566}" uniqueName="Name" name="Name" dataDxfId="68">
       <xmlColumnPr mapId="40" xpath="/LargeGreatData/LargeGreats/LargeGreat/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{E5369D02-285D-4532-81FA-FDDDB9A6EE93}" uniqueName="TotalCash" name="TotalCash" dataDxfId="51">
+    <tableColumn id="2" xr3:uid="{E5369D02-285D-4532-81FA-FDDDB9A6EE93}" uniqueName="TotalCash" name="TotalCash" dataDxfId="67">
       <xmlColumnPr mapId="40" xpath="/LargeGreatData/LargeGreats/LargeGreat/TotalCash" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2D3F724A-867C-427B-8262-58438979C731}" uniqueName="Installment" name="Installment" dataDxfId="50">
+    <tableColumn id="3" xr3:uid="{2D3F724A-867C-427B-8262-58438979C731}" uniqueName="Installment" name="Installment" dataDxfId="66">
       <xmlColumnPr mapId="40" xpath="/LargeGreatData/LargeGreats/LargeGreat/Installment" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8B02AAFF-3AFA-4565-9E6E-DA89E60141D7}" uniqueName="MonthToPay" name="MonthToPay" dataDxfId="49">
+    <tableColumn id="4" xr3:uid="{8B02AAFF-3AFA-4565-9E6E-DA89E60141D7}" uniqueName="MonthToPay" name="MonthToPay" dataDxfId="65">
       <xmlColumnPr mapId="40" xpath="/LargeGreatData/LargeGreats/LargeGreat/MonthToPay" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D73DA5E0-9F7E-4FAD-8051-2F691FC17C5D}" uniqueName="CashPerMonth" name="CashPerMonth" dataDxfId="48">
+    <tableColumn id="5" xr3:uid="{D73DA5E0-9F7E-4FAD-8051-2F691FC17C5D}" uniqueName="CashPerMonth" name="CashPerMonth" dataDxfId="64">
       <xmlColumnPr mapId="40" xpath="/LargeGreatData/LargeGreats/LargeGreat/CashPerMonth" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DD97F88A-E7E2-4CB6-8D46-4541D1852655}" uniqueName="Description" name="Description" dataDxfId="47">
+    <tableColumn id="7" xr3:uid="{DD97F88A-E7E2-4CB6-8D46-4541D1852655}" uniqueName="Description" name="Description" dataDxfId="63">
       <xmlColumnPr mapId="40" xpath="/LargeGreatData/LargeGreats/LargeGreat/Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{30F5E13A-6148-486B-B762-B57F3470FDAB}" uniqueName="ConnectionPoint" name="ConnectionPoint" dataDxfId="46">
+    <tableColumn id="8" xr3:uid="{30F5E13A-6148-486B-B762-B57F3470FDAB}" uniqueName="ConnectionPoint" name="ConnectionPoint" dataDxfId="62">
       <xmlColumnPr mapId="40" xpath="/LargeGreatData/LargeGreats/LargeGreat/ConnectionPoint" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6C268A9A-7930-40CC-8E7B-2AC463DACAD1}" uniqueName="OtherRequire" name="OtherRequire" dataDxfId="45">
+    <tableColumn id="6" xr3:uid="{6C268A9A-7930-40CC-8E7B-2AC463DACAD1}" uniqueName="OtherRequire" name="OtherRequire" dataDxfId="61">
       <xmlColumnPr mapId="40" xpath="/LargeGreatData/LargeGreats/LargeGreat/OtherRequire" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3693,28 +4156,28 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{01098721-9802-42F8-9529-C303B6430AE2}" name="表格8" displayName="表格8" ref="A2:G64" tableType="xml" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" connectionId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{01098721-9802-42F8-9529-C303B6430AE2}" name="表格8" displayName="表格8" ref="A2:G64" tableType="xml" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59" connectionId="27">
   <autoFilter ref="A2:G64" xr:uid="{01098721-9802-42F8-9529-C303B6430AE2}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D6F0BC58-CF5B-4566-9B11-E6453A6E8FE6}" uniqueName="ID" name="ID" dataDxfId="42">
+    <tableColumn id="1" xr3:uid="{D6F0BC58-CF5B-4566-9B11-E6453A6E8FE6}" uniqueName="ID" name="ID" dataDxfId="58">
       <xmlColumnPr mapId="41" xpath="/LittleGreatData/LittleGreats/LittleGreat/ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{52B47B62-CDC2-4B05-A698-BFE19E2B74FC}" uniqueName="TotalCash" name="TotalCash" dataDxfId="41">
+    <tableColumn id="2" xr3:uid="{52B47B62-CDC2-4B05-A698-BFE19E2B74FC}" uniqueName="TotalCash" name="TotalCash" dataDxfId="57">
       <xmlColumnPr mapId="41" xpath="/LittleGreatData/LittleGreats/LittleGreat/TotalCash" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1BBBBF5B-50EC-406F-ABAF-D72807E42359}" uniqueName="ConnectionPoint" name="ConnectionPoint" dataDxfId="40">
+    <tableColumn id="3" xr3:uid="{1BBBBF5B-50EC-406F-ABAF-D72807E42359}" uniqueName="ConnectionPoint" name="ConnectionPoint" dataDxfId="56">
       <xmlColumnPr mapId="41" xpath="/LittleGreatData/LittleGreats/LittleGreat/ConnectionPoint" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{EB2469EE-487C-48ED-8BBB-6F2EFC7EAD54}" uniqueName="TotalTime" name="TotalTime" dataDxfId="39">
+    <tableColumn id="4" xr3:uid="{EB2469EE-487C-48ED-8BBB-6F2EFC7EAD54}" uniqueName="TotalTime" name="TotalTime" dataDxfId="55">
       <xmlColumnPr mapId="41" xpath="/LittleGreatData/LittleGreats/LittleGreat/TotalTime" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A51DB3BC-583A-4FA6-A377-7A11ED185AE0}" uniqueName="Description" name="Description" dataDxfId="38">
+    <tableColumn id="6" xr3:uid="{A51DB3BC-583A-4FA6-A377-7A11ED185AE0}" uniqueName="Description" name="Description" dataDxfId="54">
       <xmlColumnPr mapId="41" xpath="/LittleGreatData/LittleGreats/LittleGreat/Description" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{A37AD388-B666-4BFC-AB78-74EB0050A795}" uniqueName="ContinuedTime" name="ContinuedTime">
       <xmlColumnPr mapId="41" xpath="/LittleGreatData/LittleGreats/LittleGreat/ContinuedTime" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{76222A9E-EDCC-4946-A69A-4CAD6222BB8A}" uniqueName="OtherRequire" name="OtherRequire" dataDxfId="37">
+    <tableColumn id="5" xr3:uid="{76222A9E-EDCC-4946-A69A-4CAD6222BB8A}" uniqueName="OtherRequire" name="OtherRequire" dataDxfId="53">
       <xmlColumnPr mapId="41" xpath="/LittleGreatData/LittleGreats/LittleGreat/OtherRequire" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3723,7 +4186,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FE234666-264F-409A-8A44-E8E0C2C62ED2}" name="表格9" displayName="表格9" ref="A2:E18" tableType="xml" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" connectionId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FE234666-264F-409A-8A44-E8E0C2C62ED2}" name="表格9" displayName="表格9" ref="A2:E18" tableType="xml" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51" connectionId="28">
   <autoFilter ref="A2:E18" xr:uid="{FE234666-264F-409A-8A44-E8E0C2C62ED2}">
     <filterColumn colId="4">
       <filters>
@@ -3732,19 +4195,19 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D8597987-CBB0-4023-A70B-9CC4147467D0}" uniqueName="ID" name="ID" dataDxfId="34">
+    <tableColumn id="1" xr3:uid="{D8597987-CBB0-4023-A70B-9CC4147467D0}" uniqueName="ID" name="ID" dataDxfId="50">
       <xmlColumnPr mapId="14" xpath="/LittleLuckData/LittleLuck/ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{FB48B4C8-B260-4DD6-B5CA-720E0872EBE3}" uniqueName="TotalCash" name="TotalCash" dataDxfId="33">
+    <tableColumn id="2" xr3:uid="{FB48B4C8-B260-4DD6-B5CA-720E0872EBE3}" uniqueName="TotalCash" name="TotalCash" dataDxfId="49">
       <xmlColumnPr mapId="14" xpath="/LittleLuckData/LittleLuck/TotalCash" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F8D9E09E-AA6D-4640-9562-6A8395A69B54}" uniqueName="BookNeeds" name="BookNeeds" dataDxfId="32">
+    <tableColumn id="3" xr3:uid="{F8D9E09E-AA6D-4640-9562-6A8395A69B54}" uniqueName="BookNeeds" name="BookNeeds" dataDxfId="48">
       <xmlColumnPr mapId="14" xpath="/LittleLuckData/LittleLuck/BookNeeds" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{02C0CDAE-192D-4CA2-9E0B-F24B04D305F6}" uniqueName="RelationshipPointNeeds" name="RelationshipPointNeeds" dataDxfId="31">
+    <tableColumn id="4" xr3:uid="{02C0CDAE-192D-4CA2-9E0B-F24B04D305F6}" uniqueName="RelationshipPointNeeds" name="RelationshipPointNeeds" dataDxfId="47">
       <xmlColumnPr mapId="14" xpath="/LittleLuckData/LittleLuck/RelationshipPointNeeds" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8E6D30CE-F566-4462-A1A0-4B38E811F710}" uniqueName="OtherRequire" name="OtherRequire" dataDxfId="30">
+    <tableColumn id="5" xr3:uid="{8E6D30CE-F566-4462-A1A0-4B38E811F710}" uniqueName="OtherRequire" name="OtherRequire" dataDxfId="46">
       <xmlColumnPr mapId="14" xpath="/LittleLuckData/LittleLuck/OtherRequire" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3753,7 +4216,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{4A1B4344-A6AD-4675-AE5A-79750CCE0C9E}" name="表格19" displayName="表格19" ref="A2:N33" tableType="xml" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" connectionId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{4A1B4344-A6AD-4675-AE5A-79750CCE0C9E}" name="表格19" displayName="表格19" ref="A2:N33" tableType="xml" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44" connectionId="16">
   <autoFilter ref="A2:N33" xr:uid="{4A1B4344-A6AD-4675-AE5A-79750CCE0C9E}">
     <filterColumn colId="12">
       <filters>
@@ -3762,46 +4225,46 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{05240DE6-B2D5-424E-B8E7-91CF6F180FE7}" uniqueName="ID" name="ID" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{05240DE6-B2D5-424E-B8E7-91CF6F180FE7}" uniqueName="ID" name="ID" dataDxfId="43">
       <xmlColumnPr mapId="45" xpath="/WorkDataBase/Works/Work/ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{1C5C3DFC-E4A3-44DC-9013-6AB53FD49AC8}" uniqueName="Name" name="Name" dataDxfId="12">
+    <tableColumn id="2" xr3:uid="{1C5C3DFC-E4A3-44DC-9013-6AB53FD49AC8}" uniqueName="Name" name="Name" dataDxfId="42">
       <xmlColumnPr mapId="45" xpath="/WorkDataBase/Works/Work/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{78C4F42B-74AE-417E-B663-C9189C1BF2C8}" uniqueName="Post" name="Post" dataDxfId="11">
+    <tableColumn id="3" xr3:uid="{78C4F42B-74AE-417E-B663-C9189C1BF2C8}" uniqueName="Post" name="Post" dataDxfId="41">
       <xmlColumnPr mapId="45" xpath="/WorkDataBase/Works/Work/Post" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{65040293-4B9A-4A0D-BE16-1B22B3624CE6}" uniqueName="PersonRequire" name="PersonRequire" dataDxfId="10">
+    <tableColumn id="4" xr3:uid="{65040293-4B9A-4A0D-BE16-1B22B3624CE6}" uniqueName="PersonRequire" name="PersonRequire" dataDxfId="40">
       <xmlColumnPr mapId="45" xpath="/WorkDataBase/Works/Work/PersonRequire" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B1193EE9-D4C7-47C3-BAA2-D7E95D627F5B}" uniqueName="StartMonth" name="StartMonth" dataDxfId="9">
+    <tableColumn id="5" xr3:uid="{B1193EE9-D4C7-47C3-BAA2-D7E95D627F5B}" uniqueName="StartMonth" name="StartMonth" dataDxfId="39">
       <xmlColumnPr mapId="45" xpath="/WorkDataBase/Works/Work/StartMonth" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{31DB3E11-1DCB-4784-9602-85AA29DCAFF3}" uniqueName="EndMonth" name="EndMonth" dataDxfId="8">
+    <tableColumn id="6" xr3:uid="{31DB3E11-1DCB-4784-9602-85AA29DCAFF3}" uniqueName="EndMonth" name="EndMonth" dataDxfId="38">
       <xmlColumnPr mapId="45" xpath="/WorkDataBase/Works/Work/EndMonth" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{CA97C32B-5122-45FE-A661-E8406569B4EE}" uniqueName="HourlySalary" name="HourlySalary" dataDxfId="7">
+    <tableColumn id="7" xr3:uid="{CA97C32B-5122-45FE-A661-E8406569B4EE}" uniqueName="HourlySalary" name="HourlySalary" dataDxfId="37">
       <xmlColumnPr mapId="45" xpath="/WorkDataBase/Works/Work/HourlySalary" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{146C5670-0ED4-4EBB-BE52-8192F3F522BE}" uniqueName="MonthlySalary" name="MonthlySalary" dataDxfId="6">
+    <tableColumn id="8" xr3:uid="{146C5670-0ED4-4EBB-BE52-8192F3F522BE}" uniqueName="MonthlySalary" name="MonthlySalary" dataDxfId="36">
       <xmlColumnPr mapId="45" xpath="/WorkDataBase/Works/Work/MonthlySalary" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D9897E5B-3376-44D7-A68F-3A68B76104E9}" uniqueName="AnnualSalary" name="AnnualSalary" dataDxfId="5">
+    <tableColumn id="9" xr3:uid="{D9897E5B-3376-44D7-A68F-3A68B76104E9}" uniqueName="AnnualSalary" name="AnnualSalary" dataDxfId="35">
       <xmlColumnPr mapId="45" xpath="/WorkDataBase/Works/Work/AnnualSalary" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{8FF8F675-CE3C-4EE5-8FDE-B39A06B9BBF2}" uniqueName="WeeklyTime" name="WeeklyTime" dataDxfId="4">
+    <tableColumn id="10" xr3:uid="{8FF8F675-CE3C-4EE5-8FDE-B39A06B9BBF2}" uniqueName="WeeklyTime" name="WeeklyTime" dataDxfId="34">
       <xmlColumnPr mapId="45" xpath="/WorkDataBase/Works/Work/WeeklyTime" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{CB7B846A-AA9A-4E90-9FC9-D6AA4018F4CA}" uniqueName="MonthlyTime" name="MonthlyTime" dataDxfId="3">
+    <tableColumn id="11" xr3:uid="{CB7B846A-AA9A-4E90-9FC9-D6AA4018F4CA}" uniqueName="MonthlyTime" name="MonthlyTime" dataDxfId="33">
       <xmlColumnPr mapId="45" xpath="/WorkDataBase/Works/Work/MonthlyTime" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{969FA5E6-DAEB-4C04-9F8F-2E6F0D75FF9E}" uniqueName="MonthlyRequire" name="MonthlyRequire" dataDxfId="2">
+    <tableColumn id="12" xr3:uid="{969FA5E6-DAEB-4C04-9F8F-2E6F0D75FF9E}" uniqueName="MonthlyRequire" name="MonthlyRequire" dataDxfId="32">
       <xmlColumnPr mapId="45" xpath="/WorkDataBase/Works/Work/MonthlyRequire" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{E9D82839-CC1B-4D21-B347-AD0C4769B1FF}" uniqueName="OtherRequire" name="OtherRequire" dataDxfId="1">
+    <tableColumn id="13" xr3:uid="{E9D82839-CC1B-4D21-B347-AD0C4769B1FF}" uniqueName="OtherRequire" name="OtherRequire" dataDxfId="31">
       <xmlColumnPr mapId="45" xpath="/WorkDataBase/Works/Work/OtherRequire" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{BF843B91-2917-4931-B879-9AA5276123A6}" uniqueName="Description" name="Description" dataDxfId="0">
+    <tableColumn id="14" xr3:uid="{BF843B91-2917-4931-B879-9AA5276123A6}" uniqueName="Description" name="Description" dataDxfId="30">
       <xmlColumnPr mapId="45" xpath="/WorkDataBase/Works/Work/Description" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3851,6 +4314,57 @@
     </tableColumn>
     <tableColumn id="2" xr3:uid="{B6916EF1-599A-4400-BCFF-8D91C80C1BD9}" uniqueName="ConnectionPoint" name="ConnectionPoint" dataDxfId="16">
       <xmlColumnPr mapId="32" xpath="/CharactersData/Characters/Character/ConnectionPoint" xmlDataType="string"/>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DBD2DE6D-5381-4646-BD7C-0F86AAF5E964}" name="表格3" displayName="表格3" ref="A2:N37" tableType="xml" totalsRowShown="0" headerRowDxfId="14" dataDxfId="15" connectionId="24">
+  <autoFilter ref="A2:N37" xr:uid="{DBD2DE6D-5381-4646-BD7C-0F86AAF5E964}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{B230C640-7638-4BC0-BF45-111D1AAEAA6A}" uniqueName="ID" name="ID" dataDxfId="13">
+      <xmlColumnPr mapId="46" xpath="/LearningCardData/LearningCards/LearningCard/ID" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{E96F515D-B927-4798-A0A4-2266AB09CC70}" uniqueName="Type" name="Type" dataDxfId="12">
+      <xmlColumnPr mapId="46" xpath="/LearningCardData/LearningCards/LearningCard/Type" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{CBA6D924-A9A7-4BC8-A47D-78CCDD8E6C18}" uniqueName="Name" name="Name" dataDxfId="11">
+      <xmlColumnPr mapId="46" xpath="/LearningCardData/LearningCards/LearningCard/Name" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{97555C8C-B72E-4E66-8C43-9E2DA3C261EE}" uniqueName="BookNums" name="BookNums" dataDxfId="10">
+      <xmlColumnPr mapId="46" xpath="/LearningCardData/LearningCards/LearningCard/BookNums" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{31534D40-4A8E-4F5F-B56D-BC7CDFDEF3CD}" uniqueName="TotalCash" name="TotalCash" dataDxfId="9">
+      <xmlColumnPr mapId="46" xpath="/LearningCardData/LearningCards/LearningCard/TotalCash" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{D0BFE3F5-5729-497D-A214-56063D519C2F}" uniqueName="PersonRequire" name="PersonRequire" dataDxfId="8">
+      <xmlColumnPr mapId="46" xpath="/LearningCardData/LearningCards/LearningCard/PersonRequire" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{B157FD91-BB48-4BE9-9B7E-8A9EBBA9CCFA}" uniqueName="UseTime" name="UseTime" dataDxfId="7">
+      <xmlColumnPr mapId="46" xpath="/LearningCardData/LearningCards/LearningCard/UseTime" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{B1F88F35-178C-4337-BD72-D2B81BFB3193}" uniqueName="WeeklyTime" name="WeeklyTime" dataDxfId="6">
+      <xmlColumnPr mapId="46" xpath="/LearningCardData/LearningCards/LearningCard/WeeklyTime" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{BA57CEBE-616A-4BCA-BDFD-E9550C7002FD}" uniqueName="MonthlyTime" name="MonthlyTime" dataDxfId="5">
+      <xmlColumnPr mapId="46" xpath="/LearningCardData/LearningCards/LearningCard/MonthlyTime" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{87F83F51-00BD-4D12-8A33-F44179CB824B}" uniqueName="ConnectionPoint" name="ConnectionPoint" dataDxfId="4">
+      <xmlColumnPr mapId="46" xpath="/LearningCardData/LearningCards/LearningCard/ConnectionPoint" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{E07493C8-7D3C-4F79-B540-5CD50CC1F2BE}" uniqueName="Punish_ConnectionPoint" name="Punish_ConnectionPoint" dataDxfId="3">
+      <xmlColumnPr mapId="46" xpath="/LearningCardData/LearningCards/LearningCard/Punish_ConnectionPoint" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{813B6F72-E4A3-4E65-A935-5C935159BB3A}" uniqueName="MonthNeeds" name="MonthNeeds" dataDxfId="2">
+      <xmlColumnPr mapId="46" xpath="/LearningCardData/LearningCards/LearningCard/MonthNeeds" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{5D91A2EE-95D2-4F00-A5D0-8799A820983E}" uniqueName="Description" name="Description" dataDxfId="1">
+      <xmlColumnPr mapId="46" xpath="/LearningCardData/LearningCards/LearningCard/Description" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{3D228128-3313-4C3E-9219-84FF214F0CBF}" uniqueName="OtherRequire" name="OtherRequire" dataDxfId="0">
+      <xmlColumnPr mapId="46" xpath="/LearningCardData/LearningCards/LearningCard/OtherRequire" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4190,7 +4704,7 @@
         <v>84</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>20</v>
@@ -4210,7 +4724,7 @@
         <v>87</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>11</v>
@@ -4230,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F3" s="5">
         <v>0</v>
@@ -4250,7 +4764,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
@@ -4270,7 +4784,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
@@ -4290,7 +4804,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
@@ -4313,7 +4827,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
@@ -4336,7 +4850,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
@@ -4356,7 +4870,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -4379,7 +4893,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F10" s="5">
         <v>0</v>
@@ -4399,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F11" s="5">
         <v>0</v>
@@ -4419,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F12" s="5">
         <v>0</v>
@@ -4439,7 +4953,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F13" s="5">
         <v>0</v>
@@ -4459,13 +4973,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F14" s="5">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:8" hidden="1">
@@ -4482,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F15" s="5">
         <v>1</v>
@@ -4505,7 +5019,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F16" s="5">
         <v>0</v>
@@ -4525,7 +5039,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F17" s="5">
         <v>0</v>
@@ -4575,7 +5089,7 @@
         <v>141</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>142</v>
@@ -4590,10 +5104,10 @@
         <v>145</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>146</v>
@@ -4619,7 +5133,7 @@
         <v>150</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H2" s="14" t="s">
         <v>127</v>
@@ -4633,7 +5147,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C3" s="15">
         <v>4800</v>
@@ -4648,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H3" s="15">
         <v>0</v>
@@ -4662,7 +5176,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C4" s="15">
         <v>30000</v>
@@ -4677,7 +5191,7 @@
         <v>3000</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H4" s="15">
         <v>0</v>
@@ -4691,7 +5205,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C5" s="15">
         <v>22000</v>
@@ -4706,7 +5220,7 @@
         <v>2900</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H5" s="15">
         <v>0</v>
@@ -4720,7 +5234,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C6" s="15">
         <v>26000</v>
@@ -4735,7 +5249,7 @@
         <v>2500</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H6" s="15">
         <v>0</v>
@@ -4749,7 +5263,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C7" s="15">
         <v>7800</v>
@@ -4764,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H7" s="15">
         <v>0</v>
@@ -4778,7 +5292,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C8" s="15">
         <v>14900</v>
@@ -4793,7 +5307,7 @@
         <v>2800</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H8" s="15">
         <v>0</v>
@@ -4807,7 +5321,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C9" s="15">
         <v>4500</v>
@@ -4822,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H9" s="15">
         <v>0</v>
@@ -4836,7 +5350,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C10" s="15">
         <v>4200</v>
@@ -4851,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H10" s="15">
         <v>3</v>
@@ -4865,7 +5379,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C11" s="15">
         <v>19800</v>
@@ -4880,7 +5394,7 @@
         <v>2970</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H11" s="15">
         <v>0</v>
@@ -4894,7 +5408,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C12" s="15">
         <v>3800</v>
@@ -4909,7 +5423,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H12" s="15">
         <v>0</v>
@@ -4923,7 +5437,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C13" s="26">
         <v>0</v>
@@ -4938,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H13" s="26">
         <v>0</v>
@@ -4955,7 +5469,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C14" s="15">
         <v>15000</v>
@@ -4970,7 +5484,7 @@
         <v>3600</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H14" s="15">
         <v>0</v>
@@ -4984,7 +5498,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C15" s="15">
         <v>35000</v>
@@ -4999,7 +5513,7 @@
         <v>3300</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="H15" s="15">
         <v>0</v>
@@ -5013,7 +5527,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C16" s="15">
         <v>8500</v>
@@ -5028,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H16" s="15">
         <v>0</v>
@@ -5042,7 +5556,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C17" s="15">
         <v>15500</v>
@@ -5057,7 +5571,7 @@
         <v>3300</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H17" s="15">
         <v>0</v>
@@ -5071,13 +5585,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C18" s="26">
         <v>0</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E18" s="26">
         <v>0</v>
@@ -5086,7 +5600,7 @@
         <v>1680</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H18" s="26">
         <v>0</v>
@@ -5103,7 +5617,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C19" s="15">
         <v>30000</v>
@@ -5118,7 +5632,7 @@
         <v>3000</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H19" s="15">
         <v>0</v>
@@ -5190,10 +5704,10 @@
         <v>154</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>20</v>
@@ -5213,10 +5727,10 @@
         <v>155</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>11</v>
@@ -5397,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F10" s="27">
         <v>0</v>
@@ -5771,7 +6285,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F26" s="24">
         <v>1</v>
@@ -6992,7 +7506,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>243</v>
@@ -7084,7 +7598,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>247</v>
@@ -7113,7 +7627,7 @@
   </sheetPr>
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -7180,7 +7694,7 @@
         <v>20</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1">
@@ -7224,7 +7738,7 @@
         <v>11</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:15" hidden="1">
@@ -7268,7 +7782,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4" spans="1:15" hidden="1">
@@ -7312,7 +7826,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="28" customFormat="1">
@@ -7356,7 +7870,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="26" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="O5" s="28" t="s">
         <v>40</v>
@@ -7403,7 +7917,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="26" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="O6" s="28" t="s">
         <v>41</v>
@@ -7450,7 +7964,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="28" customFormat="1">
@@ -7488,13 +8002,13 @@
         <v>20</v>
       </c>
       <c r="L8" s="26" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M8" s="26">
         <v>1</v>
       </c>
       <c r="N8" s="26" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="O8" s="28" t="s">
         <v>42</v>
@@ -7541,7 +8055,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="26" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="O9" s="28" t="s">
         <v>43</v>
@@ -7588,7 +8102,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="26" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="O10" s="28" t="s">
         <v>44</v>
@@ -7635,7 +8149,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="28" customFormat="1">
@@ -7679,7 +8193,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="26" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="O12" s="28" t="s">
         <v>45</v>
@@ -7726,7 +8240,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="26" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="O13" s="28" t="s">
         <v>48</v>
@@ -7773,7 +8287,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="26" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="O14" s="28" t="s">
         <v>51</v>
@@ -7820,7 +8334,7 @@
         <v>1</v>
       </c>
       <c r="N15" s="26" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="O15" s="28" t="s">
         <v>53</v>
@@ -7867,7 +8381,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="28" customFormat="1">
@@ -7911,7 +8425,7 @@
         <v>1</v>
       </c>
       <c r="N17" s="26" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="O17" s="28" t="s">
         <v>57</v>
@@ -7958,7 +8472,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="28" customFormat="1">
@@ -8002,7 +8516,7 @@
         <v>1</v>
       </c>
       <c r="N19" s="26" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="O19" s="28" t="s">
         <v>61</v>
@@ -8049,7 +8563,7 @@
         <v>1</v>
       </c>
       <c r="N20" s="26" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="O20" s="28" t="s">
         <v>63</v>
@@ -8096,7 +8610,7 @@
         <v>1</v>
       </c>
       <c r="N21" s="26" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="O21" s="28" t="s">
         <v>65</v>
@@ -8143,7 +8657,7 @@
         <v>1</v>
       </c>
       <c r="N22" s="26" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="O22" s="28" t="s">
         <v>68</v>
@@ -8190,7 +8704,7 @@
         <v>1</v>
       </c>
       <c r="N23" s="26" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="O23" s="28" t="s">
         <v>70</v>
@@ -8237,7 +8751,7 @@
         <v>1</v>
       </c>
       <c r="N24" s="26" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="O24" s="28" t="s">
         <v>72</v>
@@ -8284,7 +8798,7 @@
         <v>1</v>
       </c>
       <c r="N25" s="26" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="O25" s="28" t="s">
         <v>74</v>
@@ -8331,7 +8845,7 @@
         <v>1</v>
       </c>
       <c r="N26" s="26" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="O26" s="28" t="s">
         <v>79</v>
@@ -8378,7 +8892,7 @@
         <v>1</v>
       </c>
       <c r="N27" s="26" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="O27" s="28" t="s">
         <v>81</v>
@@ -8419,7 +8933,7 @@
         <v>32</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="M28" s="9">
         <v>0</v>
@@ -9126,7 +9640,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F11" s="9">
         <v>2000</v>
@@ -9161,7 +9675,7 @@
         <v>110</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>260</v>
@@ -9566,7 +10080,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F21" s="9">
         <v>2000</v>
@@ -9656,28 +10170,29 @@
   </sheetPr>
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="8"/>
-    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="36.77734375" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1">
@@ -9688,10 +10203,10 @@
         <v>294</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>296</v>
@@ -9712,16 +10227,16 @@
         <v>300</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1">
@@ -9731,11 +10246,11 @@
       <c r="B2" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>138</v>
@@ -9750,7 +10265,7 @@
         <v>303</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>305</v>
+        <v>9</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>127</v>
@@ -9759,1561 +10274,1561 @@
         <v>301</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="30">
+        <v>1</v>
+      </c>
+      <c r="B3" s="32">
+        <v>1</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="D3" s="32">
+        <v>1</v>
+      </c>
+      <c r="E3" s="32">
+        <v>250</v>
+      </c>
+      <c r="F3" s="32">
+        <v>0</v>
+      </c>
+      <c r="G3" s="32">
+        <v>0</v>
+      </c>
+      <c r="H3" s="32">
+        <v>0</v>
+      </c>
+      <c r="I3" s="32">
+        <v>0</v>
+      </c>
+      <c r="J3" s="32">
+        <v>0</v>
+      </c>
+      <c r="K3" s="32">
+        <v>0</v>
+      </c>
+      <c r="L3" s="32">
+        <v>0</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="N3" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="30">
+        <v>2</v>
+      </c>
+      <c r="B4" s="32">
+        <v>2</v>
+      </c>
+      <c r="C4" s="32" t="s">
         <v>309</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="D4" s="32">
+        <v>0</v>
+      </c>
+      <c r="E4" s="32">
+        <v>0</v>
+      </c>
+      <c r="F4" s="32">
+        <v>1</v>
+      </c>
+      <c r="G4" s="32">
+        <v>1</v>
+      </c>
+      <c r="H4" s="32">
+        <v>5</v>
+      </c>
+      <c r="I4" s="32">
+        <v>20</v>
+      </c>
+      <c r="J4" s="32">
+        <v>5</v>
+      </c>
+      <c r="K4" s="32">
+        <v>8</v>
+      </c>
+      <c r="L4" s="32">
+        <v>1</v>
+      </c>
+      <c r="M4" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="N4" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="30">
+        <v>3</v>
+      </c>
+      <c r="B5" s="32">
+        <v>3</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="D5" s="32">
+        <v>0</v>
+      </c>
+      <c r="E5" s="32">
+        <v>1600</v>
+      </c>
+      <c r="F5" s="32">
+        <v>1</v>
+      </c>
+      <c r="G5" s="32">
+        <v>1</v>
+      </c>
+      <c r="H5" s="32">
+        <v>15</v>
+      </c>
+      <c r="I5" s="32">
+        <v>60</v>
+      </c>
+      <c r="J5" s="32">
+        <v>0</v>
+      </c>
+      <c r="K5" s="32">
+        <v>0</v>
+      </c>
+      <c r="L5" s="32">
+        <v>4</v>
+      </c>
+      <c r="M5" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="N5" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="30">
+        <v>4</v>
+      </c>
+      <c r="B6" s="32">
+        <v>4</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="D6" s="32">
+        <v>0</v>
+      </c>
+      <c r="E6" s="32">
+        <v>0</v>
+      </c>
+      <c r="F6" s="32">
+        <v>0</v>
+      </c>
+      <c r="G6" s="32">
+        <v>1</v>
+      </c>
+      <c r="H6" s="32">
+        <v>6</v>
+      </c>
+      <c r="I6" s="32">
+        <v>24</v>
+      </c>
+      <c r="J6" s="32">
+        <v>0</v>
+      </c>
+      <c r="K6" s="32">
+        <v>0</v>
+      </c>
+      <c r="L6" s="32">
+        <v>-1</v>
+      </c>
+      <c r="M6" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="N6" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="30">
+        <v>5</v>
+      </c>
+      <c r="B7" s="32">
+        <v>5</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="D7" s="32">
+        <v>0</v>
+      </c>
+      <c r="E7" s="32">
+        <v>0</v>
+      </c>
+      <c r="F7" s="32">
+        <v>0</v>
+      </c>
+      <c r="G7" s="32">
+        <v>1</v>
+      </c>
+      <c r="H7" s="32">
+        <v>5</v>
+      </c>
+      <c r="I7" s="32">
+        <v>20</v>
+      </c>
+      <c r="J7" s="32">
+        <v>0</v>
+      </c>
+      <c r="K7" s="32">
+        <v>0</v>
+      </c>
+      <c r="L7" s="32">
+        <v>1</v>
+      </c>
+      <c r="M7" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="N7" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="30">
+        <v>6</v>
+      </c>
+      <c r="B8" s="32">
+        <v>6</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="D8" s="32">
+        <v>0</v>
+      </c>
+      <c r="E8" s="32">
+        <v>0</v>
+      </c>
+      <c r="F8" s="32">
+        <v>1</v>
+      </c>
+      <c r="G8" s="32">
+        <v>1</v>
+      </c>
+      <c r="H8" s="32">
+        <v>0</v>
+      </c>
+      <c r="I8" s="32">
+        <v>8</v>
+      </c>
+      <c r="J8" s="32">
+        <v>5</v>
+      </c>
+      <c r="K8" s="32">
+        <v>0</v>
+      </c>
+      <c r="L8" s="32">
+        <v>1</v>
+      </c>
+      <c r="M8" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="N8" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="28" customFormat="1">
+      <c r="A9" s="31">
+        <v>7</v>
+      </c>
+      <c r="B9" s="31">
+        <v>5</v>
+      </c>
+      <c r="C9" s="33">
+        <v>1</v>
+      </c>
+      <c r="D9" s="31">
+        <v>0</v>
+      </c>
+      <c r="E9" s="31">
+        <v>500</v>
+      </c>
+      <c r="F9" s="31">
+        <v>0</v>
+      </c>
+      <c r="G9" s="31">
+        <v>1</v>
+      </c>
+      <c r="H9" s="31">
+        <v>6</v>
+      </c>
+      <c r="I9" s="31">
+        <v>24</v>
+      </c>
+      <c r="J9" s="31">
+        <v>0</v>
+      </c>
+      <c r="K9" s="31">
+        <v>0</v>
+      </c>
+      <c r="L9" s="31">
+        <v>1</v>
+      </c>
+      <c r="M9" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="N9" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="30">
+        <v>8</v>
+      </c>
+      <c r="B10" s="32">
+        <v>6</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="D10" s="32">
+        <v>0</v>
+      </c>
+      <c r="E10" s="32">
+        <v>0</v>
+      </c>
+      <c r="F10" s="32">
+        <v>1</v>
+      </c>
+      <c r="G10" s="32">
+        <v>1</v>
+      </c>
+      <c r="H10" s="32">
+        <v>0</v>
+      </c>
+      <c r="I10" s="32">
+        <v>20</v>
+      </c>
+      <c r="J10" s="32">
+        <v>5</v>
+      </c>
+      <c r="K10" s="32">
+        <v>8</v>
+      </c>
+      <c r="L10" s="32">
+        <v>12</v>
+      </c>
+      <c r="M10" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="N10" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="30">
+        <v>9</v>
+      </c>
+      <c r="B11" s="32">
+        <v>6</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="D11" s="32">
+        <v>0</v>
+      </c>
+      <c r="E11" s="32">
+        <v>0</v>
+      </c>
+      <c r="F11" s="32">
+        <v>1</v>
+      </c>
+      <c r="G11" s="32">
+        <v>1</v>
+      </c>
+      <c r="H11" s="32">
+        <v>0</v>
+      </c>
+      <c r="I11" s="32">
+        <v>6</v>
+      </c>
+      <c r="J11" s="32">
+        <v>0</v>
+      </c>
+      <c r="K11" s="32">
+        <v>0</v>
+      </c>
+      <c r="L11" s="32">
+        <v>1</v>
+      </c>
+      <c r="M11" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="N11" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="30">
+        <v>10</v>
+      </c>
+      <c r="B12" s="32">
+        <v>6</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="D12" s="32">
+        <v>0</v>
+      </c>
+      <c r="E12" s="32">
+        <v>0</v>
+      </c>
+      <c r="F12" s="32">
+        <v>1</v>
+      </c>
+      <c r="G12" s="32">
+        <v>1</v>
+      </c>
+      <c r="H12" s="32">
+        <v>0</v>
+      </c>
+      <c r="I12" s="32">
+        <v>15</v>
+      </c>
+      <c r="J12" s="32">
+        <v>3</v>
+      </c>
+      <c r="K12" s="32">
+        <v>5</v>
+      </c>
+      <c r="L12" s="32">
+        <v>-1</v>
+      </c>
+      <c r="M12" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="N12" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="30">
+        <v>11</v>
+      </c>
+      <c r="B13" s="32">
+        <v>2</v>
+      </c>
+      <c r="C13" s="32" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>250</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>359</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="8">
+      <c r="D13" s="32">
+        <v>0</v>
+      </c>
+      <c r="E13" s="32">
+        <v>0</v>
+      </c>
+      <c r="F13" s="32">
+        <v>1</v>
+      </c>
+      <c r="G13" s="32">
+        <v>1</v>
+      </c>
+      <c r="H13" s="32">
+        <v>0</v>
+      </c>
+      <c r="I13" s="32">
+        <v>20</v>
+      </c>
+      <c r="J13" s="32">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="K13" s="32">
+        <v>0</v>
+      </c>
+      <c r="L13" s="32">
+        <v>1</v>
+      </c>
+      <c r="M13" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="N13" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="28" customFormat="1">
+      <c r="A14" s="31">
+        <v>12</v>
+      </c>
+      <c r="B14" s="31">
+        <v>3</v>
+      </c>
+      <c r="C14" s="31">
+        <v>1</v>
+      </c>
+      <c r="D14" s="31">
+        <v>0</v>
+      </c>
+      <c r="E14" s="31">
+        <v>0</v>
+      </c>
+      <c r="F14" s="31">
+        <v>1</v>
+      </c>
+      <c r="G14" s="31">
+        <v>1</v>
+      </c>
+      <c r="H14" s="31">
+        <v>0</v>
+      </c>
+      <c r="I14" s="31">
+        <v>30</v>
+      </c>
+      <c r="J14" s="31">
+        <v>0</v>
+      </c>
+      <c r="K14" s="31">
+        <v>0</v>
+      </c>
+      <c r="L14" s="31">
+        <v>4</v>
+      </c>
+      <c r="M14" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="N14" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="30">
+        <v>13</v>
+      </c>
+      <c r="B15" s="32">
+        <v>7</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="D15" s="32">
+        <v>0</v>
+      </c>
+      <c r="E15" s="32">
+        <v>0</v>
+      </c>
+      <c r="F15" s="32">
+        <v>0</v>
+      </c>
+      <c r="G15" s="32">
+        <v>1</v>
+      </c>
+      <c r="H15" s="32">
+        <v>0</v>
+      </c>
+      <c r="I15" s="32">
+        <v>10</v>
+      </c>
+      <c r="J15" s="32">
+        <v>0</v>
+      </c>
+      <c r="K15" s="32">
+        <v>0</v>
+      </c>
+      <c r="L15" s="32">
         <v>2</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
+      <c r="M15" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="N15" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="30">
+        <v>14</v>
+      </c>
+      <c r="B16" s="32">
+        <v>1</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="D16" s="32">
+        <v>1</v>
+      </c>
+      <c r="E16" s="32">
+        <v>600</v>
+      </c>
+      <c r="F16" s="32">
+        <v>0</v>
+      </c>
+      <c r="G16" s="32">
+        <v>1</v>
+      </c>
+      <c r="H16" s="32">
+        <v>0</v>
+      </c>
+      <c r="I16" s="32">
+        <v>0</v>
+      </c>
+      <c r="J16" s="32">
+        <v>0</v>
+      </c>
+      <c r="K16" s="32">
+        <v>0</v>
+      </c>
+      <c r="L16" s="32">
+        <v>0</v>
+      </c>
+      <c r="M16" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="N16" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="28" customFormat="1">
+      <c r="A17" s="31">
+        <v>15</v>
+      </c>
+      <c r="B17" s="31">
+        <v>2</v>
+      </c>
+      <c r="C17" s="31">
+        <v>1</v>
+      </c>
+      <c r="D17" s="31">
+        <v>0</v>
+      </c>
+      <c r="E17" s="31">
+        <v>0</v>
+      </c>
+      <c r="F17" s="31">
+        <v>1</v>
+      </c>
+      <c r="G17" s="31">
+        <v>1</v>
+      </c>
+      <c r="H17" s="31">
+        <v>0</v>
+      </c>
+      <c r="I17" s="31">
+        <v>10</v>
+      </c>
+      <c r="J17" s="31">
+        <v>0</v>
+      </c>
+      <c r="K17" s="31">
+        <v>0</v>
+      </c>
+      <c r="L17" s="31">
+        <v>1</v>
+      </c>
+      <c r="M17" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="N17" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="30">
+        <v>16</v>
+      </c>
+      <c r="B18" s="32">
+        <v>8</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="D18" s="32">
+        <v>0</v>
+      </c>
+      <c r="E18" s="32">
+        <v>0</v>
+      </c>
+      <c r="F18" s="32">
+        <v>0</v>
+      </c>
+      <c r="G18" s="32">
+        <v>1</v>
+      </c>
+      <c r="H18" s="32">
+        <v>10</v>
+      </c>
+      <c r="I18" s="32">
+        <v>40</v>
+      </c>
+      <c r="J18" s="32">
+        <v>0</v>
+      </c>
+      <c r="K18" s="32">
+        <v>0</v>
+      </c>
+      <c r="L18" s="32">
+        <v>-1</v>
+      </c>
+      <c r="M18" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="N18" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="30">
+        <v>17</v>
+      </c>
+      <c r="B19" s="32">
+        <v>6</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="D19" s="32">
+        <v>0</v>
+      </c>
+      <c r="E19" s="32">
+        <v>0</v>
+      </c>
+      <c r="F19" s="32">
+        <v>1</v>
+      </c>
+      <c r="G19" s="32">
+        <v>1</v>
+      </c>
+      <c r="H19" s="32">
+        <v>0</v>
+      </c>
+      <c r="I19" s="32">
+        <v>20</v>
+      </c>
+      <c r="J19" s="32">
+        <v>2</v>
+      </c>
+      <c r="K19" s="32">
+        <v>4</v>
+      </c>
+      <c r="L19" s="32">
+        <v>2</v>
+      </c>
+      <c r="M19" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="N19" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="30">
+        <v>18</v>
+      </c>
+      <c r="B20" s="32">
+        <v>6</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="D20" s="32">
+        <v>0</v>
+      </c>
+      <c r="E20" s="32">
+        <v>0</v>
+      </c>
+      <c r="F20" s="32">
+        <v>0</v>
+      </c>
+      <c r="G20" s="32">
+        <v>1</v>
+      </c>
+      <c r="H20" s="32">
+        <v>6</v>
+      </c>
+      <c r="I20" s="32">
+        <v>24</v>
+      </c>
+      <c r="J20" s="32">
+        <v>2</v>
+      </c>
+      <c r="K20" s="32">
+        <v>0</v>
+      </c>
+      <c r="L20" s="32">
+        <v>1</v>
+      </c>
+      <c r="M20" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="N20" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="30">
+        <v>19</v>
+      </c>
+      <c r="B21" s="32">
+        <v>1</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="D21" s="32">
         <v>5</v>
       </c>
-      <c r="I4">
+      <c r="E21" s="32">
+        <v>0</v>
+      </c>
+      <c r="F21" s="32">
+        <v>0</v>
+      </c>
+      <c r="G21" s="32">
+        <v>1</v>
+      </c>
+      <c r="H21" s="32">
+        <v>3</v>
+      </c>
+      <c r="I21" s="32">
+        <v>12</v>
+      </c>
+      <c r="J21" s="32">
+        <v>0</v>
+      </c>
+      <c r="K21" s="32">
+        <v>0</v>
+      </c>
+      <c r="L21" s="32">
+        <v>1</v>
+      </c>
+      <c r="M21" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="N21" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="30">
         <v>20</v>
       </c>
-      <c r="J4">
+      <c r="B22" s="32">
+        <v>3</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="D22" s="32">
+        <v>0</v>
+      </c>
+      <c r="E22" s="32">
+        <v>0</v>
+      </c>
+      <c r="F22" s="32">
+        <v>1</v>
+      </c>
+      <c r="G22" s="32">
+        <v>1</v>
+      </c>
+      <c r="H22" s="32">
         <v>5</v>
       </c>
-      <c r="K4">
+      <c r="I22" s="32">
+        <v>20</v>
+      </c>
+      <c r="J22" s="32">
+        <v>0</v>
+      </c>
+      <c r="K22" s="32">
+        <v>0</v>
+      </c>
+      <c r="L22" s="32">
+        <v>4</v>
+      </c>
+      <c r="M22" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="N22" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="30">
+        <v>21</v>
+      </c>
+      <c r="B23" s="32">
+        <v>6</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="D23" s="32">
+        <v>0</v>
+      </c>
+      <c r="E23" s="32">
+        <v>0</v>
+      </c>
+      <c r="F23" s="32">
+        <v>1</v>
+      </c>
+      <c r="G23" s="32">
+        <v>1</v>
+      </c>
+      <c r="H23" s="32">
+        <v>0</v>
+      </c>
+      <c r="I23" s="32">
+        <v>10</v>
+      </c>
+      <c r="J23" s="32">
+        <v>2</v>
+      </c>
+      <c r="K23" s="32">
+        <v>4</v>
+      </c>
+      <c r="L23" s="32">
+        <v>-1</v>
+      </c>
+      <c r="M23" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="N23" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="30">
+        <v>22</v>
+      </c>
+      <c r="B24" s="32">
+        <v>6</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="D24" s="32">
+        <v>0</v>
+      </c>
+      <c r="E24" s="32">
+        <v>0</v>
+      </c>
+      <c r="F24" s="32">
+        <v>1</v>
+      </c>
+      <c r="G24" s="32">
+        <v>1</v>
+      </c>
+      <c r="H24" s="32">
+        <v>0</v>
+      </c>
+      <c r="I24" s="32">
+        <v>30</v>
+      </c>
+      <c r="J24" s="32">
+        <v>3</v>
+      </c>
+      <c r="K24" s="32">
+        <v>5</v>
+      </c>
+      <c r="L24" s="32">
+        <v>-1</v>
+      </c>
+      <c r="M24" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="N24" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="30">
+        <v>23</v>
+      </c>
+      <c r="B25" s="32">
+        <v>6</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="D25" s="32">
+        <v>0</v>
+      </c>
+      <c r="E25" s="32">
+        <v>0</v>
+      </c>
+      <c r="F25" s="32">
+        <v>1</v>
+      </c>
+      <c r="G25" s="32">
+        <v>1</v>
+      </c>
+      <c r="H25" s="32">
+        <v>0</v>
+      </c>
+      <c r="I25" s="32">
+        <v>25</v>
+      </c>
+      <c r="J25" s="32">
+        <v>5</v>
+      </c>
+      <c r="K25" s="32">
         <v>8</v>
       </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4" t="s">
-        <v>358</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="8">
+      <c r="L25" s="32">
+        <v>-1</v>
+      </c>
+      <c r="M25" s="32" t="s">
+        <v>378</v>
+      </c>
+      <c r="N25" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="28" customFormat="1">
+      <c r="A26" s="31">
+        <v>24</v>
+      </c>
+      <c r="B26" s="31">
+        <v>6</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="D26" s="31">
+        <v>0</v>
+      </c>
+      <c r="E26" s="31">
+        <v>0</v>
+      </c>
+      <c r="F26" s="31">
+        <v>1</v>
+      </c>
+      <c r="G26" s="31">
+        <v>0</v>
+      </c>
+      <c r="H26" s="31">
+        <v>0</v>
+      </c>
+      <c r="I26" s="31">
+        <v>6</v>
+      </c>
+      <c r="J26" s="31">
+        <v>0</v>
+      </c>
+      <c r="K26" s="31">
+        <v>0</v>
+      </c>
+      <c r="L26" s="31">
+        <v>1</v>
+      </c>
+      <c r="M26" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="N26" s="31">
+        <v>1</v>
+      </c>
+      <c r="O26" s="28" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="30">
+        <v>25</v>
+      </c>
+      <c r="B27" s="32">
+        <v>2</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="D27" s="32">
+        <v>0</v>
+      </c>
+      <c r="E27" s="32">
+        <v>0</v>
+      </c>
+      <c r="F27" s="32">
+        <v>1</v>
+      </c>
+      <c r="G27" s="32">
+        <v>1</v>
+      </c>
+      <c r="H27" s="32">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="I27" s="32">
+        <v>12</v>
+      </c>
+      <c r="J27" s="32">
+        <v>2</v>
+      </c>
+      <c r="K27" s="32">
+        <v>0</v>
+      </c>
+      <c r="L27" s="32">
+        <v>1</v>
+      </c>
+      <c r="M27" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="N27" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="28" customFormat="1">
+      <c r="A28" s="31">
+        <v>26</v>
+      </c>
+      <c r="B28" s="31">
         <v>3</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1600</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
+      <c r="C28" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="D28" s="31">
+        <v>0</v>
+      </c>
+      <c r="E28" s="31">
+        <v>0</v>
+      </c>
+      <c r="F28" s="31">
+        <v>0</v>
+      </c>
+      <c r="G28" s="31">
+        <v>1</v>
+      </c>
+      <c r="H28" s="31">
+        <v>0</v>
+      </c>
+      <c r="I28" s="31">
+        <v>30</v>
+      </c>
+      <c r="J28" s="31">
+        <v>0</v>
+      </c>
+      <c r="K28" s="31">
+        <v>0</v>
+      </c>
+      <c r="L28" s="31">
+        <v>4</v>
+      </c>
+      <c r="M28" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="N28" s="31">
+        <v>1</v>
+      </c>
+      <c r="O28" s="28" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="30">
+        <v>27</v>
+      </c>
+      <c r="B29" s="32">
+        <v>3</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>335</v>
+      </c>
+      <c r="D29" s="32">
+        <v>0</v>
+      </c>
+      <c r="E29" s="32">
+        <v>0</v>
+      </c>
+      <c r="F29" s="32">
+        <v>0</v>
+      </c>
+      <c r="G29" s="32">
+        <v>1</v>
+      </c>
+      <c r="H29" s="32">
+        <v>7</v>
+      </c>
+      <c r="I29" s="32">
+        <v>28</v>
+      </c>
+      <c r="J29" s="32">
+        <v>0</v>
+      </c>
+      <c r="K29" s="32">
+        <v>0</v>
+      </c>
+      <c r="L29" s="32">
+        <v>4</v>
+      </c>
+      <c r="M29" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="N29" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="32">
+        <v>3</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="D30" s="32">
+        <v>0</v>
+      </c>
+      <c r="E30" s="32">
+        <v>1500</v>
+      </c>
+      <c r="F30" s="32">
+        <v>1</v>
+      </c>
+      <c r="G30" s="32">
+        <v>1</v>
+      </c>
+      <c r="H30" s="32">
+        <v>0</v>
+      </c>
+      <c r="I30" s="32">
+        <v>40</v>
+      </c>
+      <c r="J30" s="32">
+        <v>0</v>
+      </c>
+      <c r="K30" s="32">
+        <v>0</v>
+      </c>
+      <c r="L30" s="32">
+        <v>4</v>
+      </c>
+      <c r="M30" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="N30" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="30">
+        <v>29</v>
+      </c>
+      <c r="B31" s="32">
+        <v>7</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="D31" s="32">
+        <v>0</v>
+      </c>
+      <c r="E31" s="32">
+        <v>0</v>
+      </c>
+      <c r="F31" s="32">
+        <v>1</v>
+      </c>
+      <c r="G31" s="32">
+        <v>1</v>
+      </c>
+      <c r="H31" s="32">
+        <v>8</v>
+      </c>
+      <c r="I31" s="32">
+        <v>32</v>
+      </c>
+      <c r="J31" s="32">
+        <v>0</v>
+      </c>
+      <c r="K31" s="32">
+        <v>0</v>
+      </c>
+      <c r="L31" s="32">
+        <v>2</v>
+      </c>
+      <c r="M31" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="N31" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="30">
+        <v>30</v>
+      </c>
+      <c r="B32" s="32">
+        <v>6</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="D32" s="32">
+        <v>0</v>
+      </c>
+      <c r="E32" s="32">
+        <v>0</v>
+      </c>
+      <c r="F32" s="32">
+        <v>1</v>
+      </c>
+      <c r="G32" s="32">
+        <v>1</v>
+      </c>
+      <c r="H32" s="32">
+        <v>0</v>
+      </c>
+      <c r="I32" s="32">
         <v>15</v>
       </c>
-      <c r="I5">
-        <v>60</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
+      <c r="J32" s="32">
+        <v>5</v>
+      </c>
+      <c r="K32" s="32">
+        <v>8</v>
+      </c>
+      <c r="L32" s="32">
+        <v>6</v>
+      </c>
+      <c r="M32" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="N32" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="30">
+        <v>31</v>
+      </c>
+      <c r="B33" s="32">
+        <v>2</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="D33" s="32">
+        <v>0</v>
+      </c>
+      <c r="E33" s="32">
+        <v>0</v>
+      </c>
+      <c r="F33" s="32">
+        <v>1</v>
+      </c>
+      <c r="G33" s="32">
+        <v>1</v>
+      </c>
+      <c r="H33" s="32">
+        <v>5</v>
+      </c>
+      <c r="I33" s="32">
+        <v>20</v>
+      </c>
+      <c r="J33" s="32">
         <v>4</v>
       </c>
-      <c r="M5" t="s">
-        <v>360</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="8">
+      <c r="K33" s="32">
+        <v>8</v>
+      </c>
+      <c r="L33" s="32">
+        <v>1</v>
+      </c>
+      <c r="M33" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="N33" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="30">
+        <v>32</v>
+      </c>
+      <c r="B34" s="32">
+        <v>5</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="D34" s="32">
+        <v>0</v>
+      </c>
+      <c r="E34" s="32">
+        <v>0</v>
+      </c>
+      <c r="F34" s="32">
+        <v>1</v>
+      </c>
+      <c r="G34" s="32">
+        <v>1</v>
+      </c>
+      <c r="H34" s="32">
+        <v>5</v>
+      </c>
+      <c r="I34" s="32">
+        <v>20</v>
+      </c>
+      <c r="J34" s="32">
+        <v>0</v>
+      </c>
+      <c r="K34" s="32">
+        <v>0</v>
+      </c>
+      <c r="L34" s="32">
+        <v>1</v>
+      </c>
+      <c r="M34" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="N34" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" s="28" customFormat="1">
+      <c r="A35" s="31">
+        <v>33</v>
+      </c>
+      <c r="B35" s="31">
+        <v>2</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="D35" s="31">
+        <v>0</v>
+      </c>
+      <c r="E35" s="31">
+        <v>0</v>
+      </c>
+      <c r="F35" s="31">
+        <v>1</v>
+      </c>
+      <c r="G35" s="31">
+        <v>1</v>
+      </c>
+      <c r="H35" s="31">
+        <v>0</v>
+      </c>
+      <c r="I35" s="31">
+        <v>12</v>
+      </c>
+      <c r="J35" s="31">
+        <v>2</v>
+      </c>
+      <c r="K35" s="31">
+        <v>0</v>
+      </c>
+      <c r="L35" s="31">
+        <v>1</v>
+      </c>
+      <c r="M35" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="N35" s="31">
+        <v>1</v>
+      </c>
+      <c r="O35" s="28" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="30">
+        <v>34</v>
+      </c>
+      <c r="B36" s="32">
+        <v>6</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="D36" s="32">
+        <v>0</v>
+      </c>
+      <c r="E36" s="32">
+        <v>0</v>
+      </c>
+      <c r="F36" s="32">
+        <v>1</v>
+      </c>
+      <c r="G36" s="32">
+        <v>1</v>
+      </c>
+      <c r="H36" s="32">
+        <v>0</v>
+      </c>
+      <c r="I36" s="32">
+        <v>20</v>
+      </c>
+      <c r="J36" s="32">
+        <v>0</v>
+      </c>
+      <c r="K36" s="32">
+        <v>0</v>
+      </c>
+      <c r="L36" s="32">
+        <v>6</v>
+      </c>
+      <c r="M36" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="N36" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="30">
+        <v>35</v>
+      </c>
+      <c r="B37" s="32">
+        <v>6</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="D37" s="32">
+        <v>0</v>
+      </c>
+      <c r="E37" s="32">
+        <v>0</v>
+      </c>
+      <c r="F37" s="32">
+        <v>1</v>
+      </c>
+      <c r="G37" s="32">
+        <v>1</v>
+      </c>
+      <c r="H37" s="32">
+        <v>6</v>
+      </c>
+      <c r="I37" s="32">
+        <v>24</v>
+      </c>
+      <c r="J37" s="32">
+        <v>5</v>
+      </c>
+      <c r="K37" s="32">
+        <v>8</v>
+      </c>
+      <c r="L37" s="32">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>6</v>
-      </c>
-      <c r="I6">
-        <v>24</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>-1</v>
-      </c>
-      <c r="M6" t="s">
-        <v>361</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="8">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>312</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <v>20</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7" t="s">
-        <v>362</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>313</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>8</v>
-      </c>
-      <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8" t="s">
-        <v>363</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="28" customFormat="1">
-      <c r="A9" s="30">
-        <v>7</v>
-      </c>
-      <c r="B9" s="28">
-        <v>5</v>
-      </c>
-      <c r="C9" s="31">
-        <v>1</v>
-      </c>
-      <c r="D9" s="28">
-        <v>0</v>
-      </c>
-      <c r="E9" s="28">
-        <v>500</v>
-      </c>
-      <c r="F9" s="29">
-        <v>0</v>
-      </c>
-      <c r="G9" s="28">
-        <v>1</v>
-      </c>
-      <c r="H9" s="28">
-        <v>6</v>
-      </c>
-      <c r="I9" s="28">
-        <v>24</v>
-      </c>
-      <c r="J9" s="28">
-        <v>0</v>
-      </c>
-      <c r="K9" s="28">
-        <v>0</v>
-      </c>
-      <c r="L9" s="28">
-        <v>1</v>
-      </c>
-      <c r="M9" s="28" t="s">
-        <v>364</v>
-      </c>
-      <c r="N9" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="8">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>317</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>20</v>
-      </c>
-      <c r="J10">
-        <v>5</v>
-      </c>
-      <c r="K10">
-        <v>8</v>
-      </c>
-      <c r="L10">
-        <v>12</v>
-      </c>
-      <c r="M10" t="s">
-        <v>365</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="8">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>6</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11" t="s">
-        <v>366</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="8">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>15</v>
-      </c>
-      <c r="J12">
-        <v>3</v>
-      </c>
-      <c r="K12">
-        <v>5</v>
-      </c>
-      <c r="L12">
-        <v>-1</v>
-      </c>
-      <c r="M12" t="s">
-        <v>367</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="8">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>20</v>
-      </c>
-      <c r="J13">
-        <v>2</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13" t="s">
-        <v>368</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="8">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14" s="23">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>30</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>4</v>
-      </c>
-      <c r="M14" t="s">
-        <v>370</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="8">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>7</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>322</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>10</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>2</v>
-      </c>
-      <c r="M15" t="s">
-        <v>371</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="8">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>600</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16" t="s">
-        <v>372</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="8">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" s="23">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>10</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17" t="s">
-        <v>373</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="8">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>8</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>10</v>
-      </c>
-      <c r="I18">
-        <v>40</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>-1</v>
-      </c>
-      <c r="M18" t="s">
-        <v>374</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="8">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>6</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>20</v>
-      </c>
-      <c r="J19">
-        <v>2</v>
-      </c>
-      <c r="K19">
-        <v>4</v>
-      </c>
-      <c r="L19">
-        <v>2</v>
-      </c>
-      <c r="M19" t="s">
-        <v>375</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="8">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>6</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>6</v>
-      </c>
-      <c r="I20">
-        <v>24</v>
-      </c>
-      <c r="J20">
-        <v>2</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20" t="s">
-        <v>376</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="8">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>3</v>
-      </c>
-      <c r="I21">
-        <v>12</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21" t="s">
-        <v>377</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="8">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>5</v>
-      </c>
-      <c r="I22">
-        <v>20</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>4</v>
-      </c>
-      <c r="M22" t="s">
-        <v>378</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="8">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>6</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>331</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>10</v>
-      </c>
-      <c r="J23">
-        <v>2</v>
-      </c>
-      <c r="K23">
-        <v>4</v>
-      </c>
-      <c r="L23">
-        <v>-1</v>
-      </c>
-      <c r="M23" t="s">
-        <v>379</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="8">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>6</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>30</v>
-      </c>
-      <c r="J24">
-        <v>3</v>
-      </c>
-      <c r="K24">
-        <v>5</v>
-      </c>
-      <c r="L24">
-        <v>-1</v>
-      </c>
-      <c r="M24" t="s">
-        <v>380</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="8">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>6</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>25</v>
-      </c>
-      <c r="J25">
-        <v>5</v>
-      </c>
-      <c r="K25">
-        <v>8</v>
-      </c>
-      <c r="L25">
-        <v>-1</v>
-      </c>
-      <c r="M25" t="s">
-        <v>381</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="28" customFormat="1">
-      <c r="A26" s="30">
-        <v>24</v>
-      </c>
-      <c r="B26" s="28">
-        <v>6</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>334</v>
-      </c>
-      <c r="D26" s="28">
-        <v>0</v>
-      </c>
-      <c r="E26" s="28">
-        <v>0</v>
-      </c>
-      <c r="F26" s="28">
-        <v>1</v>
-      </c>
-      <c r="G26" s="28">
-        <v>0</v>
-      </c>
-      <c r="H26" s="28">
-        <v>0</v>
-      </c>
-      <c r="I26" s="28">
-        <v>6</v>
-      </c>
-      <c r="J26" s="28">
-        <v>0</v>
-      </c>
-      <c r="K26" s="28">
-        <v>0</v>
-      </c>
-      <c r="L26" s="28">
-        <v>1</v>
-      </c>
-      <c r="M26" s="28" t="s">
-        <v>382</v>
-      </c>
-      <c r="N26" s="28">
-        <v>1</v>
-      </c>
-      <c r="O26" s="28" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="8">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>3</v>
-      </c>
-      <c r="I27">
-        <v>12</v>
-      </c>
-      <c r="J27">
-        <v>2</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27" t="s">
-        <v>383</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="28" customFormat="1">
-      <c r="A28" s="30">
-        <v>26</v>
-      </c>
-      <c r="B28" s="28">
-        <v>3</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>338</v>
-      </c>
-      <c r="D28" s="28">
-        <v>0</v>
-      </c>
-      <c r="E28" s="28">
-        <v>0</v>
-      </c>
-      <c r="F28" s="28">
-        <v>0</v>
-      </c>
-      <c r="G28" s="28">
-        <v>1</v>
-      </c>
-      <c r="H28" s="28">
-        <v>0</v>
-      </c>
-      <c r="I28" s="28">
-        <v>30</v>
-      </c>
-      <c r="J28" s="28">
-        <v>0</v>
-      </c>
-      <c r="K28" s="28">
-        <v>0</v>
-      </c>
-      <c r="L28" s="28">
-        <v>4</v>
-      </c>
-      <c r="M28" s="28" t="s">
-        <v>369</v>
-      </c>
-      <c r="N28" s="28">
-        <v>1</v>
-      </c>
-      <c r="O28" s="28" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="8">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>7</v>
-      </c>
-      <c r="I29">
-        <v>28</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>4</v>
-      </c>
-      <c r="M29" t="s">
-        <v>384</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="8">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>1500</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>40</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>4</v>
-      </c>
-      <c r="M30" t="s">
-        <v>385</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="8">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>7</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>8</v>
-      </c>
-      <c r="I31">
-        <v>32</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>2</v>
-      </c>
-      <c r="M31" t="s">
-        <v>386</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="8">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>6</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>342</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>15</v>
-      </c>
-      <c r="J32">
-        <v>5</v>
-      </c>
-      <c r="K32">
-        <v>8</v>
-      </c>
-      <c r="L32">
-        <v>6</v>
-      </c>
-      <c r="M32" t="s">
-        <v>387</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="8">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>343</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>5</v>
-      </c>
-      <c r="I33">
-        <v>20</v>
-      </c>
-      <c r="J33">
-        <v>4</v>
-      </c>
-      <c r="K33">
-        <v>8</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33" t="s">
-        <v>388</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="8">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>5</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>344</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>5</v>
-      </c>
-      <c r="I34">
-        <v>20</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34" t="s">
+      <c r="M37" s="32" t="s">
         <v>389</v>
       </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" s="28" customFormat="1">
-      <c r="A35" s="30">
-        <v>33</v>
-      </c>
-      <c r="B35" s="28">
-        <v>2</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>345</v>
-      </c>
-      <c r="D35" s="28">
-        <v>0</v>
-      </c>
-      <c r="E35" s="28">
-        <v>0</v>
-      </c>
-      <c r="F35" s="28">
-        <v>1</v>
-      </c>
-      <c r="G35" s="28">
-        <v>1</v>
-      </c>
-      <c r="H35" s="28">
-        <v>0</v>
-      </c>
-      <c r="I35" s="28">
-        <v>12</v>
-      </c>
-      <c r="J35" s="28">
-        <v>2</v>
-      </c>
-      <c r="K35" s="28">
-        <v>0</v>
-      </c>
-      <c r="L35" s="28">
-        <v>1</v>
-      </c>
-      <c r="M35" s="28" t="s">
-        <v>390</v>
-      </c>
-      <c r="N35" s="28">
-        <v>1</v>
-      </c>
-      <c r="O35" s="28" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="8">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>6</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>20</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>6</v>
-      </c>
-      <c r="M36" t="s">
-        <v>391</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="8">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>6</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>6</v>
-      </c>
-      <c r="I37">
-        <v>24</v>
-      </c>
-      <c r="J37">
-        <v>5</v>
-      </c>
-      <c r="K37">
-        <v>8</v>
-      </c>
-      <c r="L37">
-        <v>4</v>
-      </c>
-      <c r="M37" t="s">
-        <v>392</v>
-      </c>
-      <c r="N37">
+      <c r="N37" s="32">
         <v>0</v>
       </c>
     </row>
@@ -11323,7 +11838,11 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -11354,31 +11873,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="G1" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>404</v>
-      </c>
       <c r="J1" s="12" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="12" customFormat="1">
@@ -11386,13 +11905,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="18" customFormat="1">
@@ -11406,7 +11925,7 @@
         <v>1000</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="18" customFormat="1">
@@ -11417,7 +11936,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="18" customFormat="1">
@@ -11514,7 +12033,7 @@
         <v>1100</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="18" customFormat="1">
@@ -11593,7 +12112,7 @@
         <v>1500</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="18" customFormat="1">
@@ -11631,7 +12150,7 @@
         <v>1200</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="18" customFormat="1">
@@ -11669,7 +12188,7 @@
         <v>1300</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="18" customFormat="1">
@@ -11689,7 +12208,7 @@
         <v>1400</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -11809,7 +12328,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
